--- a/DTW/data/no_skip.xlsx
+++ b/DTW/data/no_skip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5728CDFF-373D-4CC2-8C56-B447DCCAF8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E932F5B-D5A6-44B2-BDCC-CFCB206F4DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="12880" yWindow="680" windowWidth="25470" windowHeight="15460" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="80">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -946,16 +946,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A780" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D801" sqref="D801"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="7">
         <v>1</v>
       </c>
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="8"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
@@ -979,7 +979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
@@ -989,7 +989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
@@ -997,7 +997,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="8"/>
       <c r="B5" s="13" t="s">
         <v>4</v>
@@ -1009,7 +1009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
@@ -1019,7 +1019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
@@ -1029,7 +1029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="8"/>
       <c r="B9" s="13" t="s">
         <v>5</v>
@@ -1049,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
@@ -1059,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
@@ -1069,7 +1069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="8"/>
       <c r="B13" s="13" t="s">
         <v>6</v>
@@ -1089,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
@@ -1099,7 +1099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
@@ -1109,7 +1109,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
@@ -1119,7 +1119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>2</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="8"/>
       <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
@@ -1143,7 +1143,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="8"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
@@ -1153,7 +1153,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="8"/>
       <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="8"/>
       <c r="B21" s="13" t="s">
         <v>4</v>
@@ -1173,7 +1173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
@@ -1193,7 +1193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="13" t="s">
         <v>5</v>
@@ -1215,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
@@ -1225,7 +1225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="8"/>
       <c r="B29" s="13" t="s">
         <v>6</v>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
@@ -1265,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
@@ -1275,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="9"/>
       <c r="B32" s="14"/>
       <c r="C32" s="5" t="s">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>3</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
@@ -1307,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
@@ -1317,7 +1317,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="8"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="8"/>
       <c r="B37" s="13" t="s">
         <v>4</v>
@@ -1337,7 +1337,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
@@ -1347,7 +1347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="1" t="s">
@@ -1357,7 +1357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="8"/>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="8"/>
       <c r="B41" s="13" t="s">
         <v>5</v>
@@ -1377,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="1" t="s">
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
@@ -1397,7 +1397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="8"/>
       <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
@@ -1407,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="8"/>
       <c r="B45" s="13" t="s">
         <v>6</v>
@@ -1419,7 +1419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="8"/>
       <c r="B46" s="11"/>
       <c r="C46" s="1" t="s">
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
       <c r="C47" s="1" t="s">
@@ -1439,7 +1439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="9"/>
       <c r="B48" s="14"/>
       <c r="C48" s="5" t="s">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>4</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="1" t="s">
@@ -1471,7 +1471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="1" t="s">
@@ -1481,7 +1481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="8"/>
       <c r="B52" s="12"/>
       <c r="C52" s="1" t="s">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="8"/>
       <c r="B53" s="13" t="s">
         <v>4</v>
@@ -1501,7 +1501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="1" t="s">
@@ -1511,7 +1511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="8"/>
       <c r="B55" s="11"/>
       <c r="C55" s="1" t="s">
@@ -1521,7 +1521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="8"/>
       <c r="B56" s="12"/>
       <c r="C56" s="1" t="s">
@@ -1531,7 +1531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="8"/>
       <c r="B57" s="13" t="s">
         <v>5</v>
@@ -1543,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="8"/>
       <c r="B58" s="11"/>
       <c r="C58" s="1" t="s">
@@ -1553,7 +1553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="8"/>
       <c r="B59" s="11"/>
       <c r="C59" s="1" t="s">
@@ -1563,7 +1563,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="8"/>
       <c r="B60" s="12"/>
       <c r="C60" s="1" t="s">
@@ -1573,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="8"/>
       <c r="B61" s="13" t="s">
         <v>6</v>
@@ -1585,7 +1585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="8"/>
       <c r="B62" s="11"/>
       <c r="C62" s="1" t="s">
@@ -1595,7 +1595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="1" t="s">
@@ -1605,7 +1605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="9"/>
       <c r="B64" s="14"/>
       <c r="C64" s="5" t="s">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="7">
         <v>5</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="1" t="s">
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="1" t="s">
@@ -1647,7 +1647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="8"/>
       <c r="B68" s="12"/>
       <c r="C68" s="1" t="s">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="8"/>
       <c r="B69" s="13" t="s">
         <v>4</v>
@@ -1667,7 +1667,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="1" t="s">
@@ -1677,7 +1677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="1" t="s">
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="8"/>
       <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
@@ -1697,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="8"/>
       <c r="B73" s="13" t="s">
         <v>5</v>
@@ -1709,7 +1709,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="1" t="s">
@@ -1719,7 +1719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="1" t="s">
@@ -1729,7 +1729,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="8"/>
       <c r="B76" s="12"/>
       <c r="C76" s="1" t="s">
@@ -1739,7 +1739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="8"/>
       <c r="B77" s="13" t="s">
         <v>6</v>
@@ -1751,7 +1751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="8"/>
       <c r="B78" s="11"/>
       <c r="C78" s="1" t="s">
@@ -1761,7 +1761,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="8"/>
       <c r="B79" s="11"/>
       <c r="C79" s="1" t="s">
@@ -1771,7 +1771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="9"/>
       <c r="B80" s="14"/>
       <c r="C80" s="5" t="s">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A81" s="7">
         <v>6</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A82" s="8"/>
       <c r="B82" s="11"/>
       <c r="C82" s="1" t="s">
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A83" s="8"/>
       <c r="B83" s="11"/>
       <c r="C83" s="1" t="s">
@@ -1813,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A84" s="8"/>
       <c r="B84" s="12"/>
       <c r="C84" s="1" t="s">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A85" s="8"/>
       <c r="B85" s="13" t="s">
         <v>4</v>
@@ -1833,7 +1833,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A86" s="8"/>
       <c r="B86" s="11"/>
       <c r="C86" s="1" t="s">
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A87" s="8"/>
       <c r="B87" s="11"/>
       <c r="C87" s="1" t="s">
@@ -1853,7 +1853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A88" s="8"/>
       <c r="B88" s="12"/>
       <c r="C88" s="1" t="s">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A89" s="8"/>
       <c r="B89" s="13" t="s">
         <v>5</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A90" s="8"/>
       <c r="B90" s="11"/>
       <c r="C90" s="1" t="s">
@@ -1883,7 +1883,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A91" s="8"/>
       <c r="B91" s="11"/>
       <c r="C91" s="1" t="s">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A92" s="8"/>
       <c r="B92" s="12"/>
       <c r="C92" s="1" t="s">
@@ -1903,7 +1903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A93" s="8"/>
       <c r="B93" s="13" t="s">
         <v>6</v>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A94" s="8"/>
       <c r="B94" s="11"/>
       <c r="C94" s="1" t="s">
@@ -1923,7 +1923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A95" s="8"/>
       <c r="B95" s="11"/>
       <c r="C95" s="1" t="s">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="9"/>
       <c r="B96" s="14"/>
       <c r="C96" s="5" t="s">
@@ -1941,7 +1941,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A97" s="7">
         <v>7</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A98" s="8"/>
       <c r="B98" s="11"/>
       <c r="C98" s="1" t="s">
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A99" s="8"/>
       <c r="B99" s="11"/>
       <c r="C99" s="1" t="s">
@@ -1975,7 +1975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A100" s="8"/>
       <c r="B100" s="12"/>
       <c r="C100" s="1" t="s">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A101" s="8"/>
       <c r="B101" s="13" t="s">
         <v>4</v>
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A102" s="8"/>
       <c r="B102" s="11"/>
       <c r="C102" s="1" t="s">
@@ -2005,7 +2005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A103" s="8"/>
       <c r="B103" s="11"/>
       <c r="C103" s="1" t="s">
@@ -2015,7 +2015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A104" s="8"/>
       <c r="B104" s="12"/>
       <c r="C104" s="1" t="s">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A105" s="8"/>
       <c r="B105" s="13" t="s">
         <v>5</v>
@@ -2035,7 +2035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A106" s="8"/>
       <c r="B106" s="11"/>
       <c r="C106" s="1" t="s">
@@ -2045,7 +2045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A107" s="8"/>
       <c r="B107" s="11"/>
       <c r="C107" s="1" t="s">
@@ -2055,7 +2055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A108" s="8"/>
       <c r="B108" s="12"/>
       <c r="C108" s="1" t="s">
@@ -2065,7 +2065,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A109" s="8"/>
       <c r="B109" s="13" t="s">
         <v>6</v>
@@ -2077,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A110" s="8"/>
       <c r="B110" s="11"/>
       <c r="C110" s="1" t="s">
@@ -2087,7 +2087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
       <c r="C111" s="1" t="s">
@@ -2097,7 +2097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A112" s="9"/>
       <c r="B112" s="14"/>
       <c r="C112" s="5" t="s">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A113" s="7">
         <v>8</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="C114" s="1" t="s">
@@ -2129,7 +2129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="C115" s="1" t="s">
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A116" s="8"/>
       <c r="B116" s="12"/>
       <c r="C116" s="1" t="s">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="8"/>
       <c r="B117" s="13" t="s">
         <v>4</v>
@@ -2159,7 +2159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="8"/>
       <c r="B118" s="11"/>
       <c r="C118" s="1" t="s">
@@ -2169,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119" s="8"/>
       <c r="B119" s="11"/>
       <c r="C119" s="1" t="s">
@@ -2179,7 +2179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120" s="8"/>
       <c r="B120" s="12"/>
       <c r="C120" s="1" t="s">
@@ -2189,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121" s="8"/>
       <c r="B121" s="13" t="s">
         <v>5</v>
@@ -2201,7 +2201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122" s="8"/>
       <c r="B122" s="11"/>
       <c r="C122" s="1" t="s">
@@ -2211,7 +2211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="8"/>
       <c r="B123" s="11"/>
       <c r="C123" s="1" t="s">
@@ -2221,7 +2221,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124" s="8"/>
       <c r="B124" s="12"/>
       <c r="C124" s="1" t="s">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125" s="8"/>
       <c r="B125" s="13" t="s">
         <v>6</v>
@@ -2241,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="8"/>
       <c r="B126" s="11"/>
       <c r="C126" s="1" t="s">
@@ -2251,7 +2251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127" s="8"/>
       <c r="B127" s="11"/>
       <c r="C127" s="1" t="s">
@@ -2261,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A128" s="9"/>
       <c r="B128" s="14"/>
       <c r="C128" s="5" t="s">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129" s="7">
         <v>9</v>
       </c>
@@ -2279,25 +2279,31 @@
       <c r="C129" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130" s="8"/>
       <c r="B130" s="11"/>
       <c r="C130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131" s="8"/>
       <c r="B131" s="11"/>
       <c r="C131" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="8"/>
       <c r="B132" s="12"/>
       <c r="C132" s="1" t="s">
@@ -2305,7 +2311,7 @@
       </c>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133" s="8"/>
       <c r="B133" s="13" t="s">
         <v>4</v>
@@ -2313,31 +2319,31 @@
       <c r="C133" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D133" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D134" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136" s="8"/>
       <c r="B136" s="12"/>
       <c r="C136" s="1" t="s">
@@ -2345,7 +2351,7 @@
       </c>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137" s="8"/>
       <c r="B137" s="13" t="s">
         <v>5</v>
@@ -2357,37 +2363,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140" s="8"/>
       <c r="B140" s="12"/>
       <c r="C140" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141" s="8"/>
       <c r="B141" s="13" t="s">
         <v>6</v>
@@ -2396,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="1" t="s">
@@ -2409,27 +2413,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D143" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A144" s="9"/>
       <c r="B144" s="14"/>
       <c r="C144" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145" s="7">
         <v>10</v>
       </c>
@@ -2443,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="1" t="s">
@@ -2453,7 +2455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="1" t="s">
@@ -2463,7 +2465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148" s="8"/>
       <c r="B148" s="12"/>
       <c r="C148" s="1" t="s">
@@ -2471,7 +2473,7 @@
       </c>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149" s="8"/>
       <c r="B149" s="13" t="s">
         <v>4</v>
@@ -2483,7 +2485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="1" t="s">
@@ -2493,7 +2495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="1" t="s">
@@ -2503,7 +2505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152" s="8"/>
       <c r="B152" s="12"/>
       <c r="C152" s="1" t="s">
@@ -2511,7 +2513,7 @@
       </c>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153" s="8"/>
       <c r="B153" s="13" t="s">
         <v>5</v>
@@ -2523,7 +2525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="1" t="s">
@@ -2533,7 +2535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155" s="8"/>
       <c r="B155" s="11"/>
       <c r="C155" s="1" t="s">
@@ -2543,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156" s="8"/>
       <c r="B156" s="12"/>
       <c r="C156" s="1" t="s">
@@ -2553,7 +2555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157" s="8"/>
       <c r="B157" s="13" t="s">
         <v>6</v>
@@ -2565,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158" s="8"/>
       <c r="B158" s="11"/>
       <c r="C158" s="1" t="s">
@@ -2575,7 +2577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159" s="8"/>
       <c r="B159" s="11"/>
       <c r="C159" s="1" t="s">
@@ -2585,7 +2587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A160" s="9"/>
       <c r="B160" s="14"/>
       <c r="C160" s="5" t="s">
@@ -2595,7 +2597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161" s="7">
         <v>11</v>
       </c>
@@ -2609,7 +2611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162" s="8"/>
       <c r="B162" s="11"/>
       <c r="C162" s="1" t="s">
@@ -2619,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163" s="8"/>
       <c r="B163" s="11"/>
       <c r="C163" s="1" t="s">
@@ -2629,7 +2631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164" s="8"/>
       <c r="B164" s="12"/>
       <c r="C164" s="1" t="s">
@@ -2637,7 +2639,7 @@
       </c>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165" s="8"/>
       <c r="B165" s="13" t="s">
         <v>4</v>
@@ -2649,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166" s="8"/>
       <c r="B166" s="11"/>
       <c r="C166" s="1" t="s">
@@ -2659,7 +2661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167" s="8"/>
       <c r="B167" s="11"/>
       <c r="C167" s="1" t="s">
@@ -2669,7 +2671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168" s="8"/>
       <c r="B168" s="12"/>
       <c r="C168" s="1" t="s">
@@ -2677,7 +2679,7 @@
       </c>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169" s="8"/>
       <c r="B169" s="13" t="s">
         <v>5</v>
@@ -2689,7 +2691,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170" s="8"/>
       <c r="B170" s="11"/>
       <c r="C170" s="1" t="s">
@@ -2699,7 +2701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171" s="8"/>
       <c r="B171" s="11"/>
       <c r="C171" s="1" t="s">
@@ -2709,7 +2711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172" s="8"/>
       <c r="B172" s="12"/>
       <c r="C172" s="1" t="s">
@@ -2719,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173" s="8"/>
       <c r="B173" s="13" t="s">
         <v>6</v>
@@ -2731,7 +2733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174" s="8"/>
       <c r="B174" s="11"/>
       <c r="C174" s="1" t="s">
@@ -2741,7 +2743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175" s="8"/>
       <c r="B175" s="11"/>
       <c r="C175" s="1" t="s">
@@ -2751,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A176" s="9"/>
       <c r="B176" s="14"/>
       <c r="C176" s="5" t="s">
@@ -2759,7 +2761,7 @@
       </c>
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A177" s="7">
         <v>12</v>
       </c>
@@ -2773,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A178" s="8"/>
       <c r="B178" s="11"/>
       <c r="C178" s="1" t="s">
@@ -2783,7 +2785,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A179" s="8"/>
       <c r="B179" s="11"/>
       <c r="C179" s="1" t="s">
@@ -2793,7 +2795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A180" s="8"/>
       <c r="B180" s="12"/>
       <c r="C180" s="1" t="s">
@@ -2801,7 +2803,7 @@
       </c>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A181" s="8"/>
       <c r="B181" s="13" t="s">
         <v>4</v>
@@ -2813,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A182" s="8"/>
       <c r="B182" s="11"/>
       <c r="C182" s="1" t="s">
@@ -2823,7 +2825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A183" s="8"/>
       <c r="B183" s="11"/>
       <c r="C183" s="1" t="s">
@@ -2833,7 +2835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A184" s="8"/>
       <c r="B184" s="12"/>
       <c r="C184" s="1" t="s">
@@ -2843,7 +2845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A185" s="8"/>
       <c r="B185" s="13" t="s">
         <v>5</v>
@@ -2855,7 +2857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A186" s="8"/>
       <c r="B186" s="11"/>
       <c r="C186" s="1" t="s">
@@ -2865,7 +2867,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A187" s="8"/>
       <c r="B187" s="11"/>
       <c r="C187" s="1" t="s">
@@ -2875,7 +2877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A188" s="8"/>
       <c r="B188" s="12"/>
       <c r="C188" s="1" t="s">
@@ -2883,7 +2885,7 @@
       </c>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A189" s="8"/>
       <c r="B189" s="13" t="s">
         <v>6</v>
@@ -2895,7 +2897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A190" s="8"/>
       <c r="B190" s="11"/>
       <c r="C190" s="1" t="s">
@@ -2905,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A191" s="8"/>
       <c r="B191" s="11"/>
       <c r="C191" s="1" t="s">
@@ -2915,7 +2917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A192" s="9"/>
       <c r="B192" s="14"/>
       <c r="C192" s="5" t="s">
@@ -2923,7 +2925,7 @@
       </c>
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A193" s="7">
         <v>13</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A194" s="8"/>
       <c r="B194" s="11"/>
       <c r="C194" s="1" t="s">
@@ -2947,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A195" s="8"/>
       <c r="B195" s="11"/>
       <c r="C195" s="1" t="s">
@@ -2957,7 +2959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A196" s="8"/>
       <c r="B196" s="12"/>
       <c r="C196" s="1" t="s">
@@ -2965,7 +2967,7 @@
       </c>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A197" s="8"/>
       <c r="B197" s="13" t="s">
         <v>4</v>
@@ -2977,7 +2979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A198" s="8"/>
       <c r="B198" s="11"/>
       <c r="C198" s="1" t="s">
@@ -2987,7 +2989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A199" s="8"/>
       <c r="B199" s="11"/>
       <c r="C199" s="1" t="s">
@@ -2997,7 +2999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A200" s="8"/>
       <c r="B200" s="12"/>
       <c r="C200" s="1" t="s">
@@ -3005,7 +3007,7 @@
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A201" s="8"/>
       <c r="B201" s="13" t="s">
         <v>5</v>
@@ -3017,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A202" s="8"/>
       <c r="B202" s="11"/>
       <c r="C202" s="1" t="s">
@@ -3027,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A203" s="8"/>
       <c r="B203" s="11"/>
       <c r="C203" s="1" t="s">
@@ -3037,7 +3039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A204" s="8"/>
       <c r="B204" s="12"/>
       <c r="C204" s="1" t="s">
@@ -3045,7 +3047,7 @@
       </c>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A205" s="8"/>
       <c r="B205" s="13" t="s">
         <v>6</v>
@@ -3057,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A206" s="8"/>
       <c r="B206" s="11"/>
       <c r="C206" s="1" t="s">
@@ -3067,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A207" s="8"/>
       <c r="B207" s="11"/>
       <c r="C207" s="1" t="s">
@@ -3077,7 +3079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A208" s="9"/>
       <c r="B208" s="14"/>
       <c r="C208" s="5" t="s">
@@ -3085,7 +3087,7 @@
       </c>
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A209" s="7">
         <v>14</v>
       </c>
@@ -3099,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A210" s="8"/>
       <c r="B210" s="11"/>
       <c r="C210" s="1" t="s">
@@ -3109,7 +3111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A211" s="8"/>
       <c r="B211" s="11"/>
       <c r="C211" s="1" t="s">
@@ -3119,7 +3121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A212" s="8"/>
       <c r="B212" s="12"/>
       <c r="C212" s="1" t="s">
@@ -3127,7 +3129,7 @@
       </c>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A213" s="8"/>
       <c r="B213" s="13" t="s">
         <v>4</v>
@@ -3139,7 +3141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="8"/>
       <c r="B214" s="11"/>
       <c r="C214" s="1" t="s">
@@ -3149,7 +3151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A215" s="8"/>
       <c r="B215" s="11"/>
       <c r="C215" s="1" t="s">
@@ -3159,7 +3161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A216" s="8"/>
       <c r="B216" s="12"/>
       <c r="C216" s="1" t="s">
@@ -3167,7 +3169,7 @@
       </c>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="8"/>
       <c r="B217" s="13" t="s">
         <v>5</v>
@@ -3179,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="8"/>
       <c r="B218" s="11"/>
       <c r="C218" s="1" t="s">
@@ -3189,7 +3191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A219" s="8"/>
       <c r="B219" s="11"/>
       <c r="C219" s="1" t="s">
@@ -3199,7 +3201,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="8"/>
       <c r="B220" s="12"/>
       <c r="C220" s="1" t="s">
@@ -3209,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A221" s="8"/>
       <c r="B221" s="13" t="s">
         <v>6</v>
@@ -3221,7 +3223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A222" s="8"/>
       <c r="B222" s="11"/>
       <c r="C222" s="1" t="s">
@@ -3231,7 +3233,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A223" s="8"/>
       <c r="B223" s="11"/>
       <c r="C223" s="1" t="s">
@@ -3241,7 +3243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A224" s="9"/>
       <c r="B224" s="14"/>
       <c r="C224" s="5" t="s">
@@ -3249,7 +3251,7 @@
       </c>
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A225" s="7">
         <v>15</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A226" s="8"/>
       <c r="B226" s="11"/>
       <c r="C226" s="1" t="s">
@@ -3273,7 +3275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A227" s="8"/>
       <c r="B227" s="11"/>
       <c r="C227" s="1" t="s">
@@ -3283,7 +3285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A228" s="8"/>
       <c r="B228" s="12"/>
       <c r="C228" s="1" t="s">
@@ -3291,7 +3293,7 @@
       </c>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A229" s="8"/>
       <c r="B229" s="13" t="s">
         <v>4</v>
@@ -3303,7 +3305,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A230" s="8"/>
       <c r="B230" s="11"/>
       <c r="C230" s="1" t="s">
@@ -3313,7 +3315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A231" s="8"/>
       <c r="B231" s="11"/>
       <c r="C231" s="1" t="s">
@@ -3323,7 +3325,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A232" s="8"/>
       <c r="B232" s="12"/>
       <c r="C232" s="1" t="s">
@@ -3331,7 +3333,7 @@
       </c>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A233" s="8"/>
       <c r="B233" s="13" t="s">
         <v>5</v>
@@ -3343,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A234" s="8"/>
       <c r="B234" s="11"/>
       <c r="C234" s="1" t="s">
@@ -3353,7 +3355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A235" s="8"/>
       <c r="B235" s="11"/>
       <c r="C235" s="1" t="s">
@@ -3363,7 +3365,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A236" s="8"/>
       <c r="B236" s="12"/>
       <c r="C236" s="1" t="s">
@@ -3371,7 +3373,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A237" s="8"/>
       <c r="B237" s="13" t="s">
         <v>6</v>
@@ -3383,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A238" s="8"/>
       <c r="B238" s="11"/>
       <c r="C238" s="1" t="s">
@@ -3393,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A239" s="8"/>
       <c r="B239" s="11"/>
       <c r="C239" s="1" t="s">
@@ -3403,7 +3405,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A240" s="9"/>
       <c r="B240" s="14"/>
       <c r="C240" s="5" t="s">
@@ -3411,7 +3413,7 @@
       </c>
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A241" s="7">
         <v>16</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A242" s="8"/>
       <c r="B242" s="11"/>
       <c r="C242" s="1" t="s">
@@ -3435,7 +3437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A243" s="8"/>
       <c r="B243" s="11"/>
       <c r="C243" s="1" t="s">
@@ -3445,7 +3447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A244" s="8"/>
       <c r="B244" s="12"/>
       <c r="C244" s="1" t="s">
@@ -3453,7 +3455,7 @@
       </c>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A245" s="8"/>
       <c r="B245" s="13" t="s">
         <v>4</v>
@@ -3465,7 +3467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A246" s="8"/>
       <c r="B246" s="11"/>
       <c r="C246" s="1" t="s">
@@ -3475,7 +3477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A247" s="8"/>
       <c r="B247" s="11"/>
       <c r="C247" s="1" t="s">
@@ -3485,7 +3487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A248" s="8"/>
       <c r="B248" s="12"/>
       <c r="C248" s="1" t="s">
@@ -3493,7 +3495,7 @@
       </c>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A249" s="8"/>
       <c r="B249" s="13" t="s">
         <v>5</v>
@@ -3505,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A250" s="8"/>
       <c r="B250" s="11"/>
       <c r="C250" s="1" t="s">
@@ -3515,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A251" s="8"/>
       <c r="B251" s="11"/>
       <c r="C251" s="1" t="s">
@@ -3525,7 +3527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A252" s="8"/>
       <c r="B252" s="12"/>
       <c r="C252" s="1" t="s">
@@ -3535,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A253" s="8"/>
       <c r="B253" s="13" t="s">
         <v>6</v>
@@ -3547,7 +3549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A254" s="8"/>
       <c r="B254" s="11"/>
       <c r="C254" s="1" t="s">
@@ -3557,7 +3559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A255" s="8"/>
       <c r="B255" s="11"/>
       <c r="C255" s="1" t="s">
@@ -3567,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A256" s="9"/>
       <c r="B256" s="14"/>
       <c r="C256" s="5" t="s">
@@ -3575,7 +3577,7 @@
       </c>
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A257" s="7">
         <v>17</v>
       </c>
@@ -3589,7 +3591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A258" s="8"/>
       <c r="B258" s="11"/>
       <c r="C258" s="1" t="s">
@@ -3599,7 +3601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A259" s="8"/>
       <c r="B259" s="11"/>
       <c r="C259" s="1" t="s">
@@ -3609,7 +3611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A260" s="8"/>
       <c r="B260" s="12"/>
       <c r="C260" s="1" t="s">
@@ -3617,7 +3619,7 @@
       </c>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A261" s="8"/>
       <c r="B261" s="13" t="s">
         <v>4</v>
@@ -3629,7 +3631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A262" s="8"/>
       <c r="B262" s="11"/>
       <c r="C262" s="1" t="s">
@@ -3639,7 +3641,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A263" s="8"/>
       <c r="B263" s="11"/>
       <c r="C263" s="1" t="s">
@@ -3649,7 +3651,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A264" s="8"/>
       <c r="B264" s="12"/>
       <c r="C264" s="1" t="s">
@@ -3657,7 +3659,7 @@
       </c>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A265" s="8"/>
       <c r="B265" s="13" t="s">
         <v>5</v>
@@ -3669,7 +3671,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A266" s="8"/>
       <c r="B266" s="11"/>
       <c r="C266" s="1" t="s">
@@ -3679,7 +3681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A267" s="8"/>
       <c r="B267" s="11"/>
       <c r="C267" s="1" t="s">
@@ -3689,7 +3691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A268" s="8"/>
       <c r="B268" s="12"/>
       <c r="C268" s="1" t="s">
@@ -3697,7 +3699,7 @@
       </c>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A269" s="8"/>
       <c r="B269" s="13" t="s">
         <v>6</v>
@@ -3709,7 +3711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A270" s="8"/>
       <c r="B270" s="11"/>
       <c r="C270" s="1" t="s">
@@ -3719,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A271" s="8"/>
       <c r="B271" s="11"/>
       <c r="C271" s="1" t="s">
@@ -3729,7 +3731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A272" s="9"/>
       <c r="B272" s="14"/>
       <c r="C272" s="5" t="s">
@@ -3737,7 +3739,7 @@
       </c>
       <c r="D272" s="6"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A273" s="7">
         <v>18</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A274" s="8"/>
       <c r="B274" s="11"/>
       <c r="C274" s="1" t="s">
@@ -3761,7 +3763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A275" s="8"/>
       <c r="B275" s="11"/>
       <c r="C275" s="1" t="s">
@@ -3771,7 +3773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A276" s="8"/>
       <c r="B276" s="12"/>
       <c r="C276" s="1" t="s">
@@ -3779,7 +3781,7 @@
       </c>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A277" s="8"/>
       <c r="B277" s="13" t="s">
         <v>4</v>
@@ -3791,7 +3793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A278" s="8"/>
       <c r="B278" s="11"/>
       <c r="C278" s="1" t="s">
@@ -3801,7 +3803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A279" s="8"/>
       <c r="B279" s="11"/>
       <c r="C279" s="1" t="s">
@@ -3811,7 +3813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A280" s="8"/>
       <c r="B280" s="12"/>
       <c r="C280" s="1" t="s">
@@ -3821,7 +3823,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A281" s="8"/>
       <c r="B281" s="13" t="s">
         <v>5</v>
@@ -3833,7 +3835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A282" s="8"/>
       <c r="B282" s="11"/>
       <c r="C282" s="1" t="s">
@@ -3843,7 +3845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A283" s="8"/>
       <c r="B283" s="11"/>
       <c r="C283" s="1" t="s">
@@ -3853,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A284" s="8"/>
       <c r="B284" s="12"/>
       <c r="C284" s="1" t="s">
@@ -3861,7 +3863,7 @@
       </c>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A285" s="8"/>
       <c r="B285" s="13" t="s">
         <v>6</v>
@@ -3873,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A286" s="8"/>
       <c r="B286" s="11"/>
       <c r="C286" s="1" t="s">
@@ -3883,7 +3885,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A287" s="8"/>
       <c r="B287" s="11"/>
       <c r="C287" s="1" t="s">
@@ -3893,7 +3895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A288" s="9"/>
       <c r="B288" s="14"/>
       <c r="C288" s="5" t="s">
@@ -3901,7 +3903,7 @@
       </c>
       <c r="D288" s="6"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A289" s="7">
         <v>19</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A290" s="8"/>
       <c r="B290" s="11"/>
       <c r="C290" s="1" t="s">
@@ -3925,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A291" s="8"/>
       <c r="B291" s="11"/>
       <c r="C291" s="1" t="s">
@@ -3935,7 +3937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A292" s="8"/>
       <c r="B292" s="12"/>
       <c r="C292" s="1" t="s">
@@ -3943,7 +3945,7 @@
       </c>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A293" s="8"/>
       <c r="B293" s="13" t="s">
         <v>4</v>
@@ -3955,7 +3957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A294" s="8"/>
       <c r="B294" s="11"/>
       <c r="C294" s="1" t="s">
@@ -3965,7 +3967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A295" s="8"/>
       <c r="B295" s="11"/>
       <c r="C295" s="1" t="s">
@@ -3975,7 +3977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A296" s="8"/>
       <c r="B296" s="12"/>
       <c r="C296" s="1" t="s">
@@ -3983,7 +3985,7 @@
       </c>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A297" s="8"/>
       <c r="B297" s="13" t="s">
         <v>5</v>
@@ -3995,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A298" s="8"/>
       <c r="B298" s="11"/>
       <c r="C298" s="1" t="s">
@@ -4005,7 +4007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A299" s="8"/>
       <c r="B299" s="11"/>
       <c r="C299" s="1" t="s">
@@ -4015,7 +4017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A300" s="8"/>
       <c r="B300" s="12"/>
       <c r="C300" s="1" t="s">
@@ -4023,7 +4025,7 @@
       </c>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A301" s="8"/>
       <c r="B301" s="13" t="s">
         <v>6</v>
@@ -4035,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A302" s="8"/>
       <c r="B302" s="11"/>
       <c r="C302" s="1" t="s">
@@ -4045,7 +4047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A303" s="8"/>
       <c r="B303" s="11"/>
       <c r="C303" s="1" t="s">
@@ -4055,7 +4057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A304" s="9"/>
       <c r="B304" s="14"/>
       <c r="C304" s="5" t="s">
@@ -4063,7 +4065,7 @@
       </c>
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A305" s="7">
         <v>20</v>
       </c>
@@ -4077,7 +4079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A306" s="8"/>
       <c r="B306" s="11"/>
       <c r="C306" s="1" t="s">
@@ -4087,7 +4089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A307" s="8"/>
       <c r="B307" s="11"/>
       <c r="C307" s="1" t="s">
@@ -4097,7 +4099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A308" s="8"/>
       <c r="B308" s="12"/>
       <c r="C308" s="1" t="s">
@@ -4105,7 +4107,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A309" s="8"/>
       <c r="B309" s="13" t="s">
         <v>4</v>
@@ -4117,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A310" s="8"/>
       <c r="B310" s="11"/>
       <c r="C310" s="1" t="s">
@@ -4127,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A311" s="8"/>
       <c r="B311" s="11"/>
       <c r="C311" s="1" t="s">
@@ -4137,7 +4139,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A312" s="8"/>
       <c r="B312" s="12"/>
       <c r="C312" s="1" t="s">
@@ -4147,7 +4149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A313" s="8"/>
       <c r="B313" s="13" t="s">
         <v>5</v>
@@ -4159,7 +4161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A314" s="8"/>
       <c r="B314" s="11"/>
       <c r="C314" s="1" t="s">
@@ -4169,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A315" s="8"/>
       <c r="B315" s="11"/>
       <c r="C315" s="1" t="s">
@@ -4179,7 +4181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A316" s="8"/>
       <c r="B316" s="12"/>
       <c r="C316" s="1" t="s">
@@ -4189,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A317" s="8"/>
       <c r="B317" s="13" t="s">
         <v>6</v>
@@ -4201,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A318" s="8"/>
       <c r="B318" s="11"/>
       <c r="C318" s="1" t="s">
@@ -4211,7 +4213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A319" s="8"/>
       <c r="B319" s="11"/>
       <c r="C319" s="1" t="s">
@@ -4221,7 +4223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A320" s="9"/>
       <c r="B320" s="14"/>
       <c r="C320" s="5" t="s">
@@ -4229,7 +4231,7 @@
       </c>
       <c r="D320" s="6"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A321" s="7">
         <v>21</v>
       </c>
@@ -4243,7 +4245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A322" s="8"/>
       <c r="B322" s="11"/>
       <c r="C322" s="1" t="s">
@@ -4253,7 +4255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A323" s="8"/>
       <c r="B323" s="11"/>
       <c r="C323" s="1" t="s">
@@ -4263,7 +4265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A324" s="8"/>
       <c r="B324" s="12"/>
       <c r="C324" s="1" t="s">
@@ -4271,7 +4273,7 @@
       </c>
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A325" s="8"/>
       <c r="B325" s="13" t="s">
         <v>4</v>
@@ -4283,7 +4285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A326" s="8"/>
       <c r="B326" s="11"/>
       <c r="C326" s="1" t="s">
@@ -4293,7 +4295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A327" s="8"/>
       <c r="B327" s="11"/>
       <c r="C327" s="1" t="s">
@@ -4303,7 +4305,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A328" s="8"/>
       <c r="B328" s="12"/>
       <c r="C328" s="1" t="s">
@@ -4311,7 +4313,7 @@
       </c>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A329" s="8"/>
       <c r="B329" s="13" t="s">
         <v>5</v>
@@ -4323,7 +4325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A330" s="8"/>
       <c r="B330" s="11"/>
       <c r="C330" s="1" t="s">
@@ -4333,7 +4335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A331" s="8"/>
       <c r="B331" s="11"/>
       <c r="C331" s="1" t="s">
@@ -4343,7 +4345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A332" s="8"/>
       <c r="B332" s="12"/>
       <c r="C332" s="1" t="s">
@@ -4351,7 +4353,7 @@
       </c>
       <c r="D332" s="4"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A333" s="8"/>
       <c r="B333" s="13" t="s">
         <v>6</v>
@@ -4363,7 +4365,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A334" s="8"/>
       <c r="B334" s="11"/>
       <c r="C334" s="1" t="s">
@@ -4373,7 +4375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A335" s="8"/>
       <c r="B335" s="11"/>
       <c r="C335" s="1" t="s">
@@ -4383,7 +4385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A336" s="9"/>
       <c r="B336" s="14"/>
       <c r="C336" s="5" t="s">
@@ -4391,7 +4393,7 @@
       </c>
       <c r="D336" s="6"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A337" s="7">
         <v>22</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A338" s="8"/>
       <c r="B338" s="11"/>
       <c r="C338" s="1" t="s">
@@ -4415,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A339" s="8"/>
       <c r="B339" s="11"/>
       <c r="C339" s="1" t="s">
@@ -4425,7 +4427,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A340" s="8"/>
       <c r="B340" s="12"/>
       <c r="C340" s="1" t="s">
@@ -4435,7 +4437,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A341" s="8"/>
       <c r="B341" s="13" t="s">
         <v>4</v>
@@ -4447,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A342" s="8"/>
       <c r="B342" s="11"/>
       <c r="C342" s="1" t="s">
@@ -4457,7 +4459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A343" s="8"/>
       <c r="B343" s="11"/>
       <c r="C343" s="1" t="s">
@@ -4467,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A344" s="8"/>
       <c r="B344" s="12"/>
       <c r="C344" s="1" t="s">
@@ -4475,7 +4477,7 @@
       </c>
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A345" s="8"/>
       <c r="B345" s="13" t="s">
         <v>5</v>
@@ -4487,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A346" s="8"/>
       <c r="B346" s="11"/>
       <c r="C346" s="1" t="s">
@@ -4497,7 +4499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A347" s="8"/>
       <c r="B347" s="11"/>
       <c r="C347" s="1" t="s">
@@ -4507,7 +4509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A348" s="8"/>
       <c r="B348" s="12"/>
       <c r="C348" s="1" t="s">
@@ -4515,7 +4517,7 @@
       </c>
       <c r="D348" s="4"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A349" s="8"/>
       <c r="B349" s="13" t="s">
         <v>6</v>
@@ -4527,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A350" s="8"/>
       <c r="B350" s="11"/>
       <c r="C350" s="1" t="s">
@@ -4537,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A351" s="8"/>
       <c r="B351" s="11"/>
       <c r="C351" s="1" t="s">
@@ -4547,7 +4549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A352" s="9"/>
       <c r="B352" s="14"/>
       <c r="C352" s="5" t="s">
@@ -4555,7 +4557,7 @@
       </c>
       <c r="D352" s="6"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A353" s="7">
         <v>23</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A354" s="8"/>
       <c r="B354" s="11"/>
       <c r="C354" s="1" t="s">
@@ -4579,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A355" s="8"/>
       <c r="B355" s="11"/>
       <c r="C355" s="1" t="s">
@@ -4589,7 +4591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A356" s="8"/>
       <c r="B356" s="12"/>
       <c r="C356" s="1" t="s">
@@ -4597,7 +4599,7 @@
       </c>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A357" s="8"/>
       <c r="B357" s="13" t="s">
         <v>4</v>
@@ -4609,7 +4611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A358" s="8"/>
       <c r="B358" s="11"/>
       <c r="C358" s="1" t="s">
@@ -4619,7 +4621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A359" s="8"/>
       <c r="B359" s="11"/>
       <c r="C359" s="1" t="s">
@@ -4629,7 +4631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A360" s="8"/>
       <c r="B360" s="12"/>
       <c r="C360" s="1" t="s">
@@ -4639,7 +4641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A361" s="8"/>
       <c r="B361" s="13" t="s">
         <v>5</v>
@@ -4651,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A362" s="8"/>
       <c r="B362" s="11"/>
       <c r="C362" s="1" t="s">
@@ -4661,7 +4663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A363" s="8"/>
       <c r="B363" s="11"/>
       <c r="C363" s="1" t="s">
@@ -4671,7 +4673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A364" s="8"/>
       <c r="B364" s="12"/>
       <c r="C364" s="1" t="s">
@@ -4681,7 +4683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A365" s="8"/>
       <c r="B365" s="13" t="s">
         <v>6</v>
@@ -4693,7 +4695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A366" s="8"/>
       <c r="B366" s="11"/>
       <c r="C366" s="1" t="s">
@@ -4703,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A367" s="8"/>
       <c r="B367" s="11"/>
       <c r="C367" s="1" t="s">
@@ -4713,7 +4715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A368" s="9"/>
       <c r="B368" s="14"/>
       <c r="C368" s="5" t="s">
@@ -4723,7 +4725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A369" s="7">
         <v>24</v>
       </c>
@@ -4737,7 +4739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A370" s="8"/>
       <c r="B370" s="11"/>
       <c r="C370" s="1" t="s">
@@ -4747,7 +4749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A371" s="8"/>
       <c r="B371" s="11"/>
       <c r="C371" s="1" t="s">
@@ -4757,7 +4759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A372" s="8"/>
       <c r="B372" s="12"/>
       <c r="C372" s="1" t="s">
@@ -4765,7 +4767,7 @@
       </c>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A373" s="8"/>
       <c r="B373" s="13" t="s">
         <v>4</v>
@@ -4777,7 +4779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A374" s="8"/>
       <c r="B374" s="11"/>
       <c r="C374" s="1" t="s">
@@ -4787,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A375" s="8"/>
       <c r="B375" s="11"/>
       <c r="C375" s="1" t="s">
@@ -4797,7 +4799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A376" s="8"/>
       <c r="B376" s="12"/>
       <c r="C376" s="1" t="s">
@@ -4807,7 +4809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A377" s="8"/>
       <c r="B377" s="13" t="s">
         <v>5</v>
@@ -4819,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A378" s="8"/>
       <c r="B378" s="11"/>
       <c r="C378" s="1" t="s">
@@ -4829,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A379" s="8"/>
       <c r="B379" s="11"/>
       <c r="C379" s="1" t="s">
@@ -4839,7 +4841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A380" s="8"/>
       <c r="B380" s="12"/>
       <c r="C380" s="1" t="s">
@@ -4849,7 +4851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A381" s="8"/>
       <c r="B381" s="13" t="s">
         <v>6</v>
@@ -4861,7 +4863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A382" s="8"/>
       <c r="B382" s="11"/>
       <c r="C382" s="1" t="s">
@@ -4871,7 +4873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A383" s="8"/>
       <c r="B383" s="11"/>
       <c r="C383" s="1" t="s">
@@ -4881,7 +4883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A384" s="9"/>
       <c r="B384" s="14"/>
       <c r="C384" s="5" t="s">
@@ -4889,7 +4891,7 @@
       </c>
       <c r="D384" s="6"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A385" s="7">
         <v>25</v>
       </c>
@@ -4903,7 +4905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A386" s="8"/>
       <c r="B386" s="11"/>
       <c r="C386" s="1" t="s">
@@ -4913,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A387" s="8"/>
       <c r="B387" s="11"/>
       <c r="C387" s="1" t="s">
@@ -4923,7 +4925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A388" s="8"/>
       <c r="B388" s="12"/>
       <c r="C388" s="1" t="s">
@@ -4931,7 +4933,7 @@
       </c>
       <c r="D388" s="4"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A389" s="8"/>
       <c r="B389" s="13" t="s">
         <v>4</v>
@@ -4943,7 +4945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A390" s="8"/>
       <c r="B390" s="11"/>
       <c r="C390" s="1" t="s">
@@ -4953,7 +4955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A391" s="8"/>
       <c r="B391" s="11"/>
       <c r="C391" s="1" t="s">
@@ -4963,7 +4965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A392" s="8"/>
       <c r="B392" s="12"/>
       <c r="C392" s="1" t="s">
@@ -4971,7 +4973,7 @@
       </c>
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A393" s="8"/>
       <c r="B393" s="13" t="s">
         <v>5</v>
@@ -4983,7 +4985,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A394" s="8"/>
       <c r="B394" s="11"/>
       <c r="C394" s="1" t="s">
@@ -4993,7 +4995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A395" s="8"/>
       <c r="B395" s="11"/>
       <c r="C395" s="1" t="s">
@@ -5003,7 +5005,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A396" s="8"/>
       <c r="B396" s="12"/>
       <c r="C396" s="1" t="s">
@@ -5011,7 +5013,7 @@
       </c>
       <c r="D396" s="4"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A397" s="8"/>
       <c r="B397" s="13" t="s">
         <v>6</v>
@@ -5023,7 +5025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A398" s="8"/>
       <c r="B398" s="11"/>
       <c r="C398" s="1" t="s">
@@ -5033,7 +5035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A399" s="8"/>
       <c r="B399" s="11"/>
       <c r="C399" s="1" t="s">
@@ -5043,7 +5045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A400" s="9"/>
       <c r="B400" s="14"/>
       <c r="C400" s="5" t="s">
@@ -5051,7 +5053,7 @@
       </c>
       <c r="D400" s="6"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A401" s="7">
         <v>26</v>
       </c>
@@ -5065,7 +5067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A402" s="8"/>
       <c r="B402" s="11"/>
       <c r="C402" s="1" t="s">
@@ -5075,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A403" s="8"/>
       <c r="B403" s="11"/>
       <c r="C403" s="1" t="s">
@@ -5085,7 +5087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A404" s="8"/>
       <c r="B404" s="12"/>
       <c r="C404" s="1" t="s">
@@ -5093,7 +5095,7 @@
       </c>
       <c r="D404" s="4"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A405" s="8"/>
       <c r="B405" s="13" t="s">
         <v>4</v>
@@ -5105,7 +5107,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A406" s="8"/>
       <c r="B406" s="11"/>
       <c r="C406" s="1" t="s">
@@ -5115,7 +5117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A407" s="8"/>
       <c r="B407" s="11"/>
       <c r="C407" s="1" t="s">
@@ -5125,7 +5127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A408" s="8"/>
       <c r="B408" s="12"/>
       <c r="C408" s="1" t="s">
@@ -5133,7 +5135,7 @@
       </c>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A409" s="8"/>
       <c r="B409" s="13" t="s">
         <v>5</v>
@@ -5145,7 +5147,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A410" s="8"/>
       <c r="B410" s="11"/>
       <c r="C410" s="1" t="s">
@@ -5155,7 +5157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A411" s="8"/>
       <c r="B411" s="11"/>
       <c r="C411" s="1" t="s">
@@ -5165,7 +5167,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A412" s="8"/>
       <c r="B412" s="12"/>
       <c r="C412" s="1" t="s">
@@ -5175,7 +5177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A413" s="8"/>
       <c r="B413" s="13" t="s">
         <v>6</v>
@@ -5187,7 +5189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A414" s="8"/>
       <c r="B414" s="11"/>
       <c r="C414" s="1" t="s">
@@ -5197,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A415" s="8"/>
       <c r="B415" s="11"/>
       <c r="C415" s="1" t="s">
@@ -5207,7 +5209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A416" s="9"/>
       <c r="B416" s="14"/>
       <c r="C416" s="5" t="s">
@@ -5215,7 +5217,7 @@
       </c>
       <c r="D416" s="6"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A417" s="7">
         <v>27</v>
       </c>
@@ -5229,7 +5231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A418" s="8"/>
       <c r="B418" s="11"/>
       <c r="C418" s="1" t="s">
@@ -5239,7 +5241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A419" s="8"/>
       <c r="B419" s="11"/>
       <c r="C419" s="1" t="s">
@@ -5249,7 +5251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A420" s="8"/>
       <c r="B420" s="12"/>
       <c r="C420" s="1" t="s">
@@ -5257,7 +5259,7 @@
       </c>
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A421" s="8"/>
       <c r="B421" s="13" t="s">
         <v>4</v>
@@ -5269,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A422" s="8"/>
       <c r="B422" s="11"/>
       <c r="C422" s="1" t="s">
@@ -5279,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A423" s="8"/>
       <c r="B423" s="11"/>
       <c r="C423" s="1" t="s">
@@ -5289,7 +5291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A424" s="8"/>
       <c r="B424" s="12"/>
       <c r="C424" s="1" t="s">
@@ -5297,7 +5299,7 @@
       </c>
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A425" s="8"/>
       <c r="B425" s="13" t="s">
         <v>5</v>
@@ -5309,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A426" s="8"/>
       <c r="B426" s="11"/>
       <c r="C426" s="1" t="s">
@@ -5319,7 +5321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A427" s="8"/>
       <c r="B427" s="11"/>
       <c r="C427" s="1" t="s">
@@ -5329,7 +5331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A428" s="8"/>
       <c r="B428" s="12"/>
       <c r="C428" s="1" t="s">
@@ -5339,7 +5341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A429" s="8"/>
       <c r="B429" s="13" t="s">
         <v>6</v>
@@ -5351,7 +5353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A430" s="8"/>
       <c r="B430" s="11"/>
       <c r="C430" s="1" t="s">
@@ -5361,7 +5363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A431" s="8"/>
       <c r="B431" s="11"/>
       <c r="C431" s="1" t="s">
@@ -5371,7 +5373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A432" s="9"/>
       <c r="B432" s="14"/>
       <c r="C432" s="5" t="s">
@@ -5379,7 +5381,7 @@
       </c>
       <c r="D432" s="6"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A433" s="7">
         <v>28</v>
       </c>
@@ -5393,7 +5395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A434" s="8"/>
       <c r="B434" s="11"/>
       <c r="C434" s="1" t="s">
@@ -5403,7 +5405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A435" s="8"/>
       <c r="B435" s="11"/>
       <c r="C435" s="1" t="s">
@@ -5413,7 +5415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A436" s="8"/>
       <c r="B436" s="12"/>
       <c r="C436" s="1" t="s">
@@ -5421,7 +5423,7 @@
       </c>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A437" s="8"/>
       <c r="B437" s="13" t="s">
         <v>4</v>
@@ -5433,7 +5435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A438" s="8"/>
       <c r="B438" s="11"/>
       <c r="C438" s="1" t="s">
@@ -5443,7 +5445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A439" s="8"/>
       <c r="B439" s="11"/>
       <c r="C439" s="1" t="s">
@@ -5453,7 +5455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A440" s="8"/>
       <c r="B440" s="12"/>
       <c r="C440" s="1" t="s">
@@ -5461,7 +5463,7 @@
       </c>
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A441" s="8"/>
       <c r="B441" s="13" t="s">
         <v>5</v>
@@ -5473,7 +5475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A442" s="8"/>
       <c r="B442" s="11"/>
       <c r="C442" s="1" t="s">
@@ -5483,7 +5485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A443" s="8"/>
       <c r="B443" s="11"/>
       <c r="C443" s="1" t="s">
@@ -5493,7 +5495,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A444" s="8"/>
       <c r="B444" s="12"/>
       <c r="C444" s="1" t="s">
@@ -5501,7 +5503,7 @@
       </c>
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A445" s="8"/>
       <c r="B445" s="13" t="s">
         <v>6</v>
@@ -5513,7 +5515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A446" s="8"/>
       <c r="B446" s="11"/>
       <c r="C446" s="1" t="s">
@@ -5523,7 +5525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A447" s="8"/>
       <c r="B447" s="11"/>
       <c r="C447" s="1" t="s">
@@ -5533,7 +5535,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A448" s="9"/>
       <c r="B448" s="14"/>
       <c r="C448" s="5" t="s">
@@ -5541,7 +5543,7 @@
       </c>
       <c r="D448" s="6"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A449" s="7">
         <v>29</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A450" s="8"/>
       <c r="B450" s="11"/>
       <c r="C450" s="1" t="s">
@@ -5565,7 +5567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A451" s="8"/>
       <c r="B451" s="11"/>
       <c r="C451" s="1" t="s">
@@ -5575,7 +5577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A452" s="8"/>
       <c r="B452" s="12"/>
       <c r="C452" s="1" t="s">
@@ -5583,7 +5585,7 @@
       </c>
       <c r="D452" s="4"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A453" s="8"/>
       <c r="B453" s="13" t="s">
         <v>4</v>
@@ -5595,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A454" s="8"/>
       <c r="B454" s="11"/>
       <c r="C454" s="1" t="s">
@@ -5605,7 +5607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A455" s="8"/>
       <c r="B455" s="11"/>
       <c r="C455" s="1" t="s">
@@ -5615,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A456" s="8"/>
       <c r="B456" s="12"/>
       <c r="C456" s="1" t="s">
@@ -5623,7 +5625,7 @@
       </c>
       <c r="D456" s="4"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A457" s="8"/>
       <c r="B457" s="13" t="s">
         <v>5</v>
@@ -5635,7 +5637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A458" s="8"/>
       <c r="B458" s="11"/>
       <c r="C458" s="1" t="s">
@@ -5645,7 +5647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A459" s="8"/>
       <c r="B459" s="11"/>
       <c r="C459" s="1" t="s">
@@ -5655,7 +5657,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A460" s="8"/>
       <c r="B460" s="12"/>
       <c r="C460" s="1" t="s">
@@ -5663,7 +5665,7 @@
       </c>
       <c r="D460" s="4"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A461" s="8"/>
       <c r="B461" s="13" t="s">
         <v>6</v>
@@ -5675,7 +5677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A462" s="8"/>
       <c r="B462" s="11"/>
       <c r="C462" s="1" t="s">
@@ -5685,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A463" s="8"/>
       <c r="B463" s="11"/>
       <c r="C463" s="1" t="s">
@@ -5695,7 +5697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A464" s="9"/>
       <c r="B464" s="14"/>
       <c r="C464" s="5" t="s">
@@ -5703,7 +5705,7 @@
       </c>
       <c r="D464" s="6"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A465" s="7">
         <v>30</v>
       </c>
@@ -5717,7 +5719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A466" s="8"/>
       <c r="B466" s="11"/>
       <c r="C466" s="1" t="s">
@@ -5727,7 +5729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A467" s="8"/>
       <c r="B467" s="11"/>
       <c r="C467" s="1" t="s">
@@ -5737,7 +5739,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A468" s="8"/>
       <c r="B468" s="12"/>
       <c r="C468" s="1" t="s">
@@ -5745,7 +5747,7 @@
       </c>
       <c r="D468" s="4"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A469" s="8"/>
       <c r="B469" s="13" t="s">
         <v>4</v>
@@ -5757,7 +5759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A470" s="8"/>
       <c r="B470" s="11"/>
       <c r="C470" s="1" t="s">
@@ -5767,7 +5769,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A471" s="8"/>
       <c r="B471" s="11"/>
       <c r="C471" s="1" t="s">
@@ -5777,7 +5779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A472" s="8"/>
       <c r="B472" s="12"/>
       <c r="C472" s="1" t="s">
@@ -5785,7 +5787,7 @@
       </c>
       <c r="D472" s="4"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A473" s="8"/>
       <c r="B473" s="13" t="s">
         <v>5</v>
@@ -5797,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A474" s="8"/>
       <c r="B474" s="11"/>
       <c r="C474" s="1" t="s">
@@ -5807,7 +5809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A475" s="8"/>
       <c r="B475" s="11"/>
       <c r="C475" s="1" t="s">
@@ -5817,7 +5819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A476" s="8"/>
       <c r="B476" s="12"/>
       <c r="C476" s="1" t="s">
@@ -5825,7 +5827,7 @@
       </c>
       <c r="D476" s="4"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A477" s="8"/>
       <c r="B477" s="13" t="s">
         <v>6</v>
@@ -5837,7 +5839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A478" s="8"/>
       <c r="B478" s="11"/>
       <c r="C478" s="1" t="s">
@@ -5847,7 +5849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A479" s="8"/>
       <c r="B479" s="11"/>
       <c r="C479" s="1" t="s">
@@ -5857,7 +5859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A480" s="9"/>
       <c r="B480" s="14"/>
       <c r="C480" s="5" t="s">
@@ -5865,7 +5867,7 @@
       </c>
       <c r="D480" s="6"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A481" s="7">
         <v>31</v>
       </c>
@@ -5879,7 +5881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A482" s="8"/>
       <c r="B482" s="11"/>
       <c r="C482" s="1" t="s">
@@ -5889,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A483" s="8"/>
       <c r="B483" s="11"/>
       <c r="C483" s="1" t="s">
@@ -5899,7 +5901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A484" s="8"/>
       <c r="B484" s="12"/>
       <c r="C484" s="1" t="s">
@@ -5907,7 +5909,7 @@
       </c>
       <c r="D484" s="4"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A485" s="8"/>
       <c r="B485" s="13" t="s">
         <v>4</v>
@@ -5919,7 +5921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A486" s="8"/>
       <c r="B486" s="11"/>
       <c r="C486" s="1" t="s">
@@ -5929,7 +5931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A487" s="8"/>
       <c r="B487" s="11"/>
       <c r="C487" s="1" t="s">
@@ -5939,7 +5941,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A488" s="8"/>
       <c r="B488" s="12"/>
       <c r="C488" s="1" t="s">
@@ -5947,7 +5949,7 @@
       </c>
       <c r="D488" s="4"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A489" s="8"/>
       <c r="B489" s="13" t="s">
         <v>5</v>
@@ -5959,7 +5961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A490" s="8"/>
       <c r="B490" s="11"/>
       <c r="C490" s="1" t="s">
@@ -5969,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A491" s="8"/>
       <c r="B491" s="11"/>
       <c r="C491" s="1" t="s">
@@ -5979,7 +5981,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A492" s="8"/>
       <c r="B492" s="12"/>
       <c r="C492" s="1" t="s">
@@ -5987,7 +5989,7 @@
       </c>
       <c r="D492" s="4"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A493" s="8"/>
       <c r="B493" s="13" t="s">
         <v>6</v>
@@ -5999,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A494" s="8"/>
       <c r="B494" s="11"/>
       <c r="C494" s="1" t="s">
@@ -6009,7 +6011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A495" s="8"/>
       <c r="B495" s="11"/>
       <c r="C495" s="1" t="s">
@@ -6019,7 +6021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A496" s="9"/>
       <c r="B496" s="14"/>
       <c r="C496" s="5" t="s">
@@ -6027,7 +6029,7 @@
       </c>
       <c r="D496" s="6"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A497" s="7">
         <v>32</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A498" s="8"/>
       <c r="B498" s="11"/>
       <c r="C498" s="1" t="s">
@@ -6051,7 +6053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A499" s="8"/>
       <c r="B499" s="11"/>
       <c r="C499" s="1" t="s">
@@ -6061,7 +6063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A500" s="8"/>
       <c r="B500" s="12"/>
       <c r="C500" s="1" t="s">
@@ -6069,7 +6071,7 @@
       </c>
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A501" s="8"/>
       <c r="B501" s="13" t="s">
         <v>4</v>
@@ -6081,7 +6083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A502" s="8"/>
       <c r="B502" s="11"/>
       <c r="C502" s="1" t="s">
@@ -6091,7 +6093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A503" s="8"/>
       <c r="B503" s="11"/>
       <c r="C503" s="1" t="s">
@@ -6101,7 +6103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A504" s="8"/>
       <c r="B504" s="12"/>
       <c r="C504" s="1" t="s">
@@ -6109,7 +6111,7 @@
       </c>
       <c r="D504" s="4"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A505" s="8"/>
       <c r="B505" s="13" t="s">
         <v>5</v>
@@ -6121,7 +6123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A506" s="8"/>
       <c r="B506" s="11"/>
       <c r="C506" s="1" t="s">
@@ -6131,7 +6133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A507" s="8"/>
       <c r="B507" s="11"/>
       <c r="C507" s="1" t="s">
@@ -6141,7 +6143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A508" s="8"/>
       <c r="B508" s="12"/>
       <c r="C508" s="1" t="s">
@@ -6149,7 +6151,7 @@
       </c>
       <c r="D508" s="4"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A509" s="8"/>
       <c r="B509" s="13" t="s">
         <v>6</v>
@@ -6161,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A510" s="8"/>
       <c r="B510" s="11"/>
       <c r="C510" s="1" t="s">
@@ -6171,7 +6173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A511" s="8"/>
       <c r="B511" s="11"/>
       <c r="C511" s="1" t="s">
@@ -6181,7 +6183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A512" s="9"/>
       <c r="B512" s="14"/>
       <c r="C512" s="5" t="s">
@@ -6189,7 +6191,7 @@
       </c>
       <c r="D512" s="6"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A513" s="7">
         <v>33</v>
       </c>
@@ -6203,7 +6205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A514" s="8"/>
       <c r="B514" s="11"/>
       <c r="C514" s="1" t="s">
@@ -6213,7 +6215,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A515" s="8"/>
       <c r="B515" s="11"/>
       <c r="C515" s="1" t="s">
@@ -6223,7 +6225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A516" s="8"/>
       <c r="B516" s="12"/>
       <c r="C516" s="1" t="s">
@@ -6231,7 +6233,7 @@
       </c>
       <c r="D516" s="4"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A517" s="8"/>
       <c r="B517" s="13" t="s">
         <v>4</v>
@@ -6243,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A518" s="8"/>
       <c r="B518" s="11"/>
       <c r="C518" s="1" t="s">
@@ -6253,7 +6255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A519" s="8"/>
       <c r="B519" s="11"/>
       <c r="C519" s="1" t="s">
@@ -6263,7 +6265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A520" s="8"/>
       <c r="B520" s="12"/>
       <c r="C520" s="1" t="s">
@@ -6273,7 +6275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A521" s="8"/>
       <c r="B521" s="13" t="s">
         <v>5</v>
@@ -6285,7 +6287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A522" s="8"/>
       <c r="B522" s="11"/>
       <c r="C522" s="1" t="s">
@@ -6295,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A523" s="8"/>
       <c r="B523" s="11"/>
       <c r="C523" s="1" t="s">
@@ -6305,7 +6307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A524" s="8"/>
       <c r="B524" s="12"/>
       <c r="C524" s="1" t="s">
@@ -6315,7 +6317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A525" s="8"/>
       <c r="B525" s="13" t="s">
         <v>6</v>
@@ -6327,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A526" s="8"/>
       <c r="B526" s="11"/>
       <c r="C526" s="1" t="s">
@@ -6337,7 +6339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A527" s="8"/>
       <c r="B527" s="11"/>
       <c r="C527" s="1" t="s">
@@ -6347,7 +6349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A528" s="9"/>
       <c r="B528" s="14"/>
       <c r="C528" s="5" t="s">
@@ -6357,7 +6359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A529" s="7">
         <v>34</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A530" s="8"/>
       <c r="B530" s="11"/>
       <c r="C530" s="1" t="s">
@@ -6381,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A531" s="8"/>
       <c r="B531" s="11"/>
       <c r="C531" s="1" t="s">
@@ -6391,7 +6393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A532" s="8"/>
       <c r="B532" s="12"/>
       <c r="C532" s="1" t="s">
@@ -6399,7 +6401,7 @@
       </c>
       <c r="D532" s="4"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A533" s="8"/>
       <c r="B533" s="13" t="s">
         <v>4</v>
@@ -6411,7 +6413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A534" s="8"/>
       <c r="B534" s="11"/>
       <c r="C534" s="1" t="s">
@@ -6421,7 +6423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A535" s="8"/>
       <c r="B535" s="11"/>
       <c r="C535" s="1" t="s">
@@ -6431,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A536" s="8"/>
       <c r="B536" s="12"/>
       <c r="C536" s="1" t="s">
@@ -6441,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A537" s="8"/>
       <c r="B537" s="13" t="s">
         <v>5</v>
@@ -6453,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A538" s="8"/>
       <c r="B538" s="11"/>
       <c r="C538" s="1" t="s">
@@ -6463,7 +6465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A539" s="8"/>
       <c r="B539" s="11"/>
       <c r="C539" s="1" t="s">
@@ -6473,7 +6475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A540" s="8"/>
       <c r="B540" s="12"/>
       <c r="C540" s="1" t="s">
@@ -6481,7 +6483,7 @@
       </c>
       <c r="D540" s="4"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A541" s="8"/>
       <c r="B541" s="13" t="s">
         <v>6</v>
@@ -6493,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A542" s="8"/>
       <c r="B542" s="11"/>
       <c r="C542" s="1" t="s">
@@ -6503,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A543" s="8"/>
       <c r="B543" s="11"/>
       <c r="C543" s="1" t="s">
@@ -6513,7 +6515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A544" s="9"/>
       <c r="B544" s="14"/>
       <c r="C544" s="5" t="s">
@@ -6521,7 +6523,7 @@
       </c>
       <c r="D544" s="6"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A545" s="7">
         <v>35</v>
       </c>
@@ -6535,7 +6537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A546" s="8"/>
       <c r="B546" s="11"/>
       <c r="C546" s="1" t="s">
@@ -6545,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A547" s="8"/>
       <c r="B547" s="11"/>
       <c r="C547" s="1" t="s">
@@ -6555,7 +6557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A548" s="8"/>
       <c r="B548" s="12"/>
       <c r="C548" s="1" t="s">
@@ -6563,7 +6565,7 @@
       </c>
       <c r="D548" s="4"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A549" s="8"/>
       <c r="B549" s="13" t="s">
         <v>4</v>
@@ -6575,7 +6577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A550" s="8"/>
       <c r="B550" s="11"/>
       <c r="C550" s="1" t="s">
@@ -6585,7 +6587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A551" s="8"/>
       <c r="B551" s="11"/>
       <c r="C551" s="1" t="s">
@@ -6595,7 +6597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A552" s="8"/>
       <c r="B552" s="12"/>
       <c r="C552" s="1" t="s">
@@ -6603,7 +6605,7 @@
       </c>
       <c r="D552" s="4"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A553" s="8"/>
       <c r="B553" s="13" t="s">
         <v>5</v>
@@ -6615,7 +6617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A554" s="8"/>
       <c r="B554" s="11"/>
       <c r="C554" s="1" t="s">
@@ -6625,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A555" s="8"/>
       <c r="B555" s="11"/>
       <c r="C555" s="1" t="s">
@@ -6635,7 +6637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A556" s="8"/>
       <c r="B556" s="12"/>
       <c r="C556" s="1" t="s">
@@ -6645,7 +6647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A557" s="8"/>
       <c r="B557" s="13" t="s">
         <v>6</v>
@@ -6657,7 +6659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A558" s="8"/>
       <c r="B558" s="11"/>
       <c r="C558" s="1" t="s">
@@ -6667,7 +6669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A559" s="8"/>
       <c r="B559" s="11"/>
       <c r="C559" s="1" t="s">
@@ -6677,7 +6679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A560" s="9"/>
       <c r="B560" s="14"/>
       <c r="C560" s="5" t="s">
@@ -6685,7 +6687,7 @@
       </c>
       <c r="D560" s="6"/>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A561" s="7">
         <v>36</v>
       </c>
@@ -6699,7 +6701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A562" s="8"/>
       <c r="B562" s="11"/>
       <c r="C562" s="1" t="s">
@@ -6709,7 +6711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A563" s="8"/>
       <c r="B563" s="11"/>
       <c r="C563" s="1" t="s">
@@ -6719,7 +6721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A564" s="8"/>
       <c r="B564" s="12"/>
       <c r="C564" s="1" t="s">
@@ -6729,7 +6731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A565" s="8"/>
       <c r="B565" s="13" t="s">
         <v>4</v>
@@ -6741,7 +6743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A566" s="8"/>
       <c r="B566" s="11"/>
       <c r="C566" s="1" t="s">
@@ -6751,7 +6753,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A567" s="8"/>
       <c r="B567" s="11"/>
       <c r="C567" s="1" t="s">
@@ -6761,7 +6763,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A568" s="8"/>
       <c r="B568" s="12"/>
       <c r="C568" s="1" t="s">
@@ -6771,7 +6773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A569" s="8"/>
       <c r="B569" s="13" t="s">
         <v>5</v>
@@ -6783,7 +6785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A570" s="8"/>
       <c r="B570" s="11"/>
       <c r="C570" s="1" t="s">
@@ -6793,7 +6795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A571" s="8"/>
       <c r="B571" s="11"/>
       <c r="C571" s="1" t="s">
@@ -6803,7 +6805,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A572" s="8"/>
       <c r="B572" s="12"/>
       <c r="C572" s="1" t="s">
@@ -6811,7 +6813,7 @@
       </c>
       <c r="D572" s="4"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A573" s="8"/>
       <c r="B573" s="13" t="s">
         <v>6</v>
@@ -6823,7 +6825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A574" s="8"/>
       <c r="B574" s="11"/>
       <c r="C574" s="1" t="s">
@@ -6833,7 +6835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A575" s="8"/>
       <c r="B575" s="11"/>
       <c r="C575" s="1" t="s">
@@ -6843,7 +6845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A576" s="9"/>
       <c r="B576" s="14"/>
       <c r="C576" s="5" t="s">
@@ -6851,7 +6853,7 @@
       </c>
       <c r="D576" s="6"/>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A577" s="7">
         <v>37</v>
       </c>
@@ -6865,7 +6867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A578" s="8"/>
       <c r="B578" s="11"/>
       <c r="C578" s="1" t="s">
@@ -6875,7 +6877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A579" s="8"/>
       <c r="B579" s="11"/>
       <c r="C579" s="1" t="s">
@@ -6885,7 +6887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A580" s="8"/>
       <c r="B580" s="12"/>
       <c r="C580" s="1" t="s">
@@ -6895,7 +6897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A581" s="8"/>
       <c r="B581" s="13" t="s">
         <v>4</v>
@@ -6907,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A582" s="8"/>
       <c r="B582" s="11"/>
       <c r="C582" s="1" t="s">
@@ -6917,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A583" s="8"/>
       <c r="B583" s="11"/>
       <c r="C583" s="1" t="s">
@@ -6927,7 +6929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A584" s="8"/>
       <c r="B584" s="12"/>
       <c r="C584" s="1" t="s">
@@ -6937,7 +6939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A585" s="8"/>
       <c r="B585" s="13" t="s">
         <v>5</v>
@@ -6949,7 +6951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A586" s="8"/>
       <c r="B586" s="11"/>
       <c r="C586" s="1" t="s">
@@ -6959,7 +6961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A587" s="8"/>
       <c r="B587" s="11"/>
       <c r="C587" s="1" t="s">
@@ -6969,7 +6971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A588" s="8"/>
       <c r="B588" s="12"/>
       <c r="C588" s="1" t="s">
@@ -6979,7 +6981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A589" s="8"/>
       <c r="B589" s="13" t="s">
         <v>6</v>
@@ -6991,7 +6993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A590" s="8"/>
       <c r="B590" s="11"/>
       <c r="C590" s="1" t="s">
@@ -7001,7 +7003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A591" s="8"/>
       <c r="B591" s="11"/>
       <c r="C591" s="1" t="s">
@@ -7011,7 +7013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A592" s="9"/>
       <c r="B592" s="14"/>
       <c r="C592" s="5" t="s">
@@ -7019,7 +7021,7 @@
       </c>
       <c r="D592" s="6"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A593" s="7">
         <v>38</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A594" s="8"/>
       <c r="B594" s="11"/>
       <c r="C594" s="1" t="s">
@@ -7043,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A595" s="8"/>
       <c r="B595" s="11"/>
       <c r="C595" s="1" t="s">
@@ -7053,7 +7055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A596" s="8"/>
       <c r="B596" s="12"/>
       <c r="C596" s="1" t="s">
@@ -7061,7 +7063,7 @@
       </c>
       <c r="D596" s="4"/>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A597" s="8"/>
       <c r="B597" s="13" t="s">
         <v>4</v>
@@ -7073,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A598" s="8"/>
       <c r="B598" s="11"/>
       <c r="C598" s="1" t="s">
@@ -7083,7 +7085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A599" s="8"/>
       <c r="B599" s="11"/>
       <c r="C599" s="1" t="s">
@@ -7093,7 +7095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A600" s="8"/>
       <c r="B600" s="12"/>
       <c r="C600" s="1" t="s">
@@ -7103,7 +7105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A601" s="8"/>
       <c r="B601" s="13" t="s">
         <v>5</v>
@@ -7115,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A602" s="8"/>
       <c r="B602" s="11"/>
       <c r="C602" s="1" t="s">
@@ -7125,7 +7127,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A603" s="8"/>
       <c r="B603" s="11"/>
       <c r="C603" s="1" t="s">
@@ -7135,7 +7137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A604" s="8"/>
       <c r="B604" s="12"/>
       <c r="C604" s="1" t="s">
@@ -7143,7 +7145,7 @@
       </c>
       <c r="D604" s="4"/>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A605" s="8"/>
       <c r="B605" s="13" t="s">
         <v>6</v>
@@ -7155,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A606" s="8"/>
       <c r="B606" s="11"/>
       <c r="C606" s="1" t="s">
@@ -7165,7 +7167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A607" s="8"/>
       <c r="B607" s="11"/>
       <c r="C607" s="1" t="s">
@@ -7175,7 +7177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A608" s="9"/>
       <c r="B608" s="14"/>
       <c r="C608" s="5" t="s">
@@ -7183,7 +7185,7 @@
       </c>
       <c r="D608" s="6"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A609" s="7">
         <v>39</v>
       </c>
@@ -7197,7 +7199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A610" s="8"/>
       <c r="B610" s="11"/>
       <c r="C610" s="1" t="s">
@@ -7207,7 +7209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A611" s="8"/>
       <c r="B611" s="11"/>
       <c r="C611" s="1" t="s">
@@ -7217,7 +7219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A612" s="8"/>
       <c r="B612" s="12"/>
       <c r="C612" s="1" t="s">
@@ -7225,7 +7227,7 @@
       </c>
       <c r="D612" s="4"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A613" s="8"/>
       <c r="B613" s="13" t="s">
         <v>4</v>
@@ -7237,7 +7239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A614" s="8"/>
       <c r="B614" s="11"/>
       <c r="C614" s="1" t="s">
@@ -7247,7 +7249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A615" s="8"/>
       <c r="B615" s="11"/>
       <c r="C615" s="1" t="s">
@@ -7257,7 +7259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A616" s="8"/>
       <c r="B616" s="12"/>
       <c r="C616" s="1" t="s">
@@ -7265,7 +7267,7 @@
       </c>
       <c r="D616" s="4"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A617" s="8"/>
       <c r="B617" s="13" t="s">
         <v>5</v>
@@ -7277,7 +7279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A618" s="8"/>
       <c r="B618" s="11"/>
       <c r="C618" s="1" t="s">
@@ -7287,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A619" s="8"/>
       <c r="B619" s="11"/>
       <c r="C619" s="1" t="s">
@@ -7297,7 +7299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A620" s="8"/>
       <c r="B620" s="12"/>
       <c r="C620" s="1" t="s">
@@ -7305,7 +7307,7 @@
       </c>
       <c r="D620" s="4"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A621" s="8"/>
       <c r="B621" s="13" t="s">
         <v>6</v>
@@ -7317,7 +7319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A622" s="8"/>
       <c r="B622" s="11"/>
       <c r="C622" s="1" t="s">
@@ -7327,7 +7329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A623" s="8"/>
       <c r="B623" s="11"/>
       <c r="C623" s="1" t="s">
@@ -7337,7 +7339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A624" s="9"/>
       <c r="B624" s="14"/>
       <c r="C624" s="5" t="s">
@@ -7345,7 +7347,7 @@
       </c>
       <c r="D624" s="6"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A625" s="7">
         <v>40</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A626" s="8"/>
       <c r="B626" s="11"/>
       <c r="C626" s="1" t="s">
@@ -7369,7 +7371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A627" s="8"/>
       <c r="B627" s="11"/>
       <c r="C627" s="1" t="s">
@@ -7379,7 +7381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A628" s="8"/>
       <c r="B628" s="12"/>
       <c r="C628" s="1" t="s">
@@ -7389,7 +7391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A629" s="8"/>
       <c r="B629" s="13" t="s">
         <v>4</v>
@@ -7401,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A630" s="8"/>
       <c r="B630" s="11"/>
       <c r="C630" s="1" t="s">
@@ -7411,7 +7413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A631" s="8"/>
       <c r="B631" s="11"/>
       <c r="C631" s="1" t="s">
@@ -7421,7 +7423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A632" s="8"/>
       <c r="B632" s="12"/>
       <c r="C632" s="1" t="s">
@@ -7429,7 +7431,7 @@
       </c>
       <c r="D632" s="4"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A633" s="8"/>
       <c r="B633" s="13" t="s">
         <v>5</v>
@@ -7441,7 +7443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A634" s="8"/>
       <c r="B634" s="11"/>
       <c r="C634" s="1" t="s">
@@ -7451,7 +7453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A635" s="8"/>
       <c r="B635" s="11"/>
       <c r="C635" s="1" t="s">
@@ -7461,7 +7463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A636" s="8"/>
       <c r="B636" s="12"/>
       <c r="C636" s="1" t="s">
@@ -7469,7 +7471,7 @@
       </c>
       <c r="D636" s="4"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A637" s="8"/>
       <c r="B637" s="13" t="s">
         <v>6</v>
@@ -7481,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A638" s="8"/>
       <c r="B638" s="11"/>
       <c r="C638" s="1" t="s">
@@ -7491,7 +7493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A639" s="8"/>
       <c r="B639" s="11"/>
       <c r="C639" s="1" t="s">
@@ -7501,7 +7503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A640" s="9"/>
       <c r="B640" s="14"/>
       <c r="C640" s="5" t="s">
@@ -7509,7 +7511,7 @@
       </c>
       <c r="D640" s="6"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A641" s="7">
         <v>41</v>
       </c>
@@ -7523,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A642" s="8"/>
       <c r="B642" s="11"/>
       <c r="C642" s="1" t="s">
@@ -7533,7 +7535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A643" s="8"/>
       <c r="B643" s="11"/>
       <c r="C643" s="1" t="s">
@@ -7543,7 +7545,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A644" s="8"/>
       <c r="B644" s="12"/>
       <c r="C644" s="1" t="s">
@@ -7551,7 +7553,7 @@
       </c>
       <c r="D644" s="4"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A645" s="8"/>
       <c r="B645" s="13" t="s">
         <v>4</v>
@@ -7563,7 +7565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A646" s="8"/>
       <c r="B646" s="11"/>
       <c r="C646" s="1" t="s">
@@ -7573,7 +7575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A647" s="8"/>
       <c r="B647" s="11"/>
       <c r="C647" s="1" t="s">
@@ -7583,7 +7585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A648" s="8"/>
       <c r="B648" s="12"/>
       <c r="C648" s="1" t="s">
@@ -7593,7 +7595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A649" s="8"/>
       <c r="B649" s="13" t="s">
         <v>5</v>
@@ -7605,7 +7607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A650" s="8"/>
       <c r="B650" s="11"/>
       <c r="C650" s="1" t="s">
@@ -7615,7 +7617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A651" s="8"/>
       <c r="B651" s="11"/>
       <c r="C651" s="1" t="s">
@@ -7625,7 +7627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A652" s="8"/>
       <c r="B652" s="12"/>
       <c r="C652" s="1" t="s">
@@ -7635,7 +7637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A653" s="8"/>
       <c r="B653" s="13" t="s">
         <v>6</v>
@@ -7647,7 +7649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A654" s="8"/>
       <c r="B654" s="11"/>
       <c r="C654" s="1" t="s">
@@ -7657,7 +7659,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A655" s="8"/>
       <c r="B655" s="11"/>
       <c r="C655" s="1" t="s">
@@ -7667,7 +7669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A656" s="9"/>
       <c r="B656" s="14"/>
       <c r="C656" s="5" t="s">
@@ -7677,7 +7679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A657" s="7">
         <v>42</v>
       </c>
@@ -7691,7 +7693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A658" s="8"/>
       <c r="B658" s="11"/>
       <c r="C658" s="1" t="s">
@@ -7701,7 +7703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A659" s="8"/>
       <c r="B659" s="11"/>
       <c r="C659" s="1" t="s">
@@ -7711,7 +7713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A660" s="8"/>
       <c r="B660" s="12"/>
       <c r="C660" s="1" t="s">
@@ -7721,7 +7723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A661" s="8"/>
       <c r="B661" s="13" t="s">
         <v>4</v>
@@ -7733,7 +7735,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A662" s="8"/>
       <c r="B662" s="11"/>
       <c r="C662" s="1" t="s">
@@ -7743,7 +7745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A663" s="8"/>
       <c r="B663" s="11"/>
       <c r="C663" s="1" t="s">
@@ -7753,7 +7755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A664" s="8"/>
       <c r="B664" s="12"/>
       <c r="C664" s="1" t="s">
@@ -7761,7 +7763,7 @@
       </c>
       <c r="D664" s="4"/>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A665" s="8"/>
       <c r="B665" s="13" t="s">
         <v>5</v>
@@ -7773,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A666" s="8"/>
       <c r="B666" s="11"/>
       <c r="C666" s="1" t="s">
@@ -7783,7 +7785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A667" s="8"/>
       <c r="B667" s="11"/>
       <c r="C667" s="1" t="s">
@@ -7793,7 +7795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A668" s="8"/>
       <c r="B668" s="12"/>
       <c r="C668" s="1" t="s">
@@ -7801,7 +7803,7 @@
       </c>
       <c r="D668" s="4"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A669" s="8"/>
       <c r="B669" s="13" t="s">
         <v>6</v>
@@ -7813,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A670" s="8"/>
       <c r="B670" s="11"/>
       <c r="C670" s="1" t="s">
@@ -7823,7 +7825,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A671" s="8"/>
       <c r="B671" s="11"/>
       <c r="C671" s="1" t="s">
@@ -7833,7 +7835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A672" s="9"/>
       <c r="B672" s="14"/>
       <c r="C672" s="5" t="s">
@@ -7843,7 +7845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A673" s="7">
         <v>43</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A674" s="8"/>
       <c r="B674" s="11"/>
       <c r="C674" s="1" t="s">
@@ -7867,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A675" s="8"/>
       <c r="B675" s="11"/>
       <c r="C675" s="1" t="s">
@@ -7877,7 +7879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A676" s="8"/>
       <c r="B676" s="12"/>
       <c r="C676" s="1" t="s">
@@ -7885,7 +7887,7 @@
       </c>
       <c r="D676" s="4"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A677" s="8"/>
       <c r="B677" s="13" t="s">
         <v>4</v>
@@ -7897,7 +7899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A678" s="8"/>
       <c r="B678" s="11"/>
       <c r="C678" s="1" t="s">
@@ -7907,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A679" s="8"/>
       <c r="B679" s="11"/>
       <c r="C679" s="1" t="s">
@@ -7917,7 +7919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A680" s="8"/>
       <c r="B680" s="12"/>
       <c r="C680" s="1" t="s">
@@ -7925,7 +7927,7 @@
       </c>
       <c r="D680" s="4"/>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A681" s="8"/>
       <c r="B681" s="13" t="s">
         <v>5</v>
@@ -7937,7 +7939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A682" s="8"/>
       <c r="B682" s="11"/>
       <c r="C682" s="1" t="s">
@@ -7947,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A683" s="8"/>
       <c r="B683" s="11"/>
       <c r="C683" s="1" t="s">
@@ -7957,7 +7959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A684" s="8"/>
       <c r="B684" s="12"/>
       <c r="C684" s="1" t="s">
@@ -7965,7 +7967,7 @@
       </c>
       <c r="D684" s="4"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A685" s="8"/>
       <c r="B685" s="13" t="s">
         <v>6</v>
@@ -7977,7 +7979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A686" s="8"/>
       <c r="B686" s="11"/>
       <c r="C686" s="1" t="s">
@@ -7987,7 +7989,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A687" s="8"/>
       <c r="B687" s="11"/>
       <c r="C687" s="1" t="s">
@@ -7997,7 +7999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A688" s="9"/>
       <c r="B688" s="14"/>
       <c r="C688" s="5" t="s">
@@ -8005,7 +8007,7 @@
       </c>
       <c r="D688" s="6"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A689" s="7">
         <v>44</v>
       </c>
@@ -8019,7 +8021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A690" s="8"/>
       <c r="B690" s="11"/>
       <c r="C690" s="1" t="s">
@@ -8029,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A691" s="8"/>
       <c r="B691" s="11"/>
       <c r="C691" s="1" t="s">
@@ -8039,7 +8041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A692" s="8"/>
       <c r="B692" s="12"/>
       <c r="C692" s="1" t="s">
@@ -8047,7 +8049,7 @@
       </c>
       <c r="D692" s="4"/>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A693" s="8"/>
       <c r="B693" s="13" t="s">
         <v>4</v>
@@ -8059,7 +8061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A694" s="8"/>
       <c r="B694" s="11"/>
       <c r="C694" s="1" t="s">
@@ -8069,7 +8071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A695" s="8"/>
       <c r="B695" s="11"/>
       <c r="C695" s="1" t="s">
@@ -8079,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A696" s="8"/>
       <c r="B696" s="12"/>
       <c r="C696" s="1" t="s">
@@ -8087,7 +8089,7 @@
       </c>
       <c r="D696" s="4"/>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A697" s="8"/>
       <c r="B697" s="13" t="s">
         <v>5</v>
@@ -8099,7 +8101,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A698" s="8"/>
       <c r="B698" s="11"/>
       <c r="C698" s="1" t="s">
@@ -8109,7 +8111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A699" s="8"/>
       <c r="B699" s="11"/>
       <c r="C699" s="1" t="s">
@@ -8119,7 +8121,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A700" s="8"/>
       <c r="B700" s="12"/>
       <c r="C700" s="1" t="s">
@@ -8127,7 +8129,7 @@
       </c>
       <c r="D700" s="4"/>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A701" s="8"/>
       <c r="B701" s="13" t="s">
         <v>6</v>
@@ -8139,7 +8141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A702" s="8"/>
       <c r="B702" s="11"/>
       <c r="C702" s="1" t="s">
@@ -8149,7 +8151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A703" s="8"/>
       <c r="B703" s="11"/>
       <c r="C703" s="1" t="s">
@@ -8159,7 +8161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A704" s="9"/>
       <c r="B704" s="14"/>
       <c r="C704" s="5" t="s">
@@ -8167,7 +8169,7 @@
       </c>
       <c r="D704" s="6"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A705" s="7">
         <v>45</v>
       </c>
@@ -8181,7 +8183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A706" s="8"/>
       <c r="B706" s="11"/>
       <c r="C706" s="1" t="s">
@@ -8191,7 +8193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A707" s="8"/>
       <c r="B707" s="11"/>
       <c r="C707" s="1" t="s">
@@ -8201,7 +8203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A708" s="8"/>
       <c r="B708" s="12"/>
       <c r="C708" s="1" t="s">
@@ -8209,7 +8211,7 @@
       </c>
       <c r="D708" s="4"/>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A709" s="8"/>
       <c r="B709" s="13" t="s">
         <v>4</v>
@@ -8221,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A710" s="8"/>
       <c r="B710" s="11"/>
       <c r="C710" s="1" t="s">
@@ -8231,7 +8233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A711" s="8"/>
       <c r="B711" s="11"/>
       <c r="C711" s="1" t="s">
@@ -8241,7 +8243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A712" s="8"/>
       <c r="B712" s="12"/>
       <c r="C712" s="1" t="s">
@@ -8251,7 +8253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A713" s="8"/>
       <c r="B713" s="13" t="s">
         <v>5</v>
@@ -8263,7 +8265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A714" s="8"/>
       <c r="B714" s="11"/>
       <c r="C714" s="1" t="s">
@@ -8273,7 +8275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A715" s="8"/>
       <c r="B715" s="11"/>
       <c r="C715" s="1" t="s">
@@ -8283,7 +8285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A716" s="8"/>
       <c r="B716" s="12"/>
       <c r="C716" s="1" t="s">
@@ -8293,7 +8295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A717" s="8"/>
       <c r="B717" s="13" t="s">
         <v>6</v>
@@ -8305,7 +8307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A718" s="8"/>
       <c r="B718" s="11"/>
       <c r="C718" s="1" t="s">
@@ -8315,7 +8317,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A719" s="8"/>
       <c r="B719" s="11"/>
       <c r="C719" s="1" t="s">
@@ -8325,7 +8327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A720" s="9"/>
       <c r="B720" s="14"/>
       <c r="C720" s="5" t="s">
@@ -8333,7 +8335,7 @@
       </c>
       <c r="D720" s="6"/>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A721" s="7">
         <v>46</v>
       </c>
@@ -8347,7 +8349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A722" s="8"/>
       <c r="B722" s="11"/>
       <c r="C722" s="1" t="s">
@@ -8357,7 +8359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A723" s="8"/>
       <c r="B723" s="11"/>
       <c r="C723" s="1" t="s">
@@ -8367,7 +8369,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A724" s="8"/>
       <c r="B724" s="12"/>
       <c r="C724" s="1" t="s">
@@ -8375,7 +8377,7 @@
       </c>
       <c r="D724" s="4"/>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A725" s="8"/>
       <c r="B725" s="13" t="s">
         <v>4</v>
@@ -8387,7 +8389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A726" s="8"/>
       <c r="B726" s="11"/>
       <c r="C726" s="1" t="s">
@@ -8397,7 +8399,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A727" s="8"/>
       <c r="B727" s="11"/>
       <c r="C727" s="1" t="s">
@@ -8407,7 +8409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A728" s="8"/>
       <c r="B728" s="12"/>
       <c r="C728" s="1" t="s">
@@ -8417,7 +8419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A729" s="8"/>
       <c r="B729" s="13" t="s">
         <v>5</v>
@@ -8429,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A730" s="8"/>
       <c r="B730" s="11"/>
       <c r="C730" s="1" t="s">
@@ -8437,7 +8439,7 @@
       </c>
       <c r="D730" s="4"/>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A731" s="8"/>
       <c r="B731" s="11"/>
       <c r="C731" s="1" t="s">
@@ -8447,7 +8449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A732" s="8"/>
       <c r="B732" s="12"/>
       <c r="C732" s="1" t="s">
@@ -8457,7 +8459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A733" s="8"/>
       <c r="B733" s="13" t="s">
         <v>6</v>
@@ -8469,7 +8471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A734" s="8"/>
       <c r="B734" s="11"/>
       <c r="C734" s="1" t="s">
@@ -8479,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A735" s="8"/>
       <c r="B735" s="11"/>
       <c r="C735" s="1" t="s">
@@ -8489,7 +8491,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A736" s="9"/>
       <c r="B736" s="14"/>
       <c r="C736" s="5" t="s">
@@ -8497,7 +8499,7 @@
       </c>
       <c r="D736" s="6"/>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A737" s="7">
         <v>47</v>
       </c>
@@ -8511,7 +8513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A738" s="8"/>
       <c r="B738" s="11"/>
       <c r="C738" s="1" t="s">
@@ -8521,7 +8523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A739" s="8"/>
       <c r="B739" s="11"/>
       <c r="C739" s="1" t="s">
@@ -8531,7 +8533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A740" s="8"/>
       <c r="B740" s="12"/>
       <c r="C740" s="1" t="s">
@@ -8539,7 +8541,7 @@
       </c>
       <c r="D740" s="4"/>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A741" s="8"/>
       <c r="B741" s="13" t="s">
         <v>4</v>
@@ -8551,7 +8553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A742" s="8"/>
       <c r="B742" s="11"/>
       <c r="C742" s="1" t="s">
@@ -8561,7 +8563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A743" s="8"/>
       <c r="B743" s="11"/>
       <c r="C743" s="1" t="s">
@@ -8571,7 +8573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A744" s="8"/>
       <c r="B744" s="12"/>
       <c r="C744" s="1" t="s">
@@ -8581,7 +8583,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A745" s="8"/>
       <c r="B745" s="13" t="s">
         <v>5</v>
@@ -8593,7 +8595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A746" s="8"/>
       <c r="B746" s="11"/>
       <c r="C746" s="1" t="s">
@@ -8603,7 +8605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A747" s="8"/>
       <c r="B747" s="11"/>
       <c r="C747" s="1" t="s">
@@ -8613,7 +8615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A748" s="8"/>
       <c r="B748" s="12"/>
       <c r="C748" s="1" t="s">
@@ -8621,7 +8623,7 @@
       </c>
       <c r="D748" s="4"/>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A749" s="8"/>
       <c r="B749" s="13" t="s">
         <v>6</v>
@@ -8633,7 +8635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A750" s="8"/>
       <c r="B750" s="11"/>
       <c r="C750" s="1" t="s">
@@ -8643,7 +8645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A751" s="8"/>
       <c r="B751" s="11"/>
       <c r="C751" s="1" t="s">
@@ -8653,7 +8655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A752" s="9"/>
       <c r="B752" s="14"/>
       <c r="C752" s="5" t="s">
@@ -8661,7 +8663,7 @@
       </c>
       <c r="D752" s="6"/>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A753" s="7">
         <v>48</v>
       </c>
@@ -8675,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A754" s="8"/>
       <c r="B754" s="11"/>
       <c r="C754" s="1" t="s">
@@ -8685,7 +8687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A755" s="8"/>
       <c r="B755" s="11"/>
       <c r="C755" s="1" t="s">
@@ -8695,7 +8697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A756" s="8"/>
       <c r="B756" s="12"/>
       <c r="C756" s="1" t="s">
@@ -8703,7 +8705,7 @@
       </c>
       <c r="D756" s="4"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A757" s="8"/>
       <c r="B757" s="13" t="s">
         <v>4</v>
@@ -8715,7 +8717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A758" s="8"/>
       <c r="B758" s="11"/>
       <c r="C758" s="1" t="s">
@@ -8725,7 +8727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A759" s="8"/>
       <c r="B759" s="11"/>
       <c r="C759" s="1" t="s">
@@ -8735,7 +8737,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A760" s="8"/>
       <c r="B760" s="12"/>
       <c r="C760" s="1" t="s">
@@ -8745,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A761" s="8"/>
       <c r="B761" s="13" t="s">
         <v>5</v>
@@ -8757,7 +8759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A762" s="8"/>
       <c r="B762" s="11"/>
       <c r="C762" s="1" t="s">
@@ -8767,7 +8769,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A763" s="8"/>
       <c r="B763" s="11"/>
       <c r="C763" s="1" t="s">
@@ -8777,7 +8779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A764" s="8"/>
       <c r="B764" s="12"/>
       <c r="C764" s="1" t="s">
@@ -8787,7 +8789,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A765" s="8"/>
       <c r="B765" s="13" t="s">
         <v>6</v>
@@ -8799,7 +8801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A766" s="8"/>
       <c r="B766" s="11"/>
       <c r="C766" s="1" t="s">
@@ -8809,7 +8811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A767" s="8"/>
       <c r="B767" s="11"/>
       <c r="C767" s="1" t="s">
@@ -8819,7 +8821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A768" s="9"/>
       <c r="B768" s="14"/>
       <c r="C768" s="5" t="s">
@@ -8827,7 +8829,7 @@
       </c>
       <c r="D768" s="6"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A769" s="7">
         <v>49</v>
       </c>
@@ -8841,7 +8843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A770" s="8"/>
       <c r="B770" s="11"/>
       <c r="C770" s="1" t="s">
@@ -8851,7 +8853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A771" s="8"/>
       <c r="B771" s="11"/>
       <c r="C771" s="1" t="s">
@@ -8861,7 +8863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A772" s="8"/>
       <c r="B772" s="12"/>
       <c r="C772" s="1" t="s">
@@ -8869,7 +8871,7 @@
       </c>
       <c r="D772" s="4"/>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A773" s="8"/>
       <c r="B773" s="13" t="s">
         <v>4</v>
@@ -8881,7 +8883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A774" s="8"/>
       <c r="B774" s="11"/>
       <c r="C774" s="1" t="s">
@@ -8891,7 +8893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A775" s="8"/>
       <c r="B775" s="11"/>
       <c r="C775" s="1" t="s">
@@ -8901,7 +8903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A776" s="8"/>
       <c r="B776" s="12"/>
       <c r="C776" s="1" t="s">
@@ -8911,7 +8913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A777" s="8"/>
       <c r="B777" s="13" t="s">
         <v>5</v>
@@ -8923,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A778" s="8"/>
       <c r="B778" s="11"/>
       <c r="C778" s="1" t="s">
@@ -8933,7 +8935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A779" s="8"/>
       <c r="B779" s="11"/>
       <c r="C779" s="1" t="s">
@@ -8943,7 +8945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A780" s="8"/>
       <c r="B780" s="12"/>
       <c r="C780" s="1" t="s">
@@ -8951,7 +8953,7 @@
       </c>
       <c r="D780" s="4"/>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A781" s="8"/>
       <c r="B781" s="13" t="s">
         <v>6</v>
@@ -8963,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A782" s="8"/>
       <c r="B782" s="11"/>
       <c r="C782" s="1" t="s">
@@ -8973,7 +8975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A783" s="8"/>
       <c r="B783" s="11"/>
       <c r="C783" s="1" t="s">
@@ -8983,7 +8985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A784" s="9"/>
       <c r="B784" s="14"/>
       <c r="C784" s="5" t="s">
@@ -8991,7 +8993,7 @@
       </c>
       <c r="D784" s="6"/>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A785" s="7">
         <v>50</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A786" s="8"/>
       <c r="B786" s="11"/>
       <c r="C786" s="1" t="s">
@@ -9015,7 +9017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A787" s="8"/>
       <c r="B787" s="11"/>
       <c r="C787" s="1" t="s">
@@ -9025,7 +9027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A788" s="8"/>
       <c r="B788" s="12"/>
       <c r="C788" s="1" t="s">
@@ -9033,7 +9035,7 @@
       </c>
       <c r="D788" s="4"/>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A789" s="8"/>
       <c r="B789" s="13" t="s">
         <v>4</v>
@@ -9045,7 +9047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A790" s="8"/>
       <c r="B790" s="11"/>
       <c r="C790" s="1" t="s">
@@ -9055,7 +9057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A791" s="8"/>
       <c r="B791" s="11"/>
       <c r="C791" s="1" t="s">
@@ -9065,7 +9067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A792" s="8"/>
       <c r="B792" s="12"/>
       <c r="C792" s="1" t="s">
@@ -9075,7 +9077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A793" s="8"/>
       <c r="B793" s="13" t="s">
         <v>5</v>
@@ -9087,7 +9089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A794" s="8"/>
       <c r="B794" s="11"/>
       <c r="C794" s="1" t="s">
@@ -9097,7 +9099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A795" s="8"/>
       <c r="B795" s="11"/>
       <c r="C795" s="1" t="s">
@@ -9107,7 +9109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A796" s="8"/>
       <c r="B796" s="12"/>
       <c r="C796" s="1" t="s">
@@ -9115,7 +9117,7 @@
       </c>
       <c r="D796" s="4"/>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A797" s="8"/>
       <c r="B797" s="13" t="s">
         <v>6</v>
@@ -9127,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A798" s="8"/>
       <c r="B798" s="11"/>
       <c r="C798" s="1" t="s">
@@ -9137,7 +9139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A799" s="8"/>
       <c r="B799" s="11"/>
       <c r="C799" s="1" t="s">
@@ -9147,7 +9149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="800" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A800" s="9"/>
       <c r="B800" s="14"/>
       <c r="C800" s="5" t="s">
@@ -9157,6 +9159,246 @@
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A353:A368"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B357:B360"/>
+    <mergeCell ref="B361:B364"/>
+    <mergeCell ref="B365:B368"/>
+    <mergeCell ref="A369:A384"/>
+    <mergeCell ref="B369:B372"/>
+    <mergeCell ref="B373:B376"/>
+    <mergeCell ref="B377:B380"/>
+    <mergeCell ref="B381:B384"/>
+    <mergeCell ref="A321:A336"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="A337:A352"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="A289:A304"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="B293:B296"/>
+    <mergeCell ref="B297:B300"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="A305:A320"/>
+    <mergeCell ref="B305:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="A257:A272"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="B261:B264"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="B269:B272"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="A225:A240"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A193:A208"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A209:A224"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A177:A192"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A129:A144"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="A97:A112"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A81:A96"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A385:A400"/>
+    <mergeCell ref="B385:B388"/>
+    <mergeCell ref="B389:B392"/>
+    <mergeCell ref="B393:B396"/>
+    <mergeCell ref="B397:B400"/>
+    <mergeCell ref="A401:A416"/>
+    <mergeCell ref="B401:B404"/>
+    <mergeCell ref="B405:B408"/>
+    <mergeCell ref="B409:B412"/>
+    <mergeCell ref="B413:B416"/>
+    <mergeCell ref="A417:A432"/>
+    <mergeCell ref="B417:B420"/>
+    <mergeCell ref="B421:B424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="A433:A448"/>
+    <mergeCell ref="B433:B436"/>
+    <mergeCell ref="B437:B440"/>
+    <mergeCell ref="B441:B444"/>
+    <mergeCell ref="B445:B448"/>
+    <mergeCell ref="A449:A464"/>
+    <mergeCell ref="B449:B452"/>
+    <mergeCell ref="B453:B456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="A465:A480"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="B473:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="A481:A496"/>
+    <mergeCell ref="B481:B484"/>
+    <mergeCell ref="B485:B488"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="B493:B496"/>
+    <mergeCell ref="A497:A512"/>
+    <mergeCell ref="B497:B500"/>
+    <mergeCell ref="B501:B504"/>
+    <mergeCell ref="B505:B508"/>
+    <mergeCell ref="B509:B512"/>
+    <mergeCell ref="A513:A528"/>
+    <mergeCell ref="B513:B516"/>
+    <mergeCell ref="B517:B520"/>
+    <mergeCell ref="B521:B524"/>
+    <mergeCell ref="B525:B528"/>
+    <mergeCell ref="A529:A544"/>
+    <mergeCell ref="B529:B532"/>
+    <mergeCell ref="B533:B536"/>
+    <mergeCell ref="B537:B540"/>
+    <mergeCell ref="B541:B544"/>
+    <mergeCell ref="A545:A560"/>
+    <mergeCell ref="B545:B548"/>
+    <mergeCell ref="B549:B552"/>
+    <mergeCell ref="B553:B556"/>
+    <mergeCell ref="B557:B560"/>
+    <mergeCell ref="A561:A576"/>
+    <mergeCell ref="B561:B564"/>
+    <mergeCell ref="B565:B568"/>
+    <mergeCell ref="B569:B572"/>
+    <mergeCell ref="B573:B576"/>
+    <mergeCell ref="A577:A592"/>
+    <mergeCell ref="B577:B580"/>
+    <mergeCell ref="B581:B584"/>
+    <mergeCell ref="B585:B588"/>
+    <mergeCell ref="B589:B592"/>
+    <mergeCell ref="A593:A608"/>
+    <mergeCell ref="B593:B596"/>
+    <mergeCell ref="B597:B600"/>
+    <mergeCell ref="B601:B604"/>
+    <mergeCell ref="B605:B608"/>
+    <mergeCell ref="A609:A624"/>
+    <mergeCell ref="B609:B612"/>
+    <mergeCell ref="B613:B616"/>
+    <mergeCell ref="B617:B620"/>
+    <mergeCell ref="B621:B624"/>
+    <mergeCell ref="A625:A640"/>
+    <mergeCell ref="B625:B628"/>
+    <mergeCell ref="B629:B632"/>
+    <mergeCell ref="B633:B636"/>
+    <mergeCell ref="B637:B640"/>
+    <mergeCell ref="A641:A656"/>
+    <mergeCell ref="B641:B644"/>
+    <mergeCell ref="B645:B648"/>
+    <mergeCell ref="B649:B652"/>
+    <mergeCell ref="B653:B656"/>
+    <mergeCell ref="A657:A672"/>
+    <mergeCell ref="B657:B660"/>
+    <mergeCell ref="B661:B664"/>
+    <mergeCell ref="B665:B668"/>
+    <mergeCell ref="B669:B672"/>
+    <mergeCell ref="A673:A688"/>
+    <mergeCell ref="B673:B676"/>
+    <mergeCell ref="B677:B680"/>
+    <mergeCell ref="B681:B684"/>
+    <mergeCell ref="B685:B688"/>
+    <mergeCell ref="A689:A704"/>
+    <mergeCell ref="B689:B692"/>
+    <mergeCell ref="B693:B696"/>
+    <mergeCell ref="B697:B700"/>
+    <mergeCell ref="B701:B704"/>
+    <mergeCell ref="A705:A720"/>
+    <mergeCell ref="B705:B708"/>
+    <mergeCell ref="B709:B712"/>
+    <mergeCell ref="B713:B716"/>
+    <mergeCell ref="B717:B720"/>
+    <mergeCell ref="A721:A736"/>
+    <mergeCell ref="B721:B724"/>
+    <mergeCell ref="B725:B728"/>
+    <mergeCell ref="B729:B732"/>
+    <mergeCell ref="B733:B736"/>
+    <mergeCell ref="A737:A752"/>
+    <mergeCell ref="B737:B740"/>
+    <mergeCell ref="B741:B744"/>
+    <mergeCell ref="B745:B748"/>
+    <mergeCell ref="B749:B752"/>
+    <mergeCell ref="A753:A768"/>
+    <mergeCell ref="B753:B756"/>
+    <mergeCell ref="B757:B760"/>
+    <mergeCell ref="B761:B764"/>
+    <mergeCell ref="B765:B768"/>
     <mergeCell ref="A769:A784"/>
     <mergeCell ref="B769:B772"/>
     <mergeCell ref="B773:B776"/>
@@ -9167,246 +9409,6 @@
     <mergeCell ref="B789:B792"/>
     <mergeCell ref="B793:B796"/>
     <mergeCell ref="B797:B800"/>
-    <mergeCell ref="A737:A752"/>
-    <mergeCell ref="B737:B740"/>
-    <mergeCell ref="B741:B744"/>
-    <mergeCell ref="B745:B748"/>
-    <mergeCell ref="B749:B752"/>
-    <mergeCell ref="A753:A768"/>
-    <mergeCell ref="B753:B756"/>
-    <mergeCell ref="B757:B760"/>
-    <mergeCell ref="B761:B764"/>
-    <mergeCell ref="B765:B768"/>
-    <mergeCell ref="A705:A720"/>
-    <mergeCell ref="B705:B708"/>
-    <mergeCell ref="B709:B712"/>
-    <mergeCell ref="B713:B716"/>
-    <mergeCell ref="B717:B720"/>
-    <mergeCell ref="A721:A736"/>
-    <mergeCell ref="B721:B724"/>
-    <mergeCell ref="B725:B728"/>
-    <mergeCell ref="B729:B732"/>
-    <mergeCell ref="B733:B736"/>
-    <mergeCell ref="A673:A688"/>
-    <mergeCell ref="B673:B676"/>
-    <mergeCell ref="B677:B680"/>
-    <mergeCell ref="B681:B684"/>
-    <mergeCell ref="B685:B688"/>
-    <mergeCell ref="A689:A704"/>
-    <mergeCell ref="B689:B692"/>
-    <mergeCell ref="B693:B696"/>
-    <mergeCell ref="B697:B700"/>
-    <mergeCell ref="B701:B704"/>
-    <mergeCell ref="A641:A656"/>
-    <mergeCell ref="B641:B644"/>
-    <mergeCell ref="B645:B648"/>
-    <mergeCell ref="B649:B652"/>
-    <mergeCell ref="B653:B656"/>
-    <mergeCell ref="A657:A672"/>
-    <mergeCell ref="B657:B660"/>
-    <mergeCell ref="B661:B664"/>
-    <mergeCell ref="B665:B668"/>
-    <mergeCell ref="B669:B672"/>
-    <mergeCell ref="A609:A624"/>
-    <mergeCell ref="B609:B612"/>
-    <mergeCell ref="B613:B616"/>
-    <mergeCell ref="B617:B620"/>
-    <mergeCell ref="B621:B624"/>
-    <mergeCell ref="A625:A640"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="B629:B632"/>
-    <mergeCell ref="B633:B636"/>
-    <mergeCell ref="B637:B640"/>
-    <mergeCell ref="A577:A592"/>
-    <mergeCell ref="B577:B580"/>
-    <mergeCell ref="B581:B584"/>
-    <mergeCell ref="B585:B588"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="A593:A608"/>
-    <mergeCell ref="B593:B596"/>
-    <mergeCell ref="B597:B600"/>
-    <mergeCell ref="B601:B604"/>
-    <mergeCell ref="B605:B608"/>
-    <mergeCell ref="A545:A560"/>
-    <mergeCell ref="B545:B548"/>
-    <mergeCell ref="B549:B552"/>
-    <mergeCell ref="B553:B556"/>
-    <mergeCell ref="B557:B560"/>
-    <mergeCell ref="A561:A576"/>
-    <mergeCell ref="B561:B564"/>
-    <mergeCell ref="B565:B568"/>
-    <mergeCell ref="B569:B572"/>
-    <mergeCell ref="B573:B576"/>
-    <mergeCell ref="A513:A528"/>
-    <mergeCell ref="B513:B516"/>
-    <mergeCell ref="B517:B520"/>
-    <mergeCell ref="B521:B524"/>
-    <mergeCell ref="B525:B528"/>
-    <mergeCell ref="A529:A544"/>
-    <mergeCell ref="B529:B532"/>
-    <mergeCell ref="B533:B536"/>
-    <mergeCell ref="B537:B540"/>
-    <mergeCell ref="B541:B544"/>
-    <mergeCell ref="A481:A496"/>
-    <mergeCell ref="B481:B484"/>
-    <mergeCell ref="B485:B488"/>
-    <mergeCell ref="B489:B492"/>
-    <mergeCell ref="B493:B496"/>
-    <mergeCell ref="A497:A512"/>
-    <mergeCell ref="B497:B500"/>
-    <mergeCell ref="B501:B504"/>
-    <mergeCell ref="B505:B508"/>
-    <mergeCell ref="B509:B512"/>
-    <mergeCell ref="A449:A464"/>
-    <mergeCell ref="B449:B452"/>
-    <mergeCell ref="B453:B456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="A465:A480"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="B473:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="A417:A432"/>
-    <mergeCell ref="B417:B420"/>
-    <mergeCell ref="B421:B424"/>
-    <mergeCell ref="B425:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="A433:A448"/>
-    <mergeCell ref="B433:B436"/>
-    <mergeCell ref="B437:B440"/>
-    <mergeCell ref="B441:B444"/>
-    <mergeCell ref="B445:B448"/>
-    <mergeCell ref="A385:A400"/>
-    <mergeCell ref="B385:B388"/>
-    <mergeCell ref="B389:B392"/>
-    <mergeCell ref="B393:B396"/>
-    <mergeCell ref="B397:B400"/>
-    <mergeCell ref="A401:A416"/>
-    <mergeCell ref="B401:B404"/>
-    <mergeCell ref="B405:B408"/>
-    <mergeCell ref="B409:B412"/>
-    <mergeCell ref="B413:B416"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A96"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A97:A112"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A129:A144"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="A145:A160"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A192"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A193:A208"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A209:A224"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A240"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A257:A272"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="B261:B264"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="B269:B272"/>
-    <mergeCell ref="A273:A288"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="A289:A304"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="B293:B296"/>
-    <mergeCell ref="B297:B300"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="A305:A320"/>
-    <mergeCell ref="B305:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="A321:A336"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="A337:A352"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="A353:A368"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B357:B360"/>
-    <mergeCell ref="B361:B364"/>
-    <mergeCell ref="B365:B368"/>
-    <mergeCell ref="A369:A384"/>
-    <mergeCell ref="B369:B372"/>
-    <mergeCell ref="B373:B376"/>
-    <mergeCell ref="B377:B380"/>
-    <mergeCell ref="B381:B384"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DTW/data/no_skip.xlsx
+++ b/DTW/data/no_skip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E932F5B-D5A6-44B2-BDCC-CFCB206F4DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EE77C2-82CA-4835-8BA7-900C38F45F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12880" yWindow="680" windowWidth="25470" windowHeight="15460" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="0" yWindow="3180" windowWidth="25470" windowHeight="15280" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="80">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.45">
@@ -2749,8 +2749,8 @@
       <c r="C175" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="4">
-        <v>2</v>
+      <c r="D175" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
@@ -9159,6 +9159,246 @@
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A769:A784"/>
+    <mergeCell ref="B769:B772"/>
+    <mergeCell ref="B773:B776"/>
+    <mergeCell ref="B777:B780"/>
+    <mergeCell ref="B781:B784"/>
+    <mergeCell ref="A785:A800"/>
+    <mergeCell ref="B785:B788"/>
+    <mergeCell ref="B789:B792"/>
+    <mergeCell ref="B793:B796"/>
+    <mergeCell ref="B797:B800"/>
+    <mergeCell ref="A737:A752"/>
+    <mergeCell ref="B737:B740"/>
+    <mergeCell ref="B741:B744"/>
+    <mergeCell ref="B745:B748"/>
+    <mergeCell ref="B749:B752"/>
+    <mergeCell ref="A753:A768"/>
+    <mergeCell ref="B753:B756"/>
+    <mergeCell ref="B757:B760"/>
+    <mergeCell ref="B761:B764"/>
+    <mergeCell ref="B765:B768"/>
+    <mergeCell ref="A705:A720"/>
+    <mergeCell ref="B705:B708"/>
+    <mergeCell ref="B709:B712"/>
+    <mergeCell ref="B713:B716"/>
+    <mergeCell ref="B717:B720"/>
+    <mergeCell ref="A721:A736"/>
+    <mergeCell ref="B721:B724"/>
+    <mergeCell ref="B725:B728"/>
+    <mergeCell ref="B729:B732"/>
+    <mergeCell ref="B733:B736"/>
+    <mergeCell ref="A673:A688"/>
+    <mergeCell ref="B673:B676"/>
+    <mergeCell ref="B677:B680"/>
+    <mergeCell ref="B681:B684"/>
+    <mergeCell ref="B685:B688"/>
+    <mergeCell ref="A689:A704"/>
+    <mergeCell ref="B689:B692"/>
+    <mergeCell ref="B693:B696"/>
+    <mergeCell ref="B697:B700"/>
+    <mergeCell ref="B701:B704"/>
+    <mergeCell ref="A641:A656"/>
+    <mergeCell ref="B641:B644"/>
+    <mergeCell ref="B645:B648"/>
+    <mergeCell ref="B649:B652"/>
+    <mergeCell ref="B653:B656"/>
+    <mergeCell ref="A657:A672"/>
+    <mergeCell ref="B657:B660"/>
+    <mergeCell ref="B661:B664"/>
+    <mergeCell ref="B665:B668"/>
+    <mergeCell ref="B669:B672"/>
+    <mergeCell ref="A609:A624"/>
+    <mergeCell ref="B609:B612"/>
+    <mergeCell ref="B613:B616"/>
+    <mergeCell ref="B617:B620"/>
+    <mergeCell ref="B621:B624"/>
+    <mergeCell ref="A625:A640"/>
+    <mergeCell ref="B625:B628"/>
+    <mergeCell ref="B629:B632"/>
+    <mergeCell ref="B633:B636"/>
+    <mergeCell ref="B637:B640"/>
+    <mergeCell ref="A577:A592"/>
+    <mergeCell ref="B577:B580"/>
+    <mergeCell ref="B581:B584"/>
+    <mergeCell ref="B585:B588"/>
+    <mergeCell ref="B589:B592"/>
+    <mergeCell ref="A593:A608"/>
+    <mergeCell ref="B593:B596"/>
+    <mergeCell ref="B597:B600"/>
+    <mergeCell ref="B601:B604"/>
+    <mergeCell ref="B605:B608"/>
+    <mergeCell ref="A545:A560"/>
+    <mergeCell ref="B545:B548"/>
+    <mergeCell ref="B549:B552"/>
+    <mergeCell ref="B553:B556"/>
+    <mergeCell ref="B557:B560"/>
+    <mergeCell ref="A561:A576"/>
+    <mergeCell ref="B561:B564"/>
+    <mergeCell ref="B565:B568"/>
+    <mergeCell ref="B569:B572"/>
+    <mergeCell ref="B573:B576"/>
+    <mergeCell ref="A513:A528"/>
+    <mergeCell ref="B513:B516"/>
+    <mergeCell ref="B517:B520"/>
+    <mergeCell ref="B521:B524"/>
+    <mergeCell ref="B525:B528"/>
+    <mergeCell ref="A529:A544"/>
+    <mergeCell ref="B529:B532"/>
+    <mergeCell ref="B533:B536"/>
+    <mergeCell ref="B537:B540"/>
+    <mergeCell ref="B541:B544"/>
+    <mergeCell ref="A481:A496"/>
+    <mergeCell ref="B481:B484"/>
+    <mergeCell ref="B485:B488"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="B493:B496"/>
+    <mergeCell ref="A497:A512"/>
+    <mergeCell ref="B497:B500"/>
+    <mergeCell ref="B501:B504"/>
+    <mergeCell ref="B505:B508"/>
+    <mergeCell ref="B509:B512"/>
+    <mergeCell ref="A449:A464"/>
+    <mergeCell ref="B449:B452"/>
+    <mergeCell ref="B453:B456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="A465:A480"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="B473:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="A417:A432"/>
+    <mergeCell ref="B417:B420"/>
+    <mergeCell ref="B421:B424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="A433:A448"/>
+    <mergeCell ref="B433:B436"/>
+    <mergeCell ref="B437:B440"/>
+    <mergeCell ref="B441:B444"/>
+    <mergeCell ref="B445:B448"/>
+    <mergeCell ref="A385:A400"/>
+    <mergeCell ref="B385:B388"/>
+    <mergeCell ref="B389:B392"/>
+    <mergeCell ref="B393:B396"/>
+    <mergeCell ref="B397:B400"/>
+    <mergeCell ref="A401:A416"/>
+    <mergeCell ref="B401:B404"/>
+    <mergeCell ref="B405:B408"/>
+    <mergeCell ref="B409:B412"/>
+    <mergeCell ref="B413:B416"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A81:A96"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A97:A112"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A129:A144"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A177:A192"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A193:A208"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A209:A224"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A240"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A257:A272"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="B261:B264"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="B269:B272"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="A289:A304"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="B293:B296"/>
+    <mergeCell ref="B297:B300"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="A305:A320"/>
+    <mergeCell ref="B305:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="A321:A336"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="A337:A352"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="B349:B352"/>
     <mergeCell ref="A353:A368"/>
     <mergeCell ref="B353:B356"/>
     <mergeCell ref="B357:B360"/>
@@ -9169,246 +9409,6 @@
     <mergeCell ref="B373:B376"/>
     <mergeCell ref="B377:B380"/>
     <mergeCell ref="B381:B384"/>
-    <mergeCell ref="A321:A336"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="A337:A352"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="A289:A304"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="B293:B296"/>
-    <mergeCell ref="B297:B300"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="A305:A320"/>
-    <mergeCell ref="B305:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="A257:A272"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="B261:B264"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="B269:B272"/>
-    <mergeCell ref="A273:A288"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="A225:A240"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A193:A208"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A209:A224"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A192"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A129:A144"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="A145:A160"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="A97:A112"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A96"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A385:A400"/>
-    <mergeCell ref="B385:B388"/>
-    <mergeCell ref="B389:B392"/>
-    <mergeCell ref="B393:B396"/>
-    <mergeCell ref="B397:B400"/>
-    <mergeCell ref="A401:A416"/>
-    <mergeCell ref="B401:B404"/>
-    <mergeCell ref="B405:B408"/>
-    <mergeCell ref="B409:B412"/>
-    <mergeCell ref="B413:B416"/>
-    <mergeCell ref="A417:A432"/>
-    <mergeCell ref="B417:B420"/>
-    <mergeCell ref="B421:B424"/>
-    <mergeCell ref="B425:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="A433:A448"/>
-    <mergeCell ref="B433:B436"/>
-    <mergeCell ref="B437:B440"/>
-    <mergeCell ref="B441:B444"/>
-    <mergeCell ref="B445:B448"/>
-    <mergeCell ref="A449:A464"/>
-    <mergeCell ref="B449:B452"/>
-    <mergeCell ref="B453:B456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="A465:A480"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="B473:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="A481:A496"/>
-    <mergeCell ref="B481:B484"/>
-    <mergeCell ref="B485:B488"/>
-    <mergeCell ref="B489:B492"/>
-    <mergeCell ref="B493:B496"/>
-    <mergeCell ref="A497:A512"/>
-    <mergeCell ref="B497:B500"/>
-    <mergeCell ref="B501:B504"/>
-    <mergeCell ref="B505:B508"/>
-    <mergeCell ref="B509:B512"/>
-    <mergeCell ref="A513:A528"/>
-    <mergeCell ref="B513:B516"/>
-    <mergeCell ref="B517:B520"/>
-    <mergeCell ref="B521:B524"/>
-    <mergeCell ref="B525:B528"/>
-    <mergeCell ref="A529:A544"/>
-    <mergeCell ref="B529:B532"/>
-    <mergeCell ref="B533:B536"/>
-    <mergeCell ref="B537:B540"/>
-    <mergeCell ref="B541:B544"/>
-    <mergeCell ref="A545:A560"/>
-    <mergeCell ref="B545:B548"/>
-    <mergeCell ref="B549:B552"/>
-    <mergeCell ref="B553:B556"/>
-    <mergeCell ref="B557:B560"/>
-    <mergeCell ref="A561:A576"/>
-    <mergeCell ref="B561:B564"/>
-    <mergeCell ref="B565:B568"/>
-    <mergeCell ref="B569:B572"/>
-    <mergeCell ref="B573:B576"/>
-    <mergeCell ref="A577:A592"/>
-    <mergeCell ref="B577:B580"/>
-    <mergeCell ref="B581:B584"/>
-    <mergeCell ref="B585:B588"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="A593:A608"/>
-    <mergeCell ref="B593:B596"/>
-    <mergeCell ref="B597:B600"/>
-    <mergeCell ref="B601:B604"/>
-    <mergeCell ref="B605:B608"/>
-    <mergeCell ref="A609:A624"/>
-    <mergeCell ref="B609:B612"/>
-    <mergeCell ref="B613:B616"/>
-    <mergeCell ref="B617:B620"/>
-    <mergeCell ref="B621:B624"/>
-    <mergeCell ref="A625:A640"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="B629:B632"/>
-    <mergeCell ref="B633:B636"/>
-    <mergeCell ref="B637:B640"/>
-    <mergeCell ref="A641:A656"/>
-    <mergeCell ref="B641:B644"/>
-    <mergeCell ref="B645:B648"/>
-    <mergeCell ref="B649:B652"/>
-    <mergeCell ref="B653:B656"/>
-    <mergeCell ref="A657:A672"/>
-    <mergeCell ref="B657:B660"/>
-    <mergeCell ref="B661:B664"/>
-    <mergeCell ref="B665:B668"/>
-    <mergeCell ref="B669:B672"/>
-    <mergeCell ref="A673:A688"/>
-    <mergeCell ref="B673:B676"/>
-    <mergeCell ref="B677:B680"/>
-    <mergeCell ref="B681:B684"/>
-    <mergeCell ref="B685:B688"/>
-    <mergeCell ref="A689:A704"/>
-    <mergeCell ref="B689:B692"/>
-    <mergeCell ref="B693:B696"/>
-    <mergeCell ref="B697:B700"/>
-    <mergeCell ref="B701:B704"/>
-    <mergeCell ref="A705:A720"/>
-    <mergeCell ref="B705:B708"/>
-    <mergeCell ref="B709:B712"/>
-    <mergeCell ref="B713:B716"/>
-    <mergeCell ref="B717:B720"/>
-    <mergeCell ref="A721:A736"/>
-    <mergeCell ref="B721:B724"/>
-    <mergeCell ref="B725:B728"/>
-    <mergeCell ref="B729:B732"/>
-    <mergeCell ref="B733:B736"/>
-    <mergeCell ref="A737:A752"/>
-    <mergeCell ref="B737:B740"/>
-    <mergeCell ref="B741:B744"/>
-    <mergeCell ref="B745:B748"/>
-    <mergeCell ref="B749:B752"/>
-    <mergeCell ref="A753:A768"/>
-    <mergeCell ref="B753:B756"/>
-    <mergeCell ref="B757:B760"/>
-    <mergeCell ref="B761:B764"/>
-    <mergeCell ref="B765:B768"/>
-    <mergeCell ref="A769:A784"/>
-    <mergeCell ref="B769:B772"/>
-    <mergeCell ref="B773:B776"/>
-    <mergeCell ref="B777:B780"/>
-    <mergeCell ref="B781:B784"/>
-    <mergeCell ref="A785:A800"/>
-    <mergeCell ref="B785:B788"/>
-    <mergeCell ref="B789:B792"/>
-    <mergeCell ref="B793:B796"/>
-    <mergeCell ref="B797:B800"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DTW/data/no_skip.xlsx
+++ b/DTW/data/no_skip.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\INC_BEV_FastMOT\DTW\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\Documents\Github\INC_BEV_FastMOT\DTW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EE77C2-82CA-4835-8BA7-900C38F45F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EEC721-2CED-43EB-8203-AAF47E53E7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3180" windowWidth="25470" windowHeight="15280" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="1035" yWindow="2250" windowWidth="10875" windowHeight="11385" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="76">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4(정익?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,14 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +178,6 @@
   </si>
   <si>
     <t>2,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5(정익?)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,5,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,6,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +214,6 @@
   </si>
   <si>
     <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -262,10 +238,6 @@
   </si>
   <si>
     <t>6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -317,27 +289,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,5,6,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,7,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2,4,6,8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4,7,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,11 +305,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,9</t>
+    <t>1,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6,8</t>
+    <t>2,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,6,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,7,11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -946,16 +930,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A773" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D796" sqref="D796"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7">
         <v>1</v>
       </c>
@@ -969,7 +953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
@@ -979,7 +963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8"/>
       <c r="B3" s="11"/>
       <c r="C3" s="1" t="s">
@@ -989,7 +973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
@@ -997,7 +981,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="13" t="s">
         <v>4</v>
@@ -1009,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="1" t="s">
@@ -1019,7 +1003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
@@ -1029,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
@@ -1037,7 +1021,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="13" t="s">
         <v>5</v>
@@ -1046,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
@@ -1059,17 +1043,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
@@ -1077,7 +1061,7 @@
       </c>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="13" t="s">
         <v>6</v>
@@ -1089,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
@@ -1099,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
@@ -1109,7 +1093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
       <c r="C16" s="5" t="s">
@@ -1119,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>2</v>
       </c>
@@ -1133,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
@@ -1143,7 +1127,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
@@ -1153,7 +1137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
@@ -1161,7 +1145,7 @@
       </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="13" t="s">
         <v>4</v>
@@ -1173,7 +1157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
@@ -1183,7 +1167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="1" t="s">
@@ -1193,7 +1177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
@@ -1203,7 +1187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="13" t="s">
         <v>5</v>
@@ -1215,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
@@ -1225,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
@@ -1235,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
@@ -1243,7 +1227,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="13" t="s">
         <v>6</v>
@@ -1255,7 +1239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
@@ -1265,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
@@ -1275,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="9"/>
       <c r="B32" s="14"/>
       <c r="C32" s="5" t="s">
@@ -1283,7 +1267,7 @@
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>3</v>
       </c>
@@ -1297,7 +1281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
@@ -1307,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
@@ -1317,7 +1301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
@@ -1325,7 +1309,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="13" t="s">
         <v>4</v>
@@ -1337,7 +1321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
@@ -1347,7 +1331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="11"/>
       <c r="C39" s="1" t="s">
@@ -1357,7 +1341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
@@ -1365,7 +1349,7 @@
       </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
       <c r="B41" s="13" t="s">
         <v>5</v>
@@ -1374,40 +1358,38 @@
         <v>0</v>
       </c>
       <c r="D41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D42" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="13" t="s">
         <v>6</v>
@@ -1419,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="11"/>
       <c r="C46" s="1" t="s">
@@ -1429,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="8"/>
       <c r="B47" s="11"/>
       <c r="C47" s="1" t="s">
@@ -1439,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="9"/>
       <c r="B48" s="14"/>
       <c r="C48" s="5" t="s">
@@ -1447,7 +1429,7 @@
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>4</v>
       </c>
@@ -1461,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="11"/>
       <c r="C50" s="1" t="s">
@@ -1471,7 +1453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="11"/>
       <c r="C51" s="1" t="s">
@@ -1481,7 +1463,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="12"/>
       <c r="C52" s="1" t="s">
@@ -1489,7 +1471,7 @@
       </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="13" t="s">
         <v>4</v>
@@ -1501,7 +1483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="11"/>
       <c r="C54" s="1" t="s">
@@ -1511,7 +1493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="11"/>
       <c r="C55" s="1" t="s">
@@ -1521,17 +1503,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="12"/>
       <c r="C56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D56" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="13" t="s">
         <v>5</v>
@@ -1539,41 +1521,39 @@
       <c r="C57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D57" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="11"/>
       <c r="C58" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
       <c r="B59" s="11"/>
       <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="12"/>
       <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="8"/>
       <c r="B61" s="13" t="s">
         <v>6</v>
@@ -1585,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="11"/>
       <c r="C62" s="1" t="s">
@@ -1595,7 +1575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
       <c r="B63" s="11"/>
       <c r="C63" s="1" t="s">
@@ -1605,7 +1585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="9"/>
       <c r="B64" s="14"/>
       <c r="C64" s="5" t="s">
@@ -1613,7 +1593,7 @@
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
         <v>5</v>
       </c>
@@ -1624,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="11"/>
       <c r="C66" s="1" t="s">
@@ -1637,17 +1617,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="8"/>
       <c r="B67" s="11"/>
       <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="8"/>
       <c r="B68" s="12"/>
       <c r="C68" s="1" t="s">
@@ -1655,7 +1635,7 @@
       </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="13" t="s">
         <v>4</v>
@@ -1664,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="11"/>
       <c r="C70" s="1" t="s">
@@ -1677,7 +1657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="11"/>
       <c r="C71" s="1" t="s">
@@ -1687,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="12"/>
       <c r="C72" s="1" t="s">
@@ -1697,7 +1677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="13" t="s">
         <v>5</v>
@@ -1706,20 +1686,20 @@
         <v>0</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="8"/>
       <c r="B74" s="11"/>
       <c r="C74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D74" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="8"/>
       <c r="B75" s="11"/>
       <c r="C75" s="1" t="s">
@@ -1729,17 +1709,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="8"/>
       <c r="B76" s="12"/>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
       <c r="B77" s="13" t="s">
         <v>6</v>
@@ -1751,27 +1729,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="8"/>
       <c r="B78" s="11"/>
       <c r="C78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="8"/>
       <c r="B79" s="11"/>
       <c r="C79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="9"/>
       <c r="B80" s="14"/>
       <c r="C80" s="5" t="s">
@@ -1779,7 +1757,7 @@
       </c>
       <c r="D80" s="6"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
         <v>6</v>
       </c>
@@ -1790,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="8"/>
       <c r="B82" s="11"/>
       <c r="C82" s="1" t="s">
@@ -1803,7 +1781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
       <c r="B83" s="11"/>
       <c r="C83" s="1" t="s">
@@ -1813,7 +1791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="8"/>
       <c r="B84" s="12"/>
       <c r="C84" s="1" t="s">
@@ -1821,7 +1799,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="8"/>
       <c r="B85" s="13" t="s">
         <v>4</v>
@@ -1830,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="8"/>
       <c r="B86" s="11"/>
       <c r="C86" s="1" t="s">
@@ -1843,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
       <c r="B87" s="11"/>
       <c r="C87" s="1" t="s">
@@ -1853,7 +1831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
       <c r="B88" s="12"/>
       <c r="C88" s="1" t="s">
@@ -1861,7 +1839,7 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="8"/>
       <c r="B89" s="13" t="s">
         <v>5</v>
@@ -1869,21 +1847,21 @@
       <c r="C89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D89" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D89" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="8"/>
       <c r="B90" s="11"/>
       <c r="C90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="8"/>
       <c r="B91" s="11"/>
       <c r="C91" s="1" t="s">
@@ -1893,17 +1871,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="8"/>
       <c r="B92" s="12"/>
       <c r="C92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="8"/>
       <c r="B93" s="13" t="s">
         <v>6</v>
@@ -1913,7 +1889,7 @@
       </c>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="8"/>
       <c r="B94" s="11"/>
       <c r="C94" s="1" t="s">
@@ -1923,7 +1899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="8"/>
       <c r="B95" s="11"/>
       <c r="C95" s="1" t="s">
@@ -1931,17 +1907,17 @@
       </c>
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="9"/>
       <c r="B96" s="14"/>
       <c r="C96" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
         <v>7</v>
       </c>
@@ -1955,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="8"/>
       <c r="B98" s="11"/>
       <c r="C98" s="1" t="s">
@@ -1965,17 +1941,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="8"/>
       <c r="B99" s="11"/>
       <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="8"/>
       <c r="B100" s="12"/>
       <c r="C100" s="1" t="s">
@@ -1983,7 +1959,7 @@
       </c>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="8"/>
       <c r="B101" s="13" t="s">
         <v>4</v>
@@ -1995,7 +1971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="8"/>
       <c r="B102" s="11"/>
       <c r="C102" s="1" t="s">
@@ -2005,7 +1981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="8"/>
       <c r="B103" s="11"/>
       <c r="C103" s="1" t="s">
@@ -2015,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="8"/>
       <c r="B104" s="12"/>
       <c r="C104" s="1" t="s">
@@ -2023,7 +1999,7 @@
       </c>
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="8"/>
       <c r="B105" s="13" t="s">
         <v>5</v>
@@ -2035,37 +2011,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="8"/>
       <c r="B106" s="11"/>
       <c r="C106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D106" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="8"/>
       <c r="B107" s="11"/>
       <c r="C107" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="8"/>
       <c r="B108" s="12"/>
       <c r="C108" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D108" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="8"/>
       <c r="B109" s="13" t="s">
         <v>6</v>
@@ -2077,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="8"/>
       <c r="B110" s="11"/>
       <c r="C110" s="1" t="s">
@@ -2087,7 +2061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="11"/>
       <c r="C111" s="1" t="s">
@@ -2097,7 +2071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="9"/>
       <c r="B112" s="14"/>
       <c r="C112" s="5" t="s">
@@ -2105,7 +2079,7 @@
       </c>
       <c r="D112" s="6"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>8</v>
       </c>
@@ -2119,17 +2093,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="8"/>
       <c r="B114" s="11"/>
       <c r="C114" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="8"/>
       <c r="B115" s="11"/>
       <c r="C115" s="1" t="s">
@@ -2139,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="8"/>
       <c r="B116" s="12"/>
       <c r="C116" s="1" t="s">
@@ -2147,7 +2121,7 @@
       </c>
       <c r="D116" s="4"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="B117" s="13" t="s">
         <v>4</v>
@@ -2159,7 +2133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="8"/>
       <c r="B118" s="11"/>
       <c r="C118" s="1" t="s">
@@ -2169,7 +2143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="8"/>
       <c r="B119" s="11"/>
       <c r="C119" s="1" t="s">
@@ -2179,7 +2153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="8"/>
       <c r="B120" s="12"/>
       <c r="C120" s="1" t="s">
@@ -2189,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="8"/>
       <c r="B121" s="13" t="s">
         <v>5</v>
@@ -2201,27 +2175,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="8"/>
       <c r="B122" s="11"/>
       <c r="C122" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="8"/>
       <c r="B123" s="11"/>
       <c r="C123" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="8"/>
       <c r="B124" s="12"/>
       <c r="C124" s="1" t="s">
@@ -2229,7 +2203,7 @@
       </c>
       <c r="D124" s="4"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="8"/>
       <c r="B125" s="13" t="s">
         <v>6</v>
@@ -2241,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="8"/>
       <c r="B126" s="11"/>
       <c r="C126" s="1" t="s">
@@ -2251,7 +2225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="8"/>
       <c r="B127" s="11"/>
       <c r="C127" s="1" t="s">
@@ -2261,7 +2235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="9"/>
       <c r="B128" s="14"/>
       <c r="C128" s="5" t="s">
@@ -2269,7 +2243,7 @@
       </c>
       <c r="D128" s="6"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>9</v>
       </c>
@@ -2280,30 +2254,30 @@
         <v>0</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="8"/>
       <c r="B130" s="11"/>
       <c r="C130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D130" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D130" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="8"/>
       <c r="B131" s="11"/>
       <c r="C131" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="8"/>
       <c r="B132" s="12"/>
       <c r="C132" s="1" t="s">
@@ -2311,7 +2285,7 @@
       </c>
       <c r="D132" s="4"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="8"/>
       <c r="B133" s="13" t="s">
         <v>4</v>
@@ -2320,30 +2294,30 @@
         <v>0</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="8"/>
       <c r="B134" s="11"/>
       <c r="C134" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D134" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D134" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="8"/>
       <c r="B135" s="11"/>
       <c r="C135" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="8"/>
       <c r="B136" s="12"/>
       <c r="C136" s="1" t="s">
@@ -2351,7 +2325,7 @@
       </c>
       <c r="D136" s="4"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="8"/>
       <c r="B137" s="13" t="s">
         <v>5</v>
@@ -2363,35 +2337,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="8"/>
       <c r="B138" s="11"/>
       <c r="C138" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D138" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D138" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="8"/>
       <c r="B139" s="11"/>
       <c r="C139" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D139" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="8"/>
       <c r="B140" s="12"/>
       <c r="C140" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D140" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="8"/>
       <c r="B141" s="13" t="s">
         <v>6</v>
@@ -2400,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="D141" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="8"/>
       <c r="B142" s="11"/>
       <c r="C142" s="1" t="s">
@@ -2413,17 +2389,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="8"/>
       <c r="B143" s="11"/>
       <c r="C143" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D143" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="9"/>
       <c r="B144" s="14"/>
       <c r="C144" s="5" t="s">
@@ -2431,7 +2407,7 @@
       </c>
       <c r="D144" s="6"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>10</v>
       </c>
@@ -2445,7 +2421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="8"/>
       <c r="B146" s="11"/>
       <c r="C146" s="1" t="s">
@@ -2455,17 +2431,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="8"/>
       <c r="B147" s="11"/>
       <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="8"/>
       <c r="B148" s="12"/>
       <c r="C148" s="1" t="s">
@@ -2473,7 +2449,7 @@
       </c>
       <c r="D148" s="4"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="8"/>
       <c r="B149" s="13" t="s">
         <v>4</v>
@@ -2485,17 +2461,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="8"/>
       <c r="B150" s="11"/>
       <c r="C150" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="8"/>
       <c r="B151" s="11"/>
       <c r="C151" s="1" t="s">
@@ -2505,7 +2481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="8"/>
       <c r="B152" s="12"/>
       <c r="C152" s="1" t="s">
@@ -2513,7 +2489,7 @@
       </c>
       <c r="D152" s="4"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="8"/>
       <c r="B153" s="13" t="s">
         <v>5</v>
@@ -2525,37 +2501,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="8"/>
       <c r="B154" s="11"/>
       <c r="C154" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="8"/>
       <c r="B155" s="11"/>
       <c r="C155" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D155" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="8"/>
       <c r="B156" s="12"/>
       <c r="C156" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D156" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="8"/>
       <c r="B157" s="13" t="s">
         <v>6</v>
@@ -2567,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="8"/>
       <c r="B158" s="11"/>
       <c r="C158" s="1" t="s">
@@ -2577,17 +2551,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="8"/>
       <c r="B159" s="11"/>
       <c r="C159" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="9"/>
       <c r="B160" s="14"/>
       <c r="C160" s="5" t="s">
@@ -2597,7 +2571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>11</v>
       </c>
@@ -2611,7 +2585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="8"/>
       <c r="B162" s="11"/>
       <c r="C162" s="1" t="s">
@@ -2621,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="8"/>
       <c r="B163" s="11"/>
       <c r="C163" s="1" t="s">
@@ -2631,7 +2605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="8"/>
       <c r="B164" s="12"/>
       <c r="C164" s="1" t="s">
@@ -2639,7 +2613,7 @@
       </c>
       <c r="D164" s="4"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="8"/>
       <c r="B165" s="13" t="s">
         <v>4</v>
@@ -2651,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="8"/>
       <c r="B166" s="11"/>
       <c r="C166" s="1" t="s">
@@ -2661,7 +2635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="8"/>
       <c r="B167" s="11"/>
       <c r="C167" s="1" t="s">
@@ -2671,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="8"/>
       <c r="B168" s="12"/>
       <c r="C168" s="1" t="s">
@@ -2679,7 +2653,7 @@
       </c>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="8"/>
       <c r="B169" s="13" t="s">
         <v>5</v>
@@ -2688,40 +2662,38 @@
         <v>0</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="8"/>
       <c r="B170" s="11"/>
       <c r="C170" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="8"/>
       <c r="B171" s="11"/>
       <c r="C171" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D171" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="8"/>
       <c r="B172" s="12"/>
       <c r="C172" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D172" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="8"/>
       <c r="B173" s="13" t="s">
         <v>6</v>
@@ -2733,27 +2705,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="8"/>
       <c r="B174" s="11"/>
       <c r="C174" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="8"/>
       <c r="B175" s="11"/>
       <c r="C175" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="9"/>
       <c r="B176" s="14"/>
       <c r="C176" s="5" t="s">
@@ -2761,7 +2733,7 @@
       </c>
       <c r="D176" s="6"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>12</v>
       </c>
@@ -2775,17 +2747,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="8"/>
       <c r="B178" s="11"/>
       <c r="C178" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="8"/>
       <c r="B179" s="11"/>
       <c r="C179" s="1" t="s">
@@ -2795,7 +2767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="8"/>
       <c r="B180" s="12"/>
       <c r="C180" s="1" t="s">
@@ -2803,7 +2775,7 @@
       </c>
       <c r="D180" s="4"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="8"/>
       <c r="B181" s="13" t="s">
         <v>4</v>
@@ -2815,17 +2787,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="8"/>
       <c r="B182" s="11"/>
       <c r="C182" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="8"/>
       <c r="B183" s="11"/>
       <c r="C183" s="1" t="s">
@@ -2835,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="8"/>
       <c r="B184" s="12"/>
       <c r="C184" s="1" t="s">
@@ -2845,7 +2817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="8"/>
       <c r="B185" s="13" t="s">
         <v>5</v>
@@ -2854,20 +2826,20 @@
         <v>0</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="8"/>
       <c r="B186" s="11"/>
       <c r="C186" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="8"/>
       <c r="B187" s="11"/>
       <c r="C187" s="1" t="s">
@@ -2877,7 +2849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="8"/>
       <c r="B188" s="12"/>
       <c r="C188" s="1" t="s">
@@ -2885,7 +2857,7 @@
       </c>
       <c r="D188" s="4"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="8"/>
       <c r="B189" s="13" t="s">
         <v>6</v>
@@ -2897,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="8"/>
       <c r="B190" s="11"/>
       <c r="C190" s="1" t="s">
@@ -2907,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="8"/>
       <c r="B191" s="11"/>
       <c r="C191" s="1" t="s">
@@ -2917,7 +2889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A192" s="9"/>
       <c r="B192" s="14"/>
       <c r="C192" s="5" t="s">
@@ -2925,7 +2897,7 @@
       </c>
       <c r="D192" s="6"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>13</v>
       </c>
@@ -2939,7 +2911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="8"/>
       <c r="B194" s="11"/>
       <c r="C194" s="1" t="s">
@@ -2949,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="8"/>
       <c r="B195" s="11"/>
       <c r="C195" s="1" t="s">
@@ -2959,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="8"/>
       <c r="B196" s="12"/>
       <c r="C196" s="1" t="s">
@@ -2967,7 +2939,7 @@
       </c>
       <c r="D196" s="4"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="8"/>
       <c r="B197" s="13" t="s">
         <v>4</v>
@@ -2979,7 +2951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="8"/>
       <c r="B198" s="11"/>
       <c r="C198" s="1" t="s">
@@ -2989,17 +2961,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="8"/>
       <c r="B199" s="11"/>
       <c r="C199" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="8"/>
       <c r="B200" s="12"/>
       <c r="C200" s="1" t="s">
@@ -3007,7 +2979,7 @@
       </c>
       <c r="D200" s="4"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="8"/>
       <c r="B201" s="13" t="s">
         <v>5</v>
@@ -3019,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="8"/>
       <c r="B202" s="11"/>
       <c r="C202" s="1" t="s">
@@ -3029,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="8"/>
       <c r="B203" s="11"/>
       <c r="C203" s="1" t="s">
@@ -3039,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="8"/>
       <c r="B204" s="12"/>
       <c r="C204" s="1" t="s">
@@ -3047,7 +3019,7 @@
       </c>
       <c r="D204" s="4"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="8"/>
       <c r="B205" s="13" t="s">
         <v>6</v>
@@ -3059,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="8"/>
       <c r="B206" s="11"/>
       <c r="C206" s="1" t="s">
@@ -3069,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="8"/>
       <c r="B207" s="11"/>
       <c r="C207" s="1" t="s">
@@ -3079,7 +3051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="9"/>
       <c r="B208" s="14"/>
       <c r="C208" s="5" t="s">
@@ -3087,7 +3059,7 @@
       </c>
       <c r="D208" s="6"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="7">
         <v>14</v>
       </c>
@@ -3101,7 +3073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="8"/>
       <c r="B210" s="11"/>
       <c r="C210" s="1" t="s">
@@ -3111,7 +3083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="8"/>
       <c r="B211" s="11"/>
       <c r="C211" s="1" t="s">
@@ -3121,7 +3093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="8"/>
       <c r="B212" s="12"/>
       <c r="C212" s="1" t="s">
@@ -3129,7 +3101,7 @@
       </c>
       <c r="D212" s="4"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="8"/>
       <c r="B213" s="13" t="s">
         <v>4</v>
@@ -3138,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="8"/>
       <c r="B214" s="11"/>
       <c r="C214" s="1" t="s">
@@ -3151,7 +3123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="8"/>
       <c r="B215" s="11"/>
       <c r="C215" s="1" t="s">
@@ -3161,7 +3133,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="8"/>
       <c r="B216" s="12"/>
       <c r="C216" s="1" t="s">
@@ -3169,7 +3141,7 @@
       </c>
       <c r="D216" s="4"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="8"/>
       <c r="B217" s="13" t="s">
         <v>5</v>
@@ -3181,37 +3153,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="8"/>
       <c r="B218" s="11"/>
       <c r="C218" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="8"/>
       <c r="B219" s="11"/>
       <c r="C219" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="8"/>
       <c r="B220" s="12"/>
       <c r="C220" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D220" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="8"/>
       <c r="B221" s="13" t="s">
         <v>6</v>
@@ -3223,17 +3193,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="8"/>
       <c r="B222" s="11"/>
       <c r="C222" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="8"/>
       <c r="B223" s="11"/>
       <c r="C223" s="1" t="s">
@@ -3243,7 +3213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A224" s="9"/>
       <c r="B224" s="14"/>
       <c r="C224" s="5" t="s">
@@ -3251,7 +3221,7 @@
       </c>
       <c r="D224" s="6"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="7">
         <v>15</v>
       </c>
@@ -3265,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="8"/>
       <c r="B226" s="11"/>
       <c r="C226" s="1" t="s">
@@ -3275,7 +3245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="8"/>
       <c r="B227" s="11"/>
       <c r="C227" s="1" t="s">
@@ -3285,7 +3255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="8"/>
       <c r="B228" s="12"/>
       <c r="C228" s="1" t="s">
@@ -3293,7 +3263,7 @@
       </c>
       <c r="D228" s="4"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="8"/>
       <c r="B229" s="13" t="s">
         <v>4</v>
@@ -3302,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="8"/>
       <c r="B230" s="11"/>
       <c r="C230" s="1" t="s">
@@ -3315,17 +3285,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="8"/>
       <c r="B231" s="11"/>
       <c r="C231" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="8"/>
       <c r="B232" s="12"/>
       <c r="C232" s="1" t="s">
@@ -3333,7 +3303,7 @@
       </c>
       <c r="D232" s="4"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="8"/>
       <c r="B233" s="13" t="s">
         <v>5</v>
@@ -3341,31 +3311,31 @@
       <c r="C233" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D233" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D233" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="8"/>
       <c r="B234" s="11"/>
       <c r="C234" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="8"/>
       <c r="B235" s="11"/>
       <c r="C235" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D235" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="8"/>
       <c r="B236" s="12"/>
       <c r="C236" s="1" t="s">
@@ -3373,7 +3343,7 @@
       </c>
       <c r="D236" s="4"/>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="8"/>
       <c r="B237" s="13" t="s">
         <v>6</v>
@@ -3385,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="8"/>
       <c r="B238" s="11"/>
       <c r="C238" s="1" t="s">
@@ -3395,17 +3365,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="8"/>
       <c r="B239" s="11"/>
       <c r="C239" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A240" s="9"/>
       <c r="B240" s="14"/>
       <c r="C240" s="5" t="s">
@@ -3413,7 +3383,7 @@
       </c>
       <c r="D240" s="6"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="7">
         <v>16</v>
       </c>
@@ -3427,7 +3397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="8"/>
       <c r="B242" s="11"/>
       <c r="C242" s="1" t="s">
@@ -3437,17 +3407,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="8"/>
       <c r="B243" s="11"/>
       <c r="C243" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="8"/>
       <c r="B244" s="12"/>
       <c r="C244" s="1" t="s">
@@ -3455,7 +3425,7 @@
       </c>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="8"/>
       <c r="B245" s="13" t="s">
         <v>4</v>
@@ -3464,20 +3434,20 @@
         <v>0</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
       <c r="B246" s="11"/>
       <c r="C246" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="8"/>
       <c r="B247" s="11"/>
       <c r="C247" s="1" t="s">
@@ -3487,7 +3457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="8"/>
       <c r="B248" s="12"/>
       <c r="C248" s="1" t="s">
@@ -3495,7 +3465,7 @@
       </c>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="8"/>
       <c r="B249" s="13" t="s">
         <v>5</v>
@@ -3507,37 +3477,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="8"/>
       <c r="B250" s="11"/>
       <c r="C250" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D250" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D250" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="8"/>
       <c r="B251" s="11"/>
       <c r="C251" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D251" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D251" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="8"/>
       <c r="B252" s="12"/>
       <c r="C252" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D252" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="8"/>
       <c r="B253" s="13" t="s">
         <v>6</v>
@@ -3549,17 +3517,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="8"/>
       <c r="B254" s="11"/>
       <c r="C254" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="8"/>
       <c r="B255" s="11"/>
       <c r="C255" s="1" t="s">
@@ -3569,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A256" s="9"/>
       <c r="B256" s="14"/>
       <c r="C256" s="5" t="s">
@@ -3577,7 +3545,7 @@
       </c>
       <c r="D256" s="6"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="7">
         <v>17</v>
       </c>
@@ -3591,7 +3559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="8"/>
       <c r="B258" s="11"/>
       <c r="C258" s="1" t="s">
@@ -3601,17 +3569,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="8"/>
       <c r="B259" s="11"/>
       <c r="C259" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="8"/>
       <c r="B260" s="12"/>
       <c r="C260" s="1" t="s">
@@ -3619,7 +3587,7 @@
       </c>
       <c r="D260" s="4"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="8"/>
       <c r="B261" s="13" t="s">
         <v>4</v>
@@ -3628,30 +3596,30 @@
         <v>0</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="8"/>
       <c r="B262" s="11"/>
       <c r="C262" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="8"/>
       <c r="B263" s="11"/>
       <c r="C263" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="8"/>
       <c r="B264" s="12"/>
       <c r="C264" s="1" t="s">
@@ -3659,7 +3627,7 @@
       </c>
       <c r="D264" s="4"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="8"/>
       <c r="B265" s="13" t="s">
         <v>5</v>
@@ -3668,30 +3636,30 @@
         <v>0</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="8"/>
       <c r="B266" s="11"/>
       <c r="C266" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="8"/>
       <c r="B267" s="11"/>
       <c r="C267" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D267" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="8"/>
       <c r="B268" s="12"/>
       <c r="C268" s="1" t="s">
@@ -3699,7 +3667,7 @@
       </c>
       <c r="D268" s="4"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="8"/>
       <c r="B269" s="13" t="s">
         <v>6</v>
@@ -3711,7 +3679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="8"/>
       <c r="B270" s="11"/>
       <c r="C270" s="1" t="s">
@@ -3721,7 +3689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="8"/>
       <c r="B271" s="11"/>
       <c r="C271" s="1" t="s">
@@ -3731,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="9"/>
       <c r="B272" s="14"/>
       <c r="C272" s="5" t="s">
@@ -3739,7 +3707,7 @@
       </c>
       <c r="D272" s="6"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="7">
         <v>18</v>
       </c>
@@ -3753,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="8"/>
       <c r="B274" s="11"/>
       <c r="C274" s="1" t="s">
@@ -3763,7 +3731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="8"/>
       <c r="B275" s="11"/>
       <c r="C275" s="1" t="s">
@@ -3773,7 +3741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="8"/>
       <c r="B276" s="12"/>
       <c r="C276" s="1" t="s">
@@ -3781,7 +3749,7 @@
       </c>
       <c r="D276" s="4"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="8"/>
       <c r="B277" s="13" t="s">
         <v>4</v>
@@ -3793,7 +3761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="8"/>
       <c r="B278" s="11"/>
       <c r="C278" s="1" t="s">
@@ -3803,27 +3771,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="8"/>
       <c r="B279" s="11"/>
       <c r="C279" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="8"/>
       <c r="B280" s="12"/>
       <c r="C280" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="8"/>
       <c r="B281" s="13" t="s">
         <v>5</v>
@@ -3832,30 +3800,30 @@
         <v>0</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="8"/>
       <c r="B282" s="11"/>
       <c r="C282" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="8"/>
       <c r="B283" s="11"/>
       <c r="C283" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D283" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D283" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="8"/>
       <c r="B284" s="12"/>
       <c r="C284" s="1" t="s">
@@ -3863,7 +3831,7 @@
       </c>
       <c r="D284" s="4"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="8"/>
       <c r="B285" s="13" t="s">
         <v>6</v>
@@ -3875,7 +3843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="8"/>
       <c r="B286" s="11"/>
       <c r="C286" s="1" t="s">
@@ -3885,7 +3853,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="8"/>
       <c r="B287" s="11"/>
       <c r="C287" s="1" t="s">
@@ -3895,7 +3863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A288" s="9"/>
       <c r="B288" s="14"/>
       <c r="C288" s="5" t="s">
@@ -3903,7 +3871,7 @@
       </c>
       <c r="D288" s="6"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="7">
         <v>19</v>
       </c>
@@ -3917,7 +3885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="8"/>
       <c r="B290" s="11"/>
       <c r="C290" s="1" t="s">
@@ -3927,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="8"/>
       <c r="B291" s="11"/>
       <c r="C291" s="1" t="s">
@@ -3937,7 +3905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="8"/>
       <c r="B292" s="12"/>
       <c r="C292" s="1" t="s">
@@ -3945,7 +3913,7 @@
       </c>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="8"/>
       <c r="B293" s="13" t="s">
         <v>4</v>
@@ -3954,10 +3922,10 @@
         <v>0</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="8"/>
       <c r="B294" s="11"/>
       <c r="C294" s="1" t="s">
@@ -3967,17 +3935,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="8"/>
       <c r="B295" s="11"/>
       <c r="C295" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="8"/>
       <c r="B296" s="12"/>
       <c r="C296" s="1" t="s">
@@ -3985,7 +3953,7 @@
       </c>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="8"/>
       <c r="B297" s="13" t="s">
         <v>5</v>
@@ -3997,7 +3965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="8"/>
       <c r="B298" s="11"/>
       <c r="C298" s="1" t="s">
@@ -4007,7 +3975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="8"/>
       <c r="B299" s="11"/>
       <c r="C299" s="1" t="s">
@@ -4017,7 +3985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="8"/>
       <c r="B300" s="12"/>
       <c r="C300" s="1" t="s">
@@ -4025,7 +3993,7 @@
       </c>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="8"/>
       <c r="B301" s="13" t="s">
         <v>6</v>
@@ -4037,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="8"/>
       <c r="B302" s="11"/>
       <c r="C302" s="1" t="s">
@@ -4047,17 +4015,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="8"/>
       <c r="B303" s="11"/>
       <c r="C303" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="9"/>
       <c r="B304" s="14"/>
       <c r="C304" s="5" t="s">
@@ -4065,7 +4033,7 @@
       </c>
       <c r="D304" s="6"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="7">
         <v>20</v>
       </c>
@@ -4079,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="8"/>
       <c r="B306" s="11"/>
       <c r="C306" s="1" t="s">
@@ -4089,7 +4057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="8"/>
       <c r="B307" s="11"/>
       <c r="C307" s="1" t="s">
@@ -4099,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="8"/>
       <c r="B308" s="12"/>
       <c r="C308" s="1" t="s">
@@ -4107,7 +4075,7 @@
       </c>
       <c r="D308" s="4"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="8"/>
       <c r="B309" s="13" t="s">
         <v>4</v>
@@ -4119,7 +4087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="8"/>
       <c r="B310" s="11"/>
       <c r="C310" s="1" t="s">
@@ -4129,17 +4097,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="8"/>
       <c r="B311" s="11"/>
       <c r="C311" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="8"/>
       <c r="B312" s="12"/>
       <c r="C312" s="1" t="s">
@@ -4149,7 +4117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="8"/>
       <c r="B313" s="13" t="s">
         <v>5</v>
@@ -4158,10 +4126,10 @@
         <v>0</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="8"/>
       <c r="B314" s="11"/>
       <c r="C314" s="1" t="s">
@@ -4171,27 +4139,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="8"/>
       <c r="B315" s="11"/>
       <c r="C315" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="8"/>
       <c r="B316" s="12"/>
       <c r="C316" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D316" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D316" s="4"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="8"/>
       <c r="B317" s="13" t="s">
         <v>6</v>
@@ -4203,7 +4169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="8"/>
       <c r="B318" s="11"/>
       <c r="C318" s="1" t="s">
@@ -4213,7 +4179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="8"/>
       <c r="B319" s="11"/>
       <c r="C319" s="1" t="s">
@@ -4223,7 +4189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A320" s="9"/>
       <c r="B320" s="14"/>
       <c r="C320" s="5" t="s">
@@ -4231,7 +4197,7 @@
       </c>
       <c r="D320" s="6"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="7">
         <v>21</v>
       </c>
@@ -4245,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="8"/>
       <c r="B322" s="11"/>
       <c r="C322" s="1" t="s">
@@ -4255,17 +4221,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="8"/>
       <c r="B323" s="11"/>
       <c r="C323" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="8"/>
       <c r="B324" s="12"/>
       <c r="C324" s="1" t="s">
@@ -4273,7 +4239,7 @@
       </c>
       <c r="D324" s="4"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="8"/>
       <c r="B325" s="13" t="s">
         <v>4</v>
@@ -4282,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="8"/>
       <c r="B326" s="11"/>
       <c r="C326" s="1" t="s">
@@ -4295,17 +4261,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="8"/>
       <c r="B327" s="11"/>
       <c r="C327" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="8"/>
       <c r="B328" s="12"/>
       <c r="C328" s="1" t="s">
@@ -4313,7 +4279,7 @@
       </c>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="8"/>
       <c r="B329" s="13" t="s">
         <v>5</v>
@@ -4322,10 +4288,10 @@
         <v>0</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="8"/>
       <c r="B330" s="11"/>
       <c r="C330" s="1" t="s">
@@ -4335,7 +4301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="8"/>
       <c r="B331" s="11"/>
       <c r="C331" s="1" t="s">
@@ -4345,7 +4311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="8"/>
       <c r="B332" s="12"/>
       <c r="C332" s="1" t="s">
@@ -4353,7 +4319,7 @@
       </c>
       <c r="D332" s="4"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="8"/>
       <c r="B333" s="13" t="s">
         <v>6</v>
@@ -4362,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="8"/>
       <c r="B334" s="11"/>
       <c r="C334" s="1" t="s">
@@ -4375,7 +4341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="8"/>
       <c r="B335" s="11"/>
       <c r="C335" s="1" t="s">
@@ -4385,7 +4351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A336" s="9"/>
       <c r="B336" s="14"/>
       <c r="C336" s="5" t="s">
@@ -4393,7 +4359,7 @@
       </c>
       <c r="D336" s="6"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="7">
         <v>22</v>
       </c>
@@ -4407,7 +4373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="8"/>
       <c r="B338" s="11"/>
       <c r="C338" s="1" t="s">
@@ -4417,27 +4383,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="8"/>
       <c r="B339" s="11"/>
       <c r="C339" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="8"/>
       <c r="B340" s="12"/>
       <c r="C340" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="8"/>
       <c r="B341" s="13" t="s">
         <v>4</v>
@@ -4449,7 +4415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
       <c r="B342" s="11"/>
       <c r="C342" s="1" t="s">
@@ -4459,7 +4425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="8"/>
       <c r="B343" s="11"/>
       <c r="C343" s="1" t="s">
@@ -4469,7 +4435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="8"/>
       <c r="B344" s="12"/>
       <c r="C344" s="1" t="s">
@@ -4477,7 +4443,7 @@
       </c>
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="8"/>
       <c r="B345" s="13" t="s">
         <v>5</v>
@@ -4489,27 +4455,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="8"/>
       <c r="B346" s="11"/>
       <c r="C346" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="8"/>
       <c r="B347" s="11"/>
       <c r="C347" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="8"/>
       <c r="B348" s="12"/>
       <c r="C348" s="1" t="s">
@@ -4517,7 +4483,7 @@
       </c>
       <c r="D348" s="4"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="8"/>
       <c r="B349" s="13" t="s">
         <v>6</v>
@@ -4529,7 +4495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="8"/>
       <c r="B350" s="11"/>
       <c r="C350" s="1" t="s">
@@ -4539,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="8"/>
       <c r="B351" s="11"/>
       <c r="C351" s="1" t="s">
@@ -4549,7 +4515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A352" s="9"/>
       <c r="B352" s="14"/>
       <c r="C352" s="5" t="s">
@@ -4557,7 +4523,7 @@
       </c>
       <c r="D352" s="6"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="7">
         <v>23</v>
       </c>
@@ -4568,10 +4534,10 @@
         <v>0</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="8"/>
       <c r="B354" s="11"/>
       <c r="C354" s="1" t="s">
@@ -4581,17 +4547,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="8"/>
       <c r="B355" s="11"/>
       <c r="C355" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="8"/>
       <c r="B356" s="12"/>
       <c r="C356" s="1" t="s">
@@ -4599,7 +4565,7 @@
       </c>
       <c r="D356" s="4"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="8"/>
       <c r="B357" s="13" t="s">
         <v>4</v>
@@ -4608,30 +4574,30 @@
         <v>0</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="8"/>
       <c r="B358" s="11"/>
       <c r="C358" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="8"/>
       <c r="B359" s="11"/>
       <c r="C359" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="8"/>
       <c r="B360" s="12"/>
       <c r="C360" s="1" t="s">
@@ -4641,7 +4607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="8"/>
       <c r="B361" s="13" t="s">
         <v>5</v>
@@ -4653,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="8"/>
       <c r="B362" s="11"/>
       <c r="C362" s="1" t="s">
@@ -4663,27 +4629,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="8"/>
       <c r="B363" s="11"/>
       <c r="C363" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="8"/>
       <c r="B364" s="12"/>
       <c r="C364" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D364" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D364" s="4"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="8"/>
       <c r="B365" s="13" t="s">
         <v>6</v>
@@ -4695,7 +4659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="8"/>
       <c r="B366" s="11"/>
       <c r="C366" s="1" t="s">
@@ -4705,17 +4669,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="8"/>
       <c r="B367" s="11"/>
       <c r="C367" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A368" s="9"/>
       <c r="B368" s="14"/>
       <c r="C368" s="5" t="s">
@@ -4725,7 +4689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="7">
         <v>24</v>
       </c>
@@ -4736,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="8"/>
       <c r="B370" s="11"/>
       <c r="C370" s="1" t="s">
@@ -4749,17 +4713,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="8"/>
       <c r="B371" s="11"/>
       <c r="C371" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="8"/>
       <c r="B372" s="12"/>
       <c r="C372" s="1" t="s">
@@ -4767,7 +4731,7 @@
       </c>
       <c r="D372" s="4"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="8"/>
       <c r="B373" s="13" t="s">
         <v>4</v>
@@ -4779,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="8"/>
       <c r="B374" s="11"/>
       <c r="C374" s="1" t="s">
@@ -4789,7 +4753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="8"/>
       <c r="B375" s="11"/>
       <c r="C375" s="1" t="s">
@@ -4799,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="8"/>
       <c r="B376" s="12"/>
       <c r="C376" s="1" t="s">
@@ -4809,7 +4773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="8"/>
       <c r="B377" s="13" t="s">
         <v>5</v>
@@ -4821,7 +4785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="8"/>
       <c r="B378" s="11"/>
       <c r="C378" s="1" t="s">
@@ -4831,27 +4795,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="8"/>
       <c r="B379" s="11"/>
       <c r="C379" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="8"/>
       <c r="B380" s="12"/>
       <c r="C380" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D380" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D380" s="4"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="8"/>
       <c r="B381" s="13" t="s">
         <v>6</v>
@@ -4860,10 +4822,10 @@
         <v>0</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="8"/>
       <c r="B382" s="11"/>
       <c r="C382" s="1" t="s">
@@ -4873,17 +4835,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="8"/>
       <c r="B383" s="11"/>
       <c r="C383" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A384" s="9"/>
       <c r="B384" s="14"/>
       <c r="C384" s="5" t="s">
@@ -4891,7 +4853,7 @@
       </c>
       <c r="D384" s="6"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="7">
         <v>25</v>
       </c>
@@ -4905,7 +4867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="8"/>
       <c r="B386" s="11"/>
       <c r="C386" s="1" t="s">
@@ -4915,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="8"/>
       <c r="B387" s="11"/>
       <c r="C387" s="1" t="s">
@@ -4925,7 +4887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="8"/>
       <c r="B388" s="12"/>
       <c r="C388" s="1" t="s">
@@ -4933,7 +4895,7 @@
       </c>
       <c r="D388" s="4"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="8"/>
       <c r="B389" s="13" t="s">
         <v>4</v>
@@ -4942,20 +4904,20 @@
         <v>0</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="8"/>
       <c r="B390" s="11"/>
       <c r="C390" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="8"/>
       <c r="B391" s="11"/>
       <c r="C391" s="1" t="s">
@@ -4965,7 +4927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="8"/>
       <c r="B392" s="12"/>
       <c r="C392" s="1" t="s">
@@ -4973,7 +4935,7 @@
       </c>
       <c r="D392" s="4"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="8"/>
       <c r="B393" s="13" t="s">
         <v>5</v>
@@ -4982,10 +4944,10 @@
         <v>0</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="8"/>
       <c r="B394" s="11"/>
       <c r="C394" s="1" t="s">
@@ -4995,17 +4957,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="8"/>
       <c r="B395" s="11"/>
       <c r="C395" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D395" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D395" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="8"/>
       <c r="B396" s="12"/>
       <c r="C396" s="1" t="s">
@@ -5013,7 +4975,7 @@
       </c>
       <c r="D396" s="4"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="8"/>
       <c r="B397" s="13" t="s">
         <v>6</v>
@@ -5022,20 +4984,20 @@
         <v>0</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="8"/>
       <c r="B398" s="11"/>
       <c r="C398" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="8"/>
       <c r="B399" s="11"/>
       <c r="C399" s="1" t="s">
@@ -5045,7 +5007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A400" s="9"/>
       <c r="B400" s="14"/>
       <c r="C400" s="5" t="s">
@@ -5053,7 +5015,7 @@
       </c>
       <c r="D400" s="6"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="7">
         <v>26</v>
       </c>
@@ -5067,7 +5029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="8"/>
       <c r="B402" s="11"/>
       <c r="C402" s="1" t="s">
@@ -5077,17 +5039,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="8"/>
       <c r="B403" s="11"/>
       <c r="C403" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="8"/>
       <c r="B404" s="12"/>
       <c r="C404" s="1" t="s">
@@ -5095,7 +5057,7 @@
       </c>
       <c r="D404" s="4"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="8"/>
       <c r="B405" s="13" t="s">
         <v>4</v>
@@ -5104,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="8"/>
       <c r="B406" s="11"/>
       <c r="C406" s="1" t="s">
@@ -5117,17 +5079,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="8"/>
       <c r="B407" s="11"/>
       <c r="C407" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="8"/>
       <c r="B408" s="12"/>
       <c r="C408" s="1" t="s">
@@ -5135,7 +5097,7 @@
       </c>
       <c r="D408" s="4"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="8"/>
       <c r="B409" s="13" t="s">
         <v>5</v>
@@ -5144,40 +5106,38 @@
         <v>0</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="8"/>
       <c r="B410" s="11"/>
       <c r="C410" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D410" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="8"/>
       <c r="B411" s="11"/>
       <c r="C411" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="8"/>
       <c r="B412" s="12"/>
       <c r="C412" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D412" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D412" s="4"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="8"/>
       <c r="B413" s="13" t="s">
         <v>6</v>
@@ -5189,7 +5149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="8"/>
       <c r="B414" s="11"/>
       <c r="C414" s="1" t="s">
@@ -5199,17 +5159,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="8"/>
       <c r="B415" s="11"/>
       <c r="C415" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A416" s="9"/>
       <c r="B416" s="14"/>
       <c r="C416" s="5" t="s">
@@ -5217,7 +5177,7 @@
       </c>
       <c r="D416" s="6"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="7">
         <v>27</v>
       </c>
@@ -5231,7 +5191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="8"/>
       <c r="B418" s="11"/>
       <c r="C418" s="1" t="s">
@@ -5241,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="8"/>
       <c r="B419" s="11"/>
       <c r="C419" s="1" t="s">
@@ -5251,7 +5211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="8"/>
       <c r="B420" s="12"/>
       <c r="C420" s="1" t="s">
@@ -5259,7 +5219,7 @@
       </c>
       <c r="D420" s="4"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="8"/>
       <c r="B421" s="13" t="s">
         <v>4</v>
@@ -5271,7 +5231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="8"/>
       <c r="B422" s="11"/>
       <c r="C422" s="1" t="s">
@@ -5281,17 +5241,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="8"/>
       <c r="B423" s="11"/>
       <c r="C423" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="8"/>
       <c r="B424" s="12"/>
       <c r="C424" s="1" t="s">
@@ -5299,7 +5259,7 @@
       </c>
       <c r="D424" s="4"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="8"/>
       <c r="B425" s="13" t="s">
         <v>5</v>
@@ -5311,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="8"/>
       <c r="B426" s="11"/>
       <c r="C426" s="1" t="s">
@@ -5321,27 +5281,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="8"/>
       <c r="B427" s="11"/>
       <c r="C427" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D427" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D427" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="8"/>
       <c r="B428" s="12"/>
       <c r="C428" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D428" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D428" s="4"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="8"/>
       <c r="B429" s="13" t="s">
         <v>6</v>
@@ -5353,7 +5311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="8"/>
       <c r="B430" s="11"/>
       <c r="C430" s="1" t="s">
@@ -5363,7 +5321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="8"/>
       <c r="B431" s="11"/>
       <c r="C431" s="1" t="s">
@@ -5373,7 +5331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A432" s="9"/>
       <c r="B432" s="14"/>
       <c r="C432" s="5" t="s">
@@ -5381,7 +5339,7 @@
       </c>
       <c r="D432" s="6"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" s="7">
         <v>28</v>
       </c>
@@ -5395,7 +5353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" s="8"/>
       <c r="B434" s="11"/>
       <c r="C434" s="1" t="s">
@@ -5405,17 +5363,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" s="8"/>
       <c r="B435" s="11"/>
       <c r="C435" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" s="8"/>
       <c r="B436" s="12"/>
       <c r="C436" s="1" t="s">
@@ -5423,7 +5381,7 @@
       </c>
       <c r="D436" s="4"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="8"/>
       <c r="B437" s="13" t="s">
         <v>4</v>
@@ -5432,10 +5390,10 @@
         <v>0</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="8"/>
       <c r="B438" s="11"/>
       <c r="C438" s="1" t="s">
@@ -5445,17 +5403,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" s="8"/>
       <c r="B439" s="11"/>
       <c r="C439" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" s="8"/>
       <c r="B440" s="12"/>
       <c r="C440" s="1" t="s">
@@ -5463,7 +5421,7 @@
       </c>
       <c r="D440" s="4"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" s="8"/>
       <c r="B441" s="13" t="s">
         <v>5</v>
@@ -5475,27 +5433,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" s="8"/>
       <c r="B442" s="11"/>
       <c r="C442" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D442" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D442" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" s="8"/>
       <c r="B443" s="11"/>
       <c r="C443" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D443" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D443" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="8"/>
       <c r="B444" s="12"/>
       <c r="C444" s="1" t="s">
@@ -5503,7 +5461,7 @@
       </c>
       <c r="D444" s="4"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="8"/>
       <c r="B445" s="13" t="s">
         <v>6</v>
@@ -5515,7 +5473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" s="8"/>
       <c r="B446" s="11"/>
       <c r="C446" s="1" t="s">
@@ -5525,17 +5483,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" s="8"/>
       <c r="B447" s="11"/>
       <c r="C447" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A448" s="9"/>
       <c r="B448" s="14"/>
       <c r="C448" s="5" t="s">
@@ -5543,7 +5501,7 @@
       </c>
       <c r="D448" s="6"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" s="7">
         <v>29</v>
       </c>
@@ -5557,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" s="8"/>
       <c r="B450" s="11"/>
       <c r="C450" s="1" t="s">
@@ -5567,7 +5525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" s="8"/>
       <c r="B451" s="11"/>
       <c r="C451" s="1" t="s">
@@ -5577,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="8"/>
       <c r="B452" s="12"/>
       <c r="C452" s="1" t="s">
@@ -5585,7 +5543,7 @@
       </c>
       <c r="D452" s="4"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="8"/>
       <c r="B453" s="13" t="s">
         <v>4</v>
@@ -5597,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" s="8"/>
       <c r="B454" s="11"/>
       <c r="C454" s="1" t="s">
@@ -5607,7 +5565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" s="8"/>
       <c r="B455" s="11"/>
       <c r="C455" s="1" t="s">
@@ -5617,7 +5575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" s="8"/>
       <c r="B456" s="12"/>
       <c r="C456" s="1" t="s">
@@ -5625,7 +5583,7 @@
       </c>
       <c r="D456" s="4"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" s="8"/>
       <c r="B457" s="13" t="s">
         <v>5</v>
@@ -5633,31 +5591,31 @@
       <c r="C457" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D457" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D457" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" s="8"/>
       <c r="B458" s="11"/>
       <c r="C458" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D458" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D458" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" s="8"/>
       <c r="B459" s="11"/>
       <c r="C459" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" s="8"/>
       <c r="B460" s="12"/>
       <c r="C460" s="1" t="s">
@@ -5665,7 +5623,7 @@
       </c>
       <c r="D460" s="4"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="8"/>
       <c r="B461" s="13" t="s">
         <v>6</v>
@@ -5677,7 +5635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="8"/>
       <c r="B462" s="11"/>
       <c r="C462" s="1" t="s">
@@ -5687,17 +5645,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" s="8"/>
       <c r="B463" s="11"/>
       <c r="C463" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A464" s="9"/>
       <c r="B464" s="14"/>
       <c r="C464" s="5" t="s">
@@ -5705,7 +5663,7 @@
       </c>
       <c r="D464" s="6"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="7">
         <v>30</v>
       </c>
@@ -5719,27 +5677,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" s="8"/>
       <c r="B466" s="11"/>
       <c r="C466" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="8"/>
       <c r="B467" s="11"/>
       <c r="C467" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" s="8"/>
       <c r="B468" s="12"/>
       <c r="C468" s="1" t="s">
@@ -5747,7 +5705,7 @@
       </c>
       <c r="D468" s="4"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" s="8"/>
       <c r="B469" s="13" t="s">
         <v>4</v>
@@ -5759,17 +5717,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" s="8"/>
       <c r="B470" s="11"/>
       <c r="C470" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="8"/>
       <c r="B471" s="11"/>
       <c r="C471" s="1" t="s">
@@ -5779,7 +5737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="8"/>
       <c r="B472" s="12"/>
       <c r="C472" s="1" t="s">
@@ -5787,7 +5745,7 @@
       </c>
       <c r="D472" s="4"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" s="8"/>
       <c r="B473" s="13" t="s">
         <v>5</v>
@@ -5799,17 +5757,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" s="8"/>
       <c r="B474" s="11"/>
       <c r="C474" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" s="8"/>
       <c r="B475" s="11"/>
       <c r="C475" s="1" t="s">
@@ -5819,7 +5777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" s="8"/>
       <c r="B476" s="12"/>
       <c r="C476" s="1" t="s">
@@ -5827,7 +5785,7 @@
       </c>
       <c r="D476" s="4"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" s="8"/>
       <c r="B477" s="13" t="s">
         <v>6</v>
@@ -5839,7 +5797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" s="8"/>
       <c r="B478" s="11"/>
       <c r="C478" s="1" t="s">
@@ -5849,17 +5807,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" s="8"/>
       <c r="B479" s="11"/>
       <c r="C479" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A480" s="9"/>
       <c r="B480" s="14"/>
       <c r="C480" s="5" t="s">
@@ -5867,7 +5825,7 @@
       </c>
       <c r="D480" s="6"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="7">
         <v>31</v>
       </c>
@@ -5881,7 +5839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="8"/>
       <c r="B482" s="11"/>
       <c r="C482" s="1" t="s">
@@ -5891,17 +5849,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="8"/>
       <c r="B483" s="11"/>
       <c r="C483" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" s="8"/>
       <c r="B484" s="12"/>
       <c r="C484" s="1" t="s">
@@ -5909,7 +5867,7 @@
       </c>
       <c r="D484" s="4"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" s="8"/>
       <c r="B485" s="13" t="s">
         <v>4</v>
@@ -5921,7 +5879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" s="8"/>
       <c r="B486" s="11"/>
       <c r="C486" s="1" t="s">
@@ -5931,17 +5889,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" s="8"/>
       <c r="B487" s="11"/>
       <c r="C487" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" s="8"/>
       <c r="B488" s="12"/>
       <c r="C488" s="1" t="s">
@@ -5949,7 +5907,7 @@
       </c>
       <c r="D488" s="4"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" s="8"/>
       <c r="B489" s="13" t="s">
         <v>5</v>
@@ -5961,27 +5919,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" s="8"/>
       <c r="B490" s="11"/>
       <c r="C490" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D490" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" s="8"/>
       <c r="B491" s="11"/>
       <c r="C491" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" s="8"/>
       <c r="B492" s="12"/>
       <c r="C492" s="1" t="s">
@@ -5989,7 +5947,7 @@
       </c>
       <c r="D492" s="4"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" s="8"/>
       <c r="B493" s="13" t="s">
         <v>6</v>
@@ -6001,7 +5959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" s="8"/>
       <c r="B494" s="11"/>
       <c r="C494" s="1" t="s">
@@ -6011,7 +5969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" s="8"/>
       <c r="B495" s="11"/>
       <c r="C495" s="1" t="s">
@@ -6021,7 +5979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A496" s="9"/>
       <c r="B496" s="14"/>
       <c r="C496" s="5" t="s">
@@ -6029,7 +5987,7 @@
       </c>
       <c r="D496" s="6"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" s="7">
         <v>32</v>
       </c>
@@ -6043,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" s="8"/>
       <c r="B498" s="11"/>
       <c r="C498" s="1" t="s">
@@ -6053,17 +6011,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" s="8"/>
       <c r="B499" s="11"/>
       <c r="C499" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="8"/>
       <c r="B500" s="12"/>
       <c r="C500" s="1" t="s">
@@ -6071,7 +6029,7 @@
       </c>
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A501" s="8"/>
       <c r="B501" s="13" t="s">
         <v>4</v>
@@ -6083,7 +6041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A502" s="8"/>
       <c r="B502" s="11"/>
       <c r="C502" s="1" t="s">
@@ -6093,7 +6051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="8"/>
       <c r="B503" s="11"/>
       <c r="C503" s="1" t="s">
@@ -6103,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="8"/>
       <c r="B504" s="12"/>
       <c r="C504" s="1" t="s">
@@ -6111,7 +6069,7 @@
       </c>
       <c r="D504" s="4"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A505" s="8"/>
       <c r="B505" s="13" t="s">
         <v>5</v>
@@ -6119,21 +6077,21 @@
       <c r="C505" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D505" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D505" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A506" s="8"/>
       <c r="B506" s="11"/>
       <c r="C506" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A507" s="8"/>
       <c r="B507" s="11"/>
       <c r="C507" s="1" t="s">
@@ -6143,7 +6101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A508" s="8"/>
       <c r="B508" s="12"/>
       <c r="C508" s="1" t="s">
@@ -6151,7 +6109,7 @@
       </c>
       <c r="D508" s="4"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A509" s="8"/>
       <c r="B509" s="13" t="s">
         <v>6</v>
@@ -6163,17 +6121,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A510" s="8"/>
       <c r="B510" s="11"/>
       <c r="C510" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A511" s="8"/>
       <c r="B511" s="11"/>
       <c r="C511" s="1" t="s">
@@ -6183,7 +6141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A512" s="9"/>
       <c r="B512" s="14"/>
       <c r="C512" s="5" t="s">
@@ -6191,7 +6149,7 @@
       </c>
       <c r="D512" s="6"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A513" s="7">
         <v>33</v>
       </c>
@@ -6205,17 +6163,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A514" s="8"/>
       <c r="B514" s="11"/>
       <c r="C514" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A515" s="8"/>
       <c r="B515" s="11"/>
       <c r="C515" s="1" t="s">
@@ -6225,7 +6183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A516" s="8"/>
       <c r="B516" s="12"/>
       <c r="C516" s="1" t="s">
@@ -6233,7 +6191,7 @@
       </c>
       <c r="D516" s="4"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A517" s="8"/>
       <c r="B517" s="13" t="s">
         <v>4</v>
@@ -6245,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A518" s="8"/>
       <c r="B518" s="11"/>
       <c r="C518" s="1" t="s">
@@ -6255,7 +6213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A519" s="8"/>
       <c r="B519" s="11"/>
       <c r="C519" s="1" t="s">
@@ -6265,7 +6223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A520" s="8"/>
       <c r="B520" s="12"/>
       <c r="C520" s="1" t="s">
@@ -6275,7 +6233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A521" s="8"/>
       <c r="B521" s="13" t="s">
         <v>5</v>
@@ -6284,10 +6242,10 @@
         <v>0</v>
       </c>
       <c r="D521" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A522" s="8"/>
       <c r="B522" s="11"/>
       <c r="C522" s="1" t="s">
@@ -6297,7 +6255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A523" s="8"/>
       <c r="B523" s="11"/>
       <c r="C523" s="1" t="s">
@@ -6307,17 +6265,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A524" s="8"/>
       <c r="B524" s="12"/>
       <c r="C524" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D524" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D524" s="4"/>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A525" s="8"/>
       <c r="B525" s="13" t="s">
         <v>6</v>
@@ -6329,17 +6285,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A526" s="8"/>
       <c r="B526" s="11"/>
       <c r="C526" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A527" s="8"/>
       <c r="B527" s="11"/>
       <c r="C527" s="1" t="s">
@@ -6349,7 +6305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A528" s="9"/>
       <c r="B528" s="14"/>
       <c r="C528" s="5" t="s">
@@ -6359,7 +6315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A529" s="7">
         <v>34</v>
       </c>
@@ -6373,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A530" s="8"/>
       <c r="B530" s="11"/>
       <c r="C530" s="1" t="s">
@@ -6383,7 +6339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A531" s="8"/>
       <c r="B531" s="11"/>
       <c r="C531" s="1" t="s">
@@ -6393,7 +6349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A532" s="8"/>
       <c r="B532" s="12"/>
       <c r="C532" s="1" t="s">
@@ -6401,7 +6357,7 @@
       </c>
       <c r="D532" s="4"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A533" s="8"/>
       <c r="B533" s="13" t="s">
         <v>4</v>
@@ -6413,7 +6369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" s="8"/>
       <c r="B534" s="11"/>
       <c r="C534" s="1" t="s">
@@ -6423,7 +6379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A535" s="8"/>
       <c r="B535" s="11"/>
       <c r="C535" s="1" t="s">
@@ -6433,7 +6389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A536" s="8"/>
       <c r="B536" s="12"/>
       <c r="C536" s="1" t="s">
@@ -6443,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A537" s="8"/>
       <c r="B537" s="13" t="s">
         <v>5</v>
@@ -6455,17 +6411,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A538" s="8"/>
       <c r="B538" s="11"/>
       <c r="C538" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A539" s="8"/>
       <c r="B539" s="11"/>
       <c r="C539" s="1" t="s">
@@ -6475,7 +6431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A540" s="8"/>
       <c r="B540" s="12"/>
       <c r="C540" s="1" t="s">
@@ -6483,7 +6439,7 @@
       </c>
       <c r="D540" s="4"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A541" s="8"/>
       <c r="B541" s="13" t="s">
         <v>6</v>
@@ -6495,7 +6451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A542" s="8"/>
       <c r="B542" s="11"/>
       <c r="C542" s="1" t="s">
@@ -6505,7 +6461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A543" s="8"/>
       <c r="B543" s="11"/>
       <c r="C543" s="1" t="s">
@@ -6515,7 +6471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="544" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="9"/>
       <c r="B544" s="14"/>
       <c r="C544" s="5" t="s">
@@ -6523,7 +6479,7 @@
       </c>
       <c r="D544" s="6"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A545" s="7">
         <v>35</v>
       </c>
@@ -6537,7 +6493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A546" s="8"/>
       <c r="B546" s="11"/>
       <c r="C546" s="1" t="s">
@@ -6547,17 +6503,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A547" s="8"/>
       <c r="B547" s="11"/>
       <c r="C547" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A548" s="8"/>
       <c r="B548" s="12"/>
       <c r="C548" s="1" t="s">
@@ -6565,7 +6521,7 @@
       </c>
       <c r="D548" s="4"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A549" s="8"/>
       <c r="B549" s="13" t="s">
         <v>4</v>
@@ -6577,7 +6533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A550" s="8"/>
       <c r="B550" s="11"/>
       <c r="C550" s="1" t="s">
@@ -6587,17 +6543,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A551" s="8"/>
       <c r="B551" s="11"/>
       <c r="C551" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A552" s="8"/>
       <c r="B552" s="12"/>
       <c r="C552" s="1" t="s">
@@ -6605,7 +6561,7 @@
       </c>
       <c r="D552" s="4"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A553" s="8"/>
       <c r="B553" s="13" t="s">
         <v>5</v>
@@ -6617,7 +6573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A554" s="8"/>
       <c r="B554" s="11"/>
       <c r="C554" s="1" t="s">
@@ -6627,27 +6583,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A555" s="8"/>
       <c r="B555" s="11"/>
       <c r="C555" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D555" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D555" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A556" s="8"/>
       <c r="B556" s="12"/>
       <c r="C556" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D556" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D556" s="4"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A557" s="8"/>
       <c r="B557" s="13" t="s">
         <v>6</v>
@@ -6656,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A558" s="8"/>
       <c r="B558" s="11"/>
       <c r="C558" s="1" t="s">
@@ -6669,17 +6623,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A559" s="8"/>
       <c r="B559" s="11"/>
       <c r="C559" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="9"/>
       <c r="B560" s="14"/>
       <c r="C560" s="5" t="s">
@@ -6687,7 +6641,7 @@
       </c>
       <c r="D560" s="6"/>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A561" s="7">
         <v>36</v>
       </c>
@@ -6701,7 +6655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A562" s="8"/>
       <c r="B562" s="11"/>
       <c r="C562" s="1" t="s">
@@ -6711,7 +6665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A563" s="8"/>
       <c r="B563" s="11"/>
       <c r="C563" s="1" t="s">
@@ -6721,7 +6675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A564" s="8"/>
       <c r="B564" s="12"/>
       <c r="C564" s="1" t="s">
@@ -6731,7 +6685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="8"/>
       <c r="B565" s="13" t="s">
         <v>4</v>
@@ -6743,27 +6697,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="8"/>
       <c r="B566" s="11"/>
       <c r="C566" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A567" s="8"/>
       <c r="B567" s="11"/>
       <c r="C567" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A568" s="8"/>
       <c r="B568" s="12"/>
       <c r="C568" s="1" t="s">
@@ -6773,7 +6727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A569" s="8"/>
       <c r="B569" s="13" t="s">
         <v>5</v>
@@ -6782,30 +6736,30 @@
         <v>0</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A570" s="8"/>
       <c r="B570" s="11"/>
       <c r="C570" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D570" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D570" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A571" s="8"/>
       <c r="B571" s="11"/>
       <c r="C571" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A572" s="8"/>
       <c r="B572" s="12"/>
       <c r="C572" s="1" t="s">
@@ -6813,7 +6767,7 @@
       </c>
       <c r="D572" s="4"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A573" s="8"/>
       <c r="B573" s="13" t="s">
         <v>6</v>
@@ -6825,7 +6779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A574" s="8"/>
       <c r="B574" s="11"/>
       <c r="C574" s="1" t="s">
@@ -6835,17 +6789,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A575" s="8"/>
       <c r="B575" s="11"/>
       <c r="C575" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="576" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="9"/>
       <c r="B576" s="14"/>
       <c r="C576" s="5" t="s">
@@ -6853,7 +6807,7 @@
       </c>
       <c r="D576" s="6"/>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A577" s="7">
         <v>37</v>
       </c>
@@ -6867,7 +6821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A578" s="8"/>
       <c r="B578" s="11"/>
       <c r="C578" s="1" t="s">
@@ -6877,7 +6831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A579" s="8"/>
       <c r="B579" s="11"/>
       <c r="C579" s="1" t="s">
@@ -6887,7 +6841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A580" s="8"/>
       <c r="B580" s="12"/>
       <c r="C580" s="1" t="s">
@@ -6897,7 +6851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="8"/>
       <c r="B581" s="13" t="s">
         <v>4</v>
@@ -6909,7 +6863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="8"/>
       <c r="B582" s="11"/>
       <c r="C582" s="1" t="s">
@@ -6919,17 +6873,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="8"/>
       <c r="B583" s="11"/>
       <c r="C583" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A584" s="8"/>
       <c r="B584" s="12"/>
       <c r="C584" s="1" t="s">
@@ -6939,7 +6893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="8"/>
       <c r="B585" s="13" t="s">
         <v>5</v>
@@ -6951,7 +6905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="8"/>
       <c r="B586" s="11"/>
       <c r="C586" s="1" t="s">
@@ -6961,27 +6915,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" s="8"/>
       <c r="B587" s="11"/>
       <c r="C587" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A588" s="8"/>
       <c r="B588" s="12"/>
       <c r="C588" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D588" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D588" s="4"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="8"/>
       <c r="B589" s="13" t="s">
         <v>6</v>
@@ -6993,27 +6945,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A590" s="8"/>
       <c r="B590" s="11"/>
       <c r="C590" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="8"/>
       <c r="B591" s="11"/>
       <c r="C591" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="9"/>
       <c r="B592" s="14"/>
       <c r="C592" s="5" t="s">
@@ -7021,7 +6973,7 @@
       </c>
       <c r="D592" s="6"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A593" s="7">
         <v>38</v>
       </c>
@@ -7035,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A594" s="8"/>
       <c r="B594" s="11"/>
       <c r="C594" s="1" t="s">
@@ -7045,7 +6997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="8"/>
       <c r="B595" s="11"/>
       <c r="C595" s="1" t="s">
@@ -7055,7 +7007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A596" s="8"/>
       <c r="B596" s="12"/>
       <c r="C596" s="1" t="s">
@@ -7063,7 +7015,7 @@
       </c>
       <c r="D596" s="4"/>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A597" s="8"/>
       <c r="B597" s="13" t="s">
         <v>4</v>
@@ -7075,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A598" s="8"/>
       <c r="B598" s="11"/>
       <c r="C598" s="1" t="s">
@@ -7085,7 +7037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A599" s="8"/>
       <c r="B599" s="11"/>
       <c r="C599" s="1" t="s">
@@ -7095,7 +7047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A600" s="8"/>
       <c r="B600" s="12"/>
       <c r="C600" s="1" t="s">
@@ -7105,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A601" s="8"/>
       <c r="B601" s="13" t="s">
         <v>5</v>
@@ -7117,27 +7069,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A602" s="8"/>
       <c r="B602" s="11"/>
       <c r="C602" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A603" s="8"/>
       <c r="B603" s="11"/>
       <c r="C603" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D603" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A604" s="8"/>
       <c r="B604" s="12"/>
       <c r="C604" s="1" t="s">
@@ -7145,7 +7097,7 @@
       </c>
       <c r="D604" s="4"/>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" s="8"/>
       <c r="B605" s="13" t="s">
         <v>6</v>
@@ -7157,7 +7109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A606" s="8"/>
       <c r="B606" s="11"/>
       <c r="C606" s="1" t="s">
@@ -7167,7 +7119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A607" s="8"/>
       <c r="B607" s="11"/>
       <c r="C607" s="1" t="s">
@@ -7177,7 +7129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="608" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="9"/>
       <c r="B608" s="14"/>
       <c r="C608" s="5" t="s">
@@ -7185,7 +7137,7 @@
       </c>
       <c r="D608" s="6"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="7">
         <v>39</v>
       </c>
@@ -7196,10 +7148,10 @@
         <v>0</v>
       </c>
       <c r="D609" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="8"/>
       <c r="B610" s="11"/>
       <c r="C610" s="1" t="s">
@@ -7209,17 +7161,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A611" s="8"/>
       <c r="B611" s="11"/>
       <c r="C611" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A612" s="8"/>
       <c r="B612" s="12"/>
       <c r="C612" s="1" t="s">
@@ -7227,7 +7179,7 @@
       </c>
       <c r="D612" s="4"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A613" s="8"/>
       <c r="B613" s="13" t="s">
         <v>4</v>
@@ -7239,7 +7191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A614" s="8"/>
       <c r="B614" s="11"/>
       <c r="C614" s="1" t="s">
@@ -7249,17 +7201,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A615" s="8"/>
       <c r="B615" s="11"/>
       <c r="C615" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A616" s="8"/>
       <c r="B616" s="12"/>
       <c r="C616" s="1" t="s">
@@ -7267,7 +7219,7 @@
       </c>
       <c r="D616" s="4"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A617" s="8"/>
       <c r="B617" s="13" t="s">
         <v>5</v>
@@ -7276,30 +7228,30 @@
         <v>0</v>
       </c>
       <c r="D617" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A618" s="8"/>
       <c r="B618" s="11"/>
       <c r="C618" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D618" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="8"/>
       <c r="B619" s="11"/>
       <c r="C619" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="8"/>
       <c r="B620" s="12"/>
       <c r="C620" s="1" t="s">
@@ -7307,7 +7259,7 @@
       </c>
       <c r="D620" s="4"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A621" s="8"/>
       <c r="B621" s="13" t="s">
         <v>6</v>
@@ -7319,7 +7271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A622" s="8"/>
       <c r="B622" s="11"/>
       <c r="C622" s="1" t="s">
@@ -7329,17 +7281,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A623" s="8"/>
       <c r="B623" s="11"/>
       <c r="C623" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="624" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="9"/>
       <c r="B624" s="14"/>
       <c r="C624" s="5" t="s">
@@ -7347,7 +7299,7 @@
       </c>
       <c r="D624" s="6"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A625" s="7">
         <v>40</v>
       </c>
@@ -7361,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A626" s="8"/>
       <c r="B626" s="11"/>
       <c r="C626" s="1" t="s">
@@ -7371,17 +7323,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A627" s="8"/>
       <c r="B627" s="11"/>
       <c r="C627" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="8"/>
       <c r="B628" s="12"/>
       <c r="C628" s="1" t="s">
@@ -7391,7 +7343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A629" s="8"/>
       <c r="B629" s="13" t="s">
         <v>4</v>
@@ -7403,17 +7355,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="8"/>
       <c r="B630" s="11"/>
       <c r="C630" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A631" s="8"/>
       <c r="B631" s="11"/>
       <c r="C631" s="1" t="s">
@@ -7423,7 +7375,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A632" s="8"/>
       <c r="B632" s="12"/>
       <c r="C632" s="1" t="s">
@@ -7431,7 +7383,7 @@
       </c>
       <c r="D632" s="4"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A633" s="8"/>
       <c r="B633" s="13" t="s">
         <v>5</v>
@@ -7439,31 +7391,31 @@
       <c r="C633" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D633" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D633" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A634" s="8"/>
       <c r="B634" s="11"/>
       <c r="C634" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A635" s="8"/>
       <c r="B635" s="11"/>
       <c r="C635" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D635" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D635" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A636" s="8"/>
       <c r="B636" s="12"/>
       <c r="C636" s="1" t="s">
@@ -7471,7 +7423,7 @@
       </c>
       <c r="D636" s="4"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A637" s="8"/>
       <c r="B637" s="13" t="s">
         <v>6</v>
@@ -7483,27 +7435,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A638" s="8"/>
       <c r="B638" s="11"/>
       <c r="C638" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" s="8"/>
       <c r="B639" s="11"/>
       <c r="C639" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="9"/>
       <c r="B640" s="14"/>
       <c r="C640" s="5" t="s">
@@ -7511,7 +7463,7 @@
       </c>
       <c r="D640" s="6"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A641" s="7">
         <v>41</v>
       </c>
@@ -7525,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A642" s="8"/>
       <c r="B642" s="11"/>
       <c r="C642" s="1" t="s">
@@ -7535,17 +7487,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A643" s="8"/>
       <c r="B643" s="11"/>
       <c r="C643" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A644" s="8"/>
       <c r="B644" s="12"/>
       <c r="C644" s="1" t="s">
@@ -7553,7 +7505,7 @@
       </c>
       <c r="D644" s="4"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A645" s="8"/>
       <c r="B645" s="13" t="s">
         <v>4</v>
@@ -7565,7 +7517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A646" s="8"/>
       <c r="B646" s="11"/>
       <c r="C646" s="1" t="s">
@@ -7575,17 +7527,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A647" s="8"/>
       <c r="B647" s="11"/>
       <c r="C647" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A648" s="8"/>
       <c r="B648" s="12"/>
       <c r="C648" s="1" t="s">
@@ -7595,7 +7547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A649" s="8"/>
       <c r="B649" s="13" t="s">
         <v>5</v>
@@ -7607,17 +7559,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A650" s="8"/>
       <c r="B650" s="11"/>
       <c r="C650" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D650" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A651" s="8"/>
       <c r="B651" s="11"/>
       <c r="C651" s="1" t="s">
@@ -7627,17 +7579,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A652" s="8"/>
       <c r="B652" s="12"/>
       <c r="C652" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D652" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D652" s="4"/>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A653" s="8"/>
       <c r="B653" s="13" t="s">
         <v>6</v>
@@ -7649,27 +7599,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A654" s="8"/>
       <c r="B654" s="11"/>
       <c r="C654" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D654" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A655" s="8"/>
       <c r="B655" s="11"/>
       <c r="C655" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D655" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="9"/>
       <c r="B656" s="14"/>
       <c r="C656" s="5" t="s">
@@ -7679,7 +7629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A657" s="7">
         <v>42</v>
       </c>
@@ -7693,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A658" s="8"/>
       <c r="B658" s="11"/>
       <c r="C658" s="1" t="s">
@@ -7703,7 +7653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A659" s="8"/>
       <c r="B659" s="11"/>
       <c r="C659" s="1" t="s">
@@ -7713,7 +7663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A660" s="8"/>
       <c r="B660" s="12"/>
       <c r="C660" s="1" t="s">
@@ -7723,7 +7673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A661" s="8"/>
       <c r="B661" s="13" t="s">
         <v>4</v>
@@ -7732,10 +7682,10 @@
         <v>0</v>
       </c>
       <c r="D661" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A662" s="8"/>
       <c r="B662" s="11"/>
       <c r="C662" s="1" t="s">
@@ -7745,7 +7695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A663" s="8"/>
       <c r="B663" s="11"/>
       <c r="C663" s="1" t="s">
@@ -7755,7 +7705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A664" s="8"/>
       <c r="B664" s="12"/>
       <c r="C664" s="1" t="s">
@@ -7763,7 +7713,7 @@
       </c>
       <c r="D664" s="4"/>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A665" s="8"/>
       <c r="B665" s="13" t="s">
         <v>5</v>
@@ -7775,27 +7725,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A666" s="8"/>
       <c r="B666" s="11"/>
       <c r="C666" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D666" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D666" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A667" s="8"/>
       <c r="B667" s="11"/>
       <c r="C667" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D667" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D667" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A668" s="8"/>
       <c r="B668" s="12"/>
       <c r="C668" s="1" t="s">
@@ -7803,7 +7753,7 @@
       </c>
       <c r="D668" s="4"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A669" s="8"/>
       <c r="B669" s="13" t="s">
         <v>6</v>
@@ -7815,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A670" s="8"/>
       <c r="B670" s="11"/>
       <c r="C670" s="1" t="s">
@@ -7825,17 +7775,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A671" s="8"/>
       <c r="B671" s="11"/>
       <c r="C671" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D671" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="9"/>
       <c r="B672" s="14"/>
       <c r="C672" s="5" t="s">
@@ -7845,7 +7795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A673" s="7">
         <v>43</v>
       </c>
@@ -7859,7 +7809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A674" s="8"/>
       <c r="B674" s="11"/>
       <c r="C674" s="1" t="s">
@@ -7869,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A675" s="8"/>
       <c r="B675" s="11"/>
       <c r="C675" s="1" t="s">
@@ -7879,7 +7829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A676" s="8"/>
       <c r="B676" s="12"/>
       <c r="C676" s="1" t="s">
@@ -7887,7 +7837,7 @@
       </c>
       <c r="D676" s="4"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A677" s="8"/>
       <c r="B677" s="13" t="s">
         <v>4</v>
@@ -7896,10 +7846,10 @@
         <v>0</v>
       </c>
       <c r="D677" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A678" s="8"/>
       <c r="B678" s="11"/>
       <c r="C678" s="1" t="s">
@@ -7909,17 +7859,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A679" s="8"/>
       <c r="B679" s="11"/>
       <c r="C679" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D679" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A680" s="8"/>
       <c r="B680" s="12"/>
       <c r="C680" s="1" t="s">
@@ -7927,7 +7877,7 @@
       </c>
       <c r="D680" s="4"/>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A681" s="8"/>
       <c r="B681" s="13" t="s">
         <v>5</v>
@@ -7936,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="D681" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A682" s="8"/>
       <c r="B682" s="11"/>
       <c r="C682" s="1" t="s">
@@ -7949,17 +7899,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A683" s="8"/>
       <c r="B683" s="11"/>
       <c r="C683" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D683" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A684" s="8"/>
       <c r="B684" s="12"/>
       <c r="C684" s="1" t="s">
@@ -7967,7 +7917,7 @@
       </c>
       <c r="D684" s="4"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A685" s="8"/>
       <c r="B685" s="13" t="s">
         <v>6</v>
@@ -7976,20 +7926,20 @@
         <v>0</v>
       </c>
       <c r="D685" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A686" s="8"/>
       <c r="B686" s="11"/>
       <c r="C686" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D686" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A687" s="8"/>
       <c r="B687" s="11"/>
       <c r="C687" s="1" t="s">
@@ -7999,7 +7949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="688" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A688" s="9"/>
       <c r="B688" s="14"/>
       <c r="C688" s="5" t="s">
@@ -8007,7 +7957,7 @@
       </c>
       <c r="D688" s="6"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A689" s="7">
         <v>44</v>
       </c>
@@ -8021,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A690" s="8"/>
       <c r="B690" s="11"/>
       <c r="C690" s="1" t="s">
@@ -8031,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A691" s="8"/>
       <c r="B691" s="11"/>
       <c r="C691" s="1" t="s">
@@ -8041,7 +7991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A692" s="8"/>
       <c r="B692" s="12"/>
       <c r="C692" s="1" t="s">
@@ -8049,7 +7999,7 @@
       </c>
       <c r="D692" s="4"/>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A693" s="8"/>
       <c r="B693" s="13" t="s">
         <v>4</v>
@@ -8061,7 +8011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A694" s="8"/>
       <c r="B694" s="11"/>
       <c r="C694" s="1" t="s">
@@ -8071,7 +8021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A695" s="8"/>
       <c r="B695" s="11"/>
       <c r="C695" s="1" t="s">
@@ -8081,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A696" s="8"/>
       <c r="B696" s="12"/>
       <c r="C696" s="1" t="s">
@@ -8089,7 +8039,7 @@
       </c>
       <c r="D696" s="4"/>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A697" s="8"/>
       <c r="B697" s="13" t="s">
         <v>5</v>
@@ -8101,27 +8051,27 @@
         <v>27</v>
       </c>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A698" s="8"/>
       <c r="B698" s="11"/>
       <c r="C698" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D698" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A699" s="8"/>
       <c r="B699" s="11"/>
       <c r="C699" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D699" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D699" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A700" s="8"/>
       <c r="B700" s="12"/>
       <c r="C700" s="1" t="s">
@@ -8129,7 +8079,7 @@
       </c>
       <c r="D700" s="4"/>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A701" s="8"/>
       <c r="B701" s="13" t="s">
         <v>6</v>
@@ -8141,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A702" s="8"/>
       <c r="B702" s="11"/>
       <c r="C702" s="1" t="s">
@@ -8151,7 +8101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A703" s="8"/>
       <c r="B703" s="11"/>
       <c r="C703" s="1" t="s">
@@ -8161,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="704" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A704" s="9"/>
       <c r="B704" s="14"/>
       <c r="C704" s="5" t="s">
@@ -8169,7 +8119,7 @@
       </c>
       <c r="D704" s="6"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A705" s="7">
         <v>45</v>
       </c>
@@ -8183,7 +8133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A706" s="8"/>
       <c r="B706" s="11"/>
       <c r="C706" s="1" t="s">
@@ -8193,7 +8143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A707" s="8"/>
       <c r="B707" s="11"/>
       <c r="C707" s="1" t="s">
@@ -8203,7 +8153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A708" s="8"/>
       <c r="B708" s="12"/>
       <c r="C708" s="1" t="s">
@@ -8211,7 +8161,7 @@
       </c>
       <c r="D708" s="4"/>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A709" s="8"/>
       <c r="B709" s="13" t="s">
         <v>4</v>
@@ -8223,7 +8173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A710" s="8"/>
       <c r="B710" s="11"/>
       <c r="C710" s="1" t="s">
@@ -8233,17 +8183,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A711" s="8"/>
       <c r="B711" s="11"/>
       <c r="C711" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D711" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A712" s="8"/>
       <c r="B712" s="12"/>
       <c r="C712" s="1" t="s">
@@ -8253,7 +8203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A713" s="8"/>
       <c r="B713" s="13" t="s">
         <v>5</v>
@@ -8261,21 +8211,21 @@
       <c r="C713" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D713" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D713" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A714" s="8"/>
       <c r="B714" s="11"/>
       <c r="C714" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D714" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A715" s="8"/>
       <c r="B715" s="11"/>
       <c r="C715" s="1" t="s">
@@ -8285,17 +8235,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A716" s="8"/>
       <c r="B716" s="12"/>
       <c r="C716" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D716" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D716" s="4"/>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A717" s="8"/>
       <c r="B717" s="13" t="s">
         <v>6</v>
@@ -8307,17 +8255,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A718" s="8"/>
       <c r="B718" s="11"/>
       <c r="C718" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D718" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A719" s="8"/>
       <c r="B719" s="11"/>
       <c r="C719" s="1" t="s">
@@ -8327,7 +8275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="720" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A720" s="9"/>
       <c r="B720" s="14"/>
       <c r="C720" s="5" t="s">
@@ -8335,7 +8283,7 @@
       </c>
       <c r="D720" s="6"/>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A721" s="7">
         <v>46</v>
       </c>
@@ -8349,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A722" s="8"/>
       <c r="B722" s="11"/>
       <c r="C722" s="1" t="s">
@@ -8359,17 +8307,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A723" s="8"/>
       <c r="B723" s="11"/>
       <c r="C723" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D723" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A724" s="8"/>
       <c r="B724" s="12"/>
       <c r="C724" s="1" t="s">
@@ -8377,7 +8325,7 @@
       </c>
       <c r="D724" s="4"/>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A725" s="8"/>
       <c r="B725" s="13" t="s">
         <v>4</v>
@@ -8389,17 +8337,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A726" s="8"/>
       <c r="B726" s="11"/>
       <c r="C726" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D726" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A727" s="8"/>
       <c r="B727" s="11"/>
       <c r="C727" s="1" t="s">
@@ -8409,7 +8357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A728" s="8"/>
       <c r="B728" s="12"/>
       <c r="C728" s="1" t="s">
@@ -8419,7 +8367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A729" s="8"/>
       <c r="B729" s="13" t="s">
         <v>5</v>
@@ -8431,35 +8379,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A730" s="8"/>
       <c r="B730" s="11"/>
       <c r="C730" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D730" s="4"/>
-    </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D730" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A731" s="8"/>
       <c r="B731" s="11"/>
       <c r="C731" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D731" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D731" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A732" s="8"/>
       <c r="B732" s="12"/>
       <c r="C732" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D732" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D732" s="4"/>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A733" s="8"/>
       <c r="B733" s="13" t="s">
         <v>6</v>
@@ -8471,7 +8419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A734" s="8"/>
       <c r="B734" s="11"/>
       <c r="C734" s="1" t="s">
@@ -8481,17 +8429,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A735" s="8"/>
       <c r="B735" s="11"/>
       <c r="C735" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D735" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="736" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A736" s="9"/>
       <c r="B736" s="14"/>
       <c r="C736" s="5" t="s">
@@ -8499,7 +8447,7 @@
       </c>
       <c r="D736" s="6"/>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A737" s="7">
         <v>47</v>
       </c>
@@ -8510,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="D737" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A738" s="8"/>
       <c r="B738" s="11"/>
       <c r="C738" s="1" t="s">
@@ -8523,7 +8471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A739" s="8"/>
       <c r="B739" s="11"/>
       <c r="C739" s="1" t="s">
@@ -8533,7 +8481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A740" s="8"/>
       <c r="B740" s="12"/>
       <c r="C740" s="1" t="s">
@@ -8541,7 +8489,7 @@
       </c>
       <c r="D740" s="4"/>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A741" s="8"/>
       <c r="B741" s="13" t="s">
         <v>4</v>
@@ -8550,10 +8498,10 @@
         <v>0</v>
       </c>
       <c r="D741" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A742" s="8"/>
       <c r="B742" s="11"/>
       <c r="C742" s="1" t="s">
@@ -8563,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A743" s="8"/>
       <c r="B743" s="11"/>
       <c r="C743" s="1" t="s">
@@ -8573,7 +8521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A744" s="8"/>
       <c r="B744" s="12"/>
       <c r="C744" s="1" t="s">
@@ -8583,7 +8531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A745" s="8"/>
       <c r="B745" s="13" t="s">
         <v>5</v>
@@ -8595,27 +8543,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A746" s="8"/>
       <c r="B746" s="11"/>
       <c r="C746" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D746" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D746" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A747" s="8"/>
       <c r="B747" s="11"/>
       <c r="C747" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D747" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A748" s="8"/>
       <c r="B748" s="12"/>
       <c r="C748" s="1" t="s">
@@ -8623,7 +8571,7 @@
       </c>
       <c r="D748" s="4"/>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A749" s="8"/>
       <c r="B749" s="13" t="s">
         <v>6</v>
@@ -8635,7 +8583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A750" s="8"/>
       <c r="B750" s="11"/>
       <c r="C750" s="1" t="s">
@@ -8645,7 +8593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A751" s="8"/>
       <c r="B751" s="11"/>
       <c r="C751" s="1" t="s">
@@ -8655,7 +8603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="752" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A752" s="9"/>
       <c r="B752" s="14"/>
       <c r="C752" s="5" t="s">
@@ -8663,7 +8611,7 @@
       </c>
       <c r="D752" s="6"/>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A753" s="7">
         <v>48</v>
       </c>
@@ -8677,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A754" s="8"/>
       <c r="B754" s="11"/>
       <c r="C754" s="1" t="s">
@@ -8687,17 +8635,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A755" s="8"/>
       <c r="B755" s="11"/>
       <c r="C755" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D755" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A756" s="8"/>
       <c r="B756" s="12"/>
       <c r="C756" s="1" t="s">
@@ -8705,7 +8653,7 @@
       </c>
       <c r="D756" s="4"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A757" s="8"/>
       <c r="B757" s="13" t="s">
         <v>4</v>
@@ -8714,10 +8662,10 @@
         <v>0</v>
       </c>
       <c r="D757" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A758" s="8"/>
       <c r="B758" s="11"/>
       <c r="C758" s="1" t="s">
@@ -8727,17 +8675,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A759" s="8"/>
       <c r="B759" s="11"/>
       <c r="C759" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D759" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A760" s="8"/>
       <c r="B760" s="12"/>
       <c r="C760" s="1" t="s">
@@ -8747,7 +8695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A761" s="8"/>
       <c r="B761" s="13" t="s">
         <v>5</v>
@@ -8759,37 +8707,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A762" s="8"/>
       <c r="B762" s="11"/>
       <c r="C762" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D762" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D762" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A763" s="8"/>
       <c r="B763" s="11"/>
       <c r="C763" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D763" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A764" s="8"/>
       <c r="B764" s="12"/>
       <c r="C764" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D764" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D764" s="4"/>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A765" s="8"/>
       <c r="B765" s="13" t="s">
         <v>6</v>
@@ -8801,7 +8747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A766" s="8"/>
       <c r="B766" s="11"/>
       <c r="C766" s="1" t="s">
@@ -8811,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A767" s="8"/>
       <c r="B767" s="11"/>
       <c r="C767" s="1" t="s">
@@ -8821,7 +8767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="768" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A768" s="9"/>
       <c r="B768" s="14"/>
       <c r="C768" s="5" t="s">
@@ -8829,7 +8775,7 @@
       </c>
       <c r="D768" s="6"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A769" s="7">
         <v>49</v>
       </c>
@@ -8843,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A770" s="8"/>
       <c r="B770" s="11"/>
       <c r="C770" s="1" t="s">
@@ -8853,17 +8799,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A771" s="8"/>
       <c r="B771" s="11"/>
       <c r="C771" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D771" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A772" s="8"/>
       <c r="B772" s="12"/>
       <c r="C772" s="1" t="s">
@@ -8871,7 +8817,7 @@
       </c>
       <c r="D772" s="4"/>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A773" s="8"/>
       <c r="B773" s="13" t="s">
         <v>4</v>
@@ -8883,7 +8829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A774" s="8"/>
       <c r="B774" s="11"/>
       <c r="C774" s="1" t="s">
@@ -8893,7 +8839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A775" s="8"/>
       <c r="B775" s="11"/>
       <c r="C775" s="1" t="s">
@@ -8903,7 +8849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A776" s="8"/>
       <c r="B776" s="12"/>
       <c r="C776" s="1" t="s">
@@ -8913,7 +8859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A777" s="8"/>
       <c r="B777" s="13" t="s">
         <v>5</v>
@@ -8925,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A778" s="8"/>
       <c r="B778" s="11"/>
       <c r="C778" s="1" t="s">
@@ -8935,25 +8881,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A779" s="8"/>
       <c r="B779" s="11"/>
       <c r="C779" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D779" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A780" s="8"/>
       <c r="B780" s="12"/>
       <c r="C780" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D780" s="4"/>
-    </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D780" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A781" s="8"/>
       <c r="B781" s="13" t="s">
         <v>6</v>
@@ -8965,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A782" s="8"/>
       <c r="B782" s="11"/>
       <c r="C782" s="1" t="s">
@@ -8975,7 +8923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A783" s="8"/>
       <c r="B783" s="11"/>
       <c r="C783" s="1" t="s">
@@ -8985,7 +8933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="784" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A784" s="9"/>
       <c r="B784" s="14"/>
       <c r="C784" s="5" t="s">
@@ -8993,7 +8941,7 @@
       </c>
       <c r="D784" s="6"/>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A785" s="7">
         <v>50</v>
       </c>
@@ -9007,7 +8955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A786" s="8"/>
       <c r="B786" s="11"/>
       <c r="C786" s="1" t="s">
@@ -9017,7 +8965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A787" s="8"/>
       <c r="B787" s="11"/>
       <c r="C787" s="1" t="s">
@@ -9027,7 +8975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A788" s="8"/>
       <c r="B788" s="12"/>
       <c r="C788" s="1" t="s">
@@ -9035,7 +8983,7 @@
       </c>
       <c r="D788" s="4"/>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A789" s="8"/>
       <c r="B789" s="13" t="s">
         <v>4</v>
@@ -9047,17 +8995,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A790" s="8"/>
       <c r="B790" s="11"/>
       <c r="C790" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D790" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A791" s="8"/>
       <c r="B791" s="11"/>
       <c r="C791" s="1" t="s">
@@ -9067,7 +9015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A792" s="8"/>
       <c r="B792" s="12"/>
       <c r="C792" s="1" t="s">
@@ -9077,7 +9025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A793" s="8"/>
       <c r="B793" s="13" t="s">
         <v>5</v>
@@ -9085,11 +9033,11 @@
       <c r="C793" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D793" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D793" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A794" s="8"/>
       <c r="B794" s="11"/>
       <c r="C794" s="1" t="s">
@@ -9099,7 +9047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A795" s="8"/>
       <c r="B795" s="11"/>
       <c r="C795" s="1" t="s">
@@ -9109,7 +9057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A796" s="8"/>
       <c r="B796" s="12"/>
       <c r="C796" s="1" t="s">
@@ -9117,7 +9065,7 @@
       </c>
       <c r="D796" s="4"/>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A797" s="8"/>
       <c r="B797" s="13" t="s">
         <v>6</v>
@@ -9129,27 +9077,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A798" s="8"/>
       <c r="B798" s="11"/>
       <c r="C798" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D798" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A799" s="8"/>
       <c r="B799" s="11"/>
       <c r="C799" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D799" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="800" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A800" s="9"/>
       <c r="B800" s="14"/>
       <c r="C800" s="5" t="s">
@@ -9159,6 +9107,246 @@
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A353:A368"/>
+    <mergeCell ref="B353:B356"/>
+    <mergeCell ref="B357:B360"/>
+    <mergeCell ref="B361:B364"/>
+    <mergeCell ref="B365:B368"/>
+    <mergeCell ref="A369:A384"/>
+    <mergeCell ref="B369:B372"/>
+    <mergeCell ref="B373:B376"/>
+    <mergeCell ref="B377:B380"/>
+    <mergeCell ref="B381:B384"/>
+    <mergeCell ref="A321:A336"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="A337:A352"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="B349:B352"/>
+    <mergeCell ref="A289:A304"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="B293:B296"/>
+    <mergeCell ref="B297:B300"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="A305:A320"/>
+    <mergeCell ref="B305:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="A257:A272"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="B261:B264"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="B269:B272"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="A225:A240"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A193:A208"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A209:A224"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A177:A192"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A129:A144"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="A97:A112"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A81:A96"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A385:A400"/>
+    <mergeCell ref="B385:B388"/>
+    <mergeCell ref="B389:B392"/>
+    <mergeCell ref="B393:B396"/>
+    <mergeCell ref="B397:B400"/>
+    <mergeCell ref="A401:A416"/>
+    <mergeCell ref="B401:B404"/>
+    <mergeCell ref="B405:B408"/>
+    <mergeCell ref="B409:B412"/>
+    <mergeCell ref="B413:B416"/>
+    <mergeCell ref="A417:A432"/>
+    <mergeCell ref="B417:B420"/>
+    <mergeCell ref="B421:B424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="A433:A448"/>
+    <mergeCell ref="B433:B436"/>
+    <mergeCell ref="B437:B440"/>
+    <mergeCell ref="B441:B444"/>
+    <mergeCell ref="B445:B448"/>
+    <mergeCell ref="A449:A464"/>
+    <mergeCell ref="B449:B452"/>
+    <mergeCell ref="B453:B456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="A465:A480"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="B473:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="A481:A496"/>
+    <mergeCell ref="B481:B484"/>
+    <mergeCell ref="B485:B488"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="B493:B496"/>
+    <mergeCell ref="A497:A512"/>
+    <mergeCell ref="B497:B500"/>
+    <mergeCell ref="B501:B504"/>
+    <mergeCell ref="B505:B508"/>
+    <mergeCell ref="B509:B512"/>
+    <mergeCell ref="A513:A528"/>
+    <mergeCell ref="B513:B516"/>
+    <mergeCell ref="B517:B520"/>
+    <mergeCell ref="B521:B524"/>
+    <mergeCell ref="B525:B528"/>
+    <mergeCell ref="A529:A544"/>
+    <mergeCell ref="B529:B532"/>
+    <mergeCell ref="B533:B536"/>
+    <mergeCell ref="B537:B540"/>
+    <mergeCell ref="B541:B544"/>
+    <mergeCell ref="A545:A560"/>
+    <mergeCell ref="B545:B548"/>
+    <mergeCell ref="B549:B552"/>
+    <mergeCell ref="B553:B556"/>
+    <mergeCell ref="B557:B560"/>
+    <mergeCell ref="A561:A576"/>
+    <mergeCell ref="B561:B564"/>
+    <mergeCell ref="B565:B568"/>
+    <mergeCell ref="B569:B572"/>
+    <mergeCell ref="B573:B576"/>
+    <mergeCell ref="A577:A592"/>
+    <mergeCell ref="B577:B580"/>
+    <mergeCell ref="B581:B584"/>
+    <mergeCell ref="B585:B588"/>
+    <mergeCell ref="B589:B592"/>
+    <mergeCell ref="A593:A608"/>
+    <mergeCell ref="B593:B596"/>
+    <mergeCell ref="B597:B600"/>
+    <mergeCell ref="B601:B604"/>
+    <mergeCell ref="B605:B608"/>
+    <mergeCell ref="A609:A624"/>
+    <mergeCell ref="B609:B612"/>
+    <mergeCell ref="B613:B616"/>
+    <mergeCell ref="B617:B620"/>
+    <mergeCell ref="B621:B624"/>
+    <mergeCell ref="A625:A640"/>
+    <mergeCell ref="B625:B628"/>
+    <mergeCell ref="B629:B632"/>
+    <mergeCell ref="B633:B636"/>
+    <mergeCell ref="B637:B640"/>
+    <mergeCell ref="A641:A656"/>
+    <mergeCell ref="B641:B644"/>
+    <mergeCell ref="B645:B648"/>
+    <mergeCell ref="B649:B652"/>
+    <mergeCell ref="B653:B656"/>
+    <mergeCell ref="A657:A672"/>
+    <mergeCell ref="B657:B660"/>
+    <mergeCell ref="B661:B664"/>
+    <mergeCell ref="B665:B668"/>
+    <mergeCell ref="B669:B672"/>
+    <mergeCell ref="A673:A688"/>
+    <mergeCell ref="B673:B676"/>
+    <mergeCell ref="B677:B680"/>
+    <mergeCell ref="B681:B684"/>
+    <mergeCell ref="B685:B688"/>
+    <mergeCell ref="A689:A704"/>
+    <mergeCell ref="B689:B692"/>
+    <mergeCell ref="B693:B696"/>
+    <mergeCell ref="B697:B700"/>
+    <mergeCell ref="B701:B704"/>
+    <mergeCell ref="A705:A720"/>
+    <mergeCell ref="B705:B708"/>
+    <mergeCell ref="B709:B712"/>
+    <mergeCell ref="B713:B716"/>
+    <mergeCell ref="B717:B720"/>
+    <mergeCell ref="A721:A736"/>
+    <mergeCell ref="B721:B724"/>
+    <mergeCell ref="B725:B728"/>
+    <mergeCell ref="B729:B732"/>
+    <mergeCell ref="B733:B736"/>
+    <mergeCell ref="A737:A752"/>
+    <mergeCell ref="B737:B740"/>
+    <mergeCell ref="B741:B744"/>
+    <mergeCell ref="B745:B748"/>
+    <mergeCell ref="B749:B752"/>
+    <mergeCell ref="A753:A768"/>
+    <mergeCell ref="B753:B756"/>
+    <mergeCell ref="B757:B760"/>
+    <mergeCell ref="B761:B764"/>
+    <mergeCell ref="B765:B768"/>
     <mergeCell ref="A769:A784"/>
     <mergeCell ref="B769:B772"/>
     <mergeCell ref="B773:B776"/>
@@ -9169,246 +9357,6 @@
     <mergeCell ref="B789:B792"/>
     <mergeCell ref="B793:B796"/>
     <mergeCell ref="B797:B800"/>
-    <mergeCell ref="A737:A752"/>
-    <mergeCell ref="B737:B740"/>
-    <mergeCell ref="B741:B744"/>
-    <mergeCell ref="B745:B748"/>
-    <mergeCell ref="B749:B752"/>
-    <mergeCell ref="A753:A768"/>
-    <mergeCell ref="B753:B756"/>
-    <mergeCell ref="B757:B760"/>
-    <mergeCell ref="B761:B764"/>
-    <mergeCell ref="B765:B768"/>
-    <mergeCell ref="A705:A720"/>
-    <mergeCell ref="B705:B708"/>
-    <mergeCell ref="B709:B712"/>
-    <mergeCell ref="B713:B716"/>
-    <mergeCell ref="B717:B720"/>
-    <mergeCell ref="A721:A736"/>
-    <mergeCell ref="B721:B724"/>
-    <mergeCell ref="B725:B728"/>
-    <mergeCell ref="B729:B732"/>
-    <mergeCell ref="B733:B736"/>
-    <mergeCell ref="A673:A688"/>
-    <mergeCell ref="B673:B676"/>
-    <mergeCell ref="B677:B680"/>
-    <mergeCell ref="B681:B684"/>
-    <mergeCell ref="B685:B688"/>
-    <mergeCell ref="A689:A704"/>
-    <mergeCell ref="B689:B692"/>
-    <mergeCell ref="B693:B696"/>
-    <mergeCell ref="B697:B700"/>
-    <mergeCell ref="B701:B704"/>
-    <mergeCell ref="A641:A656"/>
-    <mergeCell ref="B641:B644"/>
-    <mergeCell ref="B645:B648"/>
-    <mergeCell ref="B649:B652"/>
-    <mergeCell ref="B653:B656"/>
-    <mergeCell ref="A657:A672"/>
-    <mergeCell ref="B657:B660"/>
-    <mergeCell ref="B661:B664"/>
-    <mergeCell ref="B665:B668"/>
-    <mergeCell ref="B669:B672"/>
-    <mergeCell ref="A609:A624"/>
-    <mergeCell ref="B609:B612"/>
-    <mergeCell ref="B613:B616"/>
-    <mergeCell ref="B617:B620"/>
-    <mergeCell ref="B621:B624"/>
-    <mergeCell ref="A625:A640"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="B629:B632"/>
-    <mergeCell ref="B633:B636"/>
-    <mergeCell ref="B637:B640"/>
-    <mergeCell ref="A577:A592"/>
-    <mergeCell ref="B577:B580"/>
-    <mergeCell ref="B581:B584"/>
-    <mergeCell ref="B585:B588"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="A593:A608"/>
-    <mergeCell ref="B593:B596"/>
-    <mergeCell ref="B597:B600"/>
-    <mergeCell ref="B601:B604"/>
-    <mergeCell ref="B605:B608"/>
-    <mergeCell ref="A545:A560"/>
-    <mergeCell ref="B545:B548"/>
-    <mergeCell ref="B549:B552"/>
-    <mergeCell ref="B553:B556"/>
-    <mergeCell ref="B557:B560"/>
-    <mergeCell ref="A561:A576"/>
-    <mergeCell ref="B561:B564"/>
-    <mergeCell ref="B565:B568"/>
-    <mergeCell ref="B569:B572"/>
-    <mergeCell ref="B573:B576"/>
-    <mergeCell ref="A513:A528"/>
-    <mergeCell ref="B513:B516"/>
-    <mergeCell ref="B517:B520"/>
-    <mergeCell ref="B521:B524"/>
-    <mergeCell ref="B525:B528"/>
-    <mergeCell ref="A529:A544"/>
-    <mergeCell ref="B529:B532"/>
-    <mergeCell ref="B533:B536"/>
-    <mergeCell ref="B537:B540"/>
-    <mergeCell ref="B541:B544"/>
-    <mergeCell ref="A481:A496"/>
-    <mergeCell ref="B481:B484"/>
-    <mergeCell ref="B485:B488"/>
-    <mergeCell ref="B489:B492"/>
-    <mergeCell ref="B493:B496"/>
-    <mergeCell ref="A497:A512"/>
-    <mergeCell ref="B497:B500"/>
-    <mergeCell ref="B501:B504"/>
-    <mergeCell ref="B505:B508"/>
-    <mergeCell ref="B509:B512"/>
-    <mergeCell ref="A449:A464"/>
-    <mergeCell ref="B449:B452"/>
-    <mergeCell ref="B453:B456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="A465:A480"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="B473:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="A417:A432"/>
-    <mergeCell ref="B417:B420"/>
-    <mergeCell ref="B421:B424"/>
-    <mergeCell ref="B425:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="A433:A448"/>
-    <mergeCell ref="B433:B436"/>
-    <mergeCell ref="B437:B440"/>
-    <mergeCell ref="B441:B444"/>
-    <mergeCell ref="B445:B448"/>
-    <mergeCell ref="A385:A400"/>
-    <mergeCell ref="B385:B388"/>
-    <mergeCell ref="B389:B392"/>
-    <mergeCell ref="B393:B396"/>
-    <mergeCell ref="B397:B400"/>
-    <mergeCell ref="A401:A416"/>
-    <mergeCell ref="B401:B404"/>
-    <mergeCell ref="B405:B408"/>
-    <mergeCell ref="B409:B412"/>
-    <mergeCell ref="B413:B416"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A96"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A97:A112"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A129:A144"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="A145:A160"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A192"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A193:A208"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A209:A224"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A225:A240"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A257:A272"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="B261:B264"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="B269:B272"/>
-    <mergeCell ref="A273:A288"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="A289:A304"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="B293:B296"/>
-    <mergeCell ref="B297:B300"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="A305:A320"/>
-    <mergeCell ref="B305:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="A321:A336"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="A337:A352"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="A353:A368"/>
-    <mergeCell ref="B353:B356"/>
-    <mergeCell ref="B357:B360"/>
-    <mergeCell ref="B361:B364"/>
-    <mergeCell ref="B365:B368"/>
-    <mergeCell ref="A369:A384"/>
-    <mergeCell ref="B369:B372"/>
-    <mergeCell ref="B373:B376"/>
-    <mergeCell ref="B377:B380"/>
-    <mergeCell ref="B381:B384"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DTW/data/no_skip.xlsx
+++ b/DTW/data/no_skip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jji94\Documents\Github\INC_BEV_FastMOT\DTW\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EEC721-2CED-43EB-8203-AAF47E53E7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D49A6C3-5409-4FA4-A743-0AAE5AFBF65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2250" windowWidth="10875" windowHeight="11385" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{F7770F3D-F9C2-4C2A-97D3-3A6C1C02D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="76">
   <si>
     <t>정익</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -930,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E810037-98D3-4B06-AAD8-9F0B4D51D317}">
   <dimension ref="A1:D800"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A773" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D796" sqref="D796"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D286" sqref="D286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3849,8 +3849,8 @@
       <c r="C286" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D286" s="4">
-        <v>1.5</v>
+      <c r="D286" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -9107,6 +9107,246 @@
     </row>
   </sheetData>
   <mergeCells count="250">
+    <mergeCell ref="A769:A784"/>
+    <mergeCell ref="B769:B772"/>
+    <mergeCell ref="B773:B776"/>
+    <mergeCell ref="B777:B780"/>
+    <mergeCell ref="B781:B784"/>
+    <mergeCell ref="A785:A800"/>
+    <mergeCell ref="B785:B788"/>
+    <mergeCell ref="B789:B792"/>
+    <mergeCell ref="B793:B796"/>
+    <mergeCell ref="B797:B800"/>
+    <mergeCell ref="A737:A752"/>
+    <mergeCell ref="B737:B740"/>
+    <mergeCell ref="B741:B744"/>
+    <mergeCell ref="B745:B748"/>
+    <mergeCell ref="B749:B752"/>
+    <mergeCell ref="A753:A768"/>
+    <mergeCell ref="B753:B756"/>
+    <mergeCell ref="B757:B760"/>
+    <mergeCell ref="B761:B764"/>
+    <mergeCell ref="B765:B768"/>
+    <mergeCell ref="A705:A720"/>
+    <mergeCell ref="B705:B708"/>
+    <mergeCell ref="B709:B712"/>
+    <mergeCell ref="B713:B716"/>
+    <mergeCell ref="B717:B720"/>
+    <mergeCell ref="A721:A736"/>
+    <mergeCell ref="B721:B724"/>
+    <mergeCell ref="B725:B728"/>
+    <mergeCell ref="B729:B732"/>
+    <mergeCell ref="B733:B736"/>
+    <mergeCell ref="A673:A688"/>
+    <mergeCell ref="B673:B676"/>
+    <mergeCell ref="B677:B680"/>
+    <mergeCell ref="B681:B684"/>
+    <mergeCell ref="B685:B688"/>
+    <mergeCell ref="A689:A704"/>
+    <mergeCell ref="B689:B692"/>
+    <mergeCell ref="B693:B696"/>
+    <mergeCell ref="B697:B700"/>
+    <mergeCell ref="B701:B704"/>
+    <mergeCell ref="A641:A656"/>
+    <mergeCell ref="B641:B644"/>
+    <mergeCell ref="B645:B648"/>
+    <mergeCell ref="B649:B652"/>
+    <mergeCell ref="B653:B656"/>
+    <mergeCell ref="A657:A672"/>
+    <mergeCell ref="B657:B660"/>
+    <mergeCell ref="B661:B664"/>
+    <mergeCell ref="B665:B668"/>
+    <mergeCell ref="B669:B672"/>
+    <mergeCell ref="A609:A624"/>
+    <mergeCell ref="B609:B612"/>
+    <mergeCell ref="B613:B616"/>
+    <mergeCell ref="B617:B620"/>
+    <mergeCell ref="B621:B624"/>
+    <mergeCell ref="A625:A640"/>
+    <mergeCell ref="B625:B628"/>
+    <mergeCell ref="B629:B632"/>
+    <mergeCell ref="B633:B636"/>
+    <mergeCell ref="B637:B640"/>
+    <mergeCell ref="A577:A592"/>
+    <mergeCell ref="B577:B580"/>
+    <mergeCell ref="B581:B584"/>
+    <mergeCell ref="B585:B588"/>
+    <mergeCell ref="B589:B592"/>
+    <mergeCell ref="A593:A608"/>
+    <mergeCell ref="B593:B596"/>
+    <mergeCell ref="B597:B600"/>
+    <mergeCell ref="B601:B604"/>
+    <mergeCell ref="B605:B608"/>
+    <mergeCell ref="A545:A560"/>
+    <mergeCell ref="B545:B548"/>
+    <mergeCell ref="B549:B552"/>
+    <mergeCell ref="B553:B556"/>
+    <mergeCell ref="B557:B560"/>
+    <mergeCell ref="A561:A576"/>
+    <mergeCell ref="B561:B564"/>
+    <mergeCell ref="B565:B568"/>
+    <mergeCell ref="B569:B572"/>
+    <mergeCell ref="B573:B576"/>
+    <mergeCell ref="A513:A528"/>
+    <mergeCell ref="B513:B516"/>
+    <mergeCell ref="B517:B520"/>
+    <mergeCell ref="B521:B524"/>
+    <mergeCell ref="B525:B528"/>
+    <mergeCell ref="A529:A544"/>
+    <mergeCell ref="B529:B532"/>
+    <mergeCell ref="B533:B536"/>
+    <mergeCell ref="B537:B540"/>
+    <mergeCell ref="B541:B544"/>
+    <mergeCell ref="A481:A496"/>
+    <mergeCell ref="B481:B484"/>
+    <mergeCell ref="B485:B488"/>
+    <mergeCell ref="B489:B492"/>
+    <mergeCell ref="B493:B496"/>
+    <mergeCell ref="A497:A512"/>
+    <mergeCell ref="B497:B500"/>
+    <mergeCell ref="B501:B504"/>
+    <mergeCell ref="B505:B508"/>
+    <mergeCell ref="B509:B512"/>
+    <mergeCell ref="A449:A464"/>
+    <mergeCell ref="B449:B452"/>
+    <mergeCell ref="B453:B456"/>
+    <mergeCell ref="B457:B460"/>
+    <mergeCell ref="B461:B464"/>
+    <mergeCell ref="A465:A480"/>
+    <mergeCell ref="B465:B468"/>
+    <mergeCell ref="B469:B472"/>
+    <mergeCell ref="B473:B476"/>
+    <mergeCell ref="B477:B480"/>
+    <mergeCell ref="A417:A432"/>
+    <mergeCell ref="B417:B420"/>
+    <mergeCell ref="B421:B424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="B429:B432"/>
+    <mergeCell ref="A433:A448"/>
+    <mergeCell ref="B433:B436"/>
+    <mergeCell ref="B437:B440"/>
+    <mergeCell ref="B441:B444"/>
+    <mergeCell ref="B445:B448"/>
+    <mergeCell ref="A385:A400"/>
+    <mergeCell ref="B385:B388"/>
+    <mergeCell ref="B389:B392"/>
+    <mergeCell ref="B393:B396"/>
+    <mergeCell ref="B397:B400"/>
+    <mergeCell ref="A401:A416"/>
+    <mergeCell ref="B401:B404"/>
+    <mergeCell ref="B405:B408"/>
+    <mergeCell ref="B409:B412"/>
+    <mergeCell ref="B413:B416"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A1:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="A33:A48"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A49:A64"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A65:A80"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A81:A96"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A97:A112"/>
+    <mergeCell ref="B97:B100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A113:A128"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B120"/>
+    <mergeCell ref="B121:B124"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="A129:A144"/>
+    <mergeCell ref="B129:B132"/>
+    <mergeCell ref="B133:B136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B141:B144"/>
+    <mergeCell ref="A145:A160"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="A161:A176"/>
+    <mergeCell ref="B161:B164"/>
+    <mergeCell ref="B165:B168"/>
+    <mergeCell ref="B169:B172"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="A177:A192"/>
+    <mergeCell ref="B177:B180"/>
+    <mergeCell ref="B181:B184"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="B189:B192"/>
+    <mergeCell ref="A193:A208"/>
+    <mergeCell ref="B193:B196"/>
+    <mergeCell ref="B197:B200"/>
+    <mergeCell ref="B201:B204"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="A209:A224"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="B213:B216"/>
+    <mergeCell ref="B217:B220"/>
+    <mergeCell ref="B221:B224"/>
+    <mergeCell ref="A225:A240"/>
+    <mergeCell ref="B225:B228"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="B233:B236"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A241:A256"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="B245:B248"/>
+    <mergeCell ref="B249:B252"/>
+    <mergeCell ref="B253:B256"/>
+    <mergeCell ref="A257:A272"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="B261:B264"/>
+    <mergeCell ref="B265:B268"/>
+    <mergeCell ref="B269:B272"/>
+    <mergeCell ref="A273:A288"/>
+    <mergeCell ref="B273:B276"/>
+    <mergeCell ref="B277:B280"/>
+    <mergeCell ref="B281:B284"/>
+    <mergeCell ref="B285:B288"/>
+    <mergeCell ref="A289:A304"/>
+    <mergeCell ref="B289:B292"/>
+    <mergeCell ref="B293:B296"/>
+    <mergeCell ref="B297:B300"/>
+    <mergeCell ref="B301:B304"/>
+    <mergeCell ref="A305:A320"/>
+    <mergeCell ref="B305:B308"/>
+    <mergeCell ref="B309:B312"/>
+    <mergeCell ref="B313:B316"/>
+    <mergeCell ref="B317:B320"/>
+    <mergeCell ref="A321:A336"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="B325:B328"/>
+    <mergeCell ref="B329:B332"/>
+    <mergeCell ref="B333:B336"/>
+    <mergeCell ref="A337:A352"/>
+    <mergeCell ref="B337:B340"/>
+    <mergeCell ref="B341:B344"/>
+    <mergeCell ref="B345:B348"/>
+    <mergeCell ref="B349:B352"/>
     <mergeCell ref="A353:A368"/>
     <mergeCell ref="B353:B356"/>
     <mergeCell ref="B357:B360"/>
@@ -9117,246 +9357,6 @@
     <mergeCell ref="B373:B376"/>
     <mergeCell ref="B377:B380"/>
     <mergeCell ref="B381:B384"/>
-    <mergeCell ref="A321:A336"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="B325:B328"/>
-    <mergeCell ref="B329:B332"/>
-    <mergeCell ref="B333:B336"/>
-    <mergeCell ref="A337:A352"/>
-    <mergeCell ref="B337:B340"/>
-    <mergeCell ref="B341:B344"/>
-    <mergeCell ref="B345:B348"/>
-    <mergeCell ref="B349:B352"/>
-    <mergeCell ref="A289:A304"/>
-    <mergeCell ref="B289:B292"/>
-    <mergeCell ref="B293:B296"/>
-    <mergeCell ref="B297:B300"/>
-    <mergeCell ref="B301:B304"/>
-    <mergeCell ref="A305:A320"/>
-    <mergeCell ref="B305:B308"/>
-    <mergeCell ref="B309:B312"/>
-    <mergeCell ref="B313:B316"/>
-    <mergeCell ref="B317:B320"/>
-    <mergeCell ref="A257:A272"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="B261:B264"/>
-    <mergeCell ref="B265:B268"/>
-    <mergeCell ref="B269:B272"/>
-    <mergeCell ref="A273:A288"/>
-    <mergeCell ref="B273:B276"/>
-    <mergeCell ref="B277:B280"/>
-    <mergeCell ref="B281:B284"/>
-    <mergeCell ref="B285:B288"/>
-    <mergeCell ref="A225:A240"/>
-    <mergeCell ref="B225:B228"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="B233:B236"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A241:A256"/>
-    <mergeCell ref="B241:B244"/>
-    <mergeCell ref="B245:B248"/>
-    <mergeCell ref="B249:B252"/>
-    <mergeCell ref="B253:B256"/>
-    <mergeCell ref="A193:A208"/>
-    <mergeCell ref="B193:B196"/>
-    <mergeCell ref="B197:B200"/>
-    <mergeCell ref="B201:B204"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="A209:A224"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="B213:B216"/>
-    <mergeCell ref="B217:B220"/>
-    <mergeCell ref="B221:B224"/>
-    <mergeCell ref="A161:A176"/>
-    <mergeCell ref="B161:B164"/>
-    <mergeCell ref="B165:B168"/>
-    <mergeCell ref="B169:B172"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="A177:A192"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B181:B184"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="B189:B192"/>
-    <mergeCell ref="A129:A144"/>
-    <mergeCell ref="B129:B132"/>
-    <mergeCell ref="B133:B136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="B141:B144"/>
-    <mergeCell ref="A145:A160"/>
-    <mergeCell ref="B145:B148"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="A97:A112"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="B105:B108"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A113:A128"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B128"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A96"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A33:A48"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A64"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="A385:A400"/>
-    <mergeCell ref="B385:B388"/>
-    <mergeCell ref="B389:B392"/>
-    <mergeCell ref="B393:B396"/>
-    <mergeCell ref="B397:B400"/>
-    <mergeCell ref="A401:A416"/>
-    <mergeCell ref="B401:B404"/>
-    <mergeCell ref="B405:B408"/>
-    <mergeCell ref="B409:B412"/>
-    <mergeCell ref="B413:B416"/>
-    <mergeCell ref="A417:A432"/>
-    <mergeCell ref="B417:B420"/>
-    <mergeCell ref="B421:B424"/>
-    <mergeCell ref="B425:B428"/>
-    <mergeCell ref="B429:B432"/>
-    <mergeCell ref="A433:A448"/>
-    <mergeCell ref="B433:B436"/>
-    <mergeCell ref="B437:B440"/>
-    <mergeCell ref="B441:B444"/>
-    <mergeCell ref="B445:B448"/>
-    <mergeCell ref="A449:A464"/>
-    <mergeCell ref="B449:B452"/>
-    <mergeCell ref="B453:B456"/>
-    <mergeCell ref="B457:B460"/>
-    <mergeCell ref="B461:B464"/>
-    <mergeCell ref="A465:A480"/>
-    <mergeCell ref="B465:B468"/>
-    <mergeCell ref="B469:B472"/>
-    <mergeCell ref="B473:B476"/>
-    <mergeCell ref="B477:B480"/>
-    <mergeCell ref="A481:A496"/>
-    <mergeCell ref="B481:B484"/>
-    <mergeCell ref="B485:B488"/>
-    <mergeCell ref="B489:B492"/>
-    <mergeCell ref="B493:B496"/>
-    <mergeCell ref="A497:A512"/>
-    <mergeCell ref="B497:B500"/>
-    <mergeCell ref="B501:B504"/>
-    <mergeCell ref="B505:B508"/>
-    <mergeCell ref="B509:B512"/>
-    <mergeCell ref="A513:A528"/>
-    <mergeCell ref="B513:B516"/>
-    <mergeCell ref="B517:B520"/>
-    <mergeCell ref="B521:B524"/>
-    <mergeCell ref="B525:B528"/>
-    <mergeCell ref="A529:A544"/>
-    <mergeCell ref="B529:B532"/>
-    <mergeCell ref="B533:B536"/>
-    <mergeCell ref="B537:B540"/>
-    <mergeCell ref="B541:B544"/>
-    <mergeCell ref="A545:A560"/>
-    <mergeCell ref="B545:B548"/>
-    <mergeCell ref="B549:B552"/>
-    <mergeCell ref="B553:B556"/>
-    <mergeCell ref="B557:B560"/>
-    <mergeCell ref="A561:A576"/>
-    <mergeCell ref="B561:B564"/>
-    <mergeCell ref="B565:B568"/>
-    <mergeCell ref="B569:B572"/>
-    <mergeCell ref="B573:B576"/>
-    <mergeCell ref="A577:A592"/>
-    <mergeCell ref="B577:B580"/>
-    <mergeCell ref="B581:B584"/>
-    <mergeCell ref="B585:B588"/>
-    <mergeCell ref="B589:B592"/>
-    <mergeCell ref="A593:A608"/>
-    <mergeCell ref="B593:B596"/>
-    <mergeCell ref="B597:B600"/>
-    <mergeCell ref="B601:B604"/>
-    <mergeCell ref="B605:B608"/>
-    <mergeCell ref="A609:A624"/>
-    <mergeCell ref="B609:B612"/>
-    <mergeCell ref="B613:B616"/>
-    <mergeCell ref="B617:B620"/>
-    <mergeCell ref="B621:B624"/>
-    <mergeCell ref="A625:A640"/>
-    <mergeCell ref="B625:B628"/>
-    <mergeCell ref="B629:B632"/>
-    <mergeCell ref="B633:B636"/>
-    <mergeCell ref="B637:B640"/>
-    <mergeCell ref="A641:A656"/>
-    <mergeCell ref="B641:B644"/>
-    <mergeCell ref="B645:B648"/>
-    <mergeCell ref="B649:B652"/>
-    <mergeCell ref="B653:B656"/>
-    <mergeCell ref="A657:A672"/>
-    <mergeCell ref="B657:B660"/>
-    <mergeCell ref="B661:B664"/>
-    <mergeCell ref="B665:B668"/>
-    <mergeCell ref="B669:B672"/>
-    <mergeCell ref="A673:A688"/>
-    <mergeCell ref="B673:B676"/>
-    <mergeCell ref="B677:B680"/>
-    <mergeCell ref="B681:B684"/>
-    <mergeCell ref="B685:B688"/>
-    <mergeCell ref="A689:A704"/>
-    <mergeCell ref="B689:B692"/>
-    <mergeCell ref="B693:B696"/>
-    <mergeCell ref="B697:B700"/>
-    <mergeCell ref="B701:B704"/>
-    <mergeCell ref="A705:A720"/>
-    <mergeCell ref="B705:B708"/>
-    <mergeCell ref="B709:B712"/>
-    <mergeCell ref="B713:B716"/>
-    <mergeCell ref="B717:B720"/>
-    <mergeCell ref="A721:A736"/>
-    <mergeCell ref="B721:B724"/>
-    <mergeCell ref="B725:B728"/>
-    <mergeCell ref="B729:B732"/>
-    <mergeCell ref="B733:B736"/>
-    <mergeCell ref="A737:A752"/>
-    <mergeCell ref="B737:B740"/>
-    <mergeCell ref="B741:B744"/>
-    <mergeCell ref="B745:B748"/>
-    <mergeCell ref="B749:B752"/>
-    <mergeCell ref="A753:A768"/>
-    <mergeCell ref="B753:B756"/>
-    <mergeCell ref="B757:B760"/>
-    <mergeCell ref="B761:B764"/>
-    <mergeCell ref="B765:B768"/>
-    <mergeCell ref="A769:A784"/>
-    <mergeCell ref="B769:B772"/>
-    <mergeCell ref="B773:B776"/>
-    <mergeCell ref="B777:B780"/>
-    <mergeCell ref="B781:B784"/>
-    <mergeCell ref="A785:A800"/>
-    <mergeCell ref="B785:B788"/>
-    <mergeCell ref="B789:B792"/>
-    <mergeCell ref="B793:B796"/>
-    <mergeCell ref="B797:B800"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
